--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,139 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="E8" s="3">
-        <v>600</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
         <v>700</v>
       </c>
       <c r="G8" s="3">
+        <v>600</v>
+      </c>
+      <c r="H8" s="3">
+        <v>700</v>
+      </c>
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>400</v>
-      </c>
-      <c r="K8" s="3">
-        <v>300</v>
-      </c>
-      <c r="L8" s="3">
-        <v>300</v>
       </c>
       <c r="M8" s="3">
         <v>300</v>
       </c>
       <c r="N8" s="3">
+        <v>300</v>
+      </c>
+      <c r="O8" s="3">
+        <v>300</v>
+      </c>
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="E9" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>400</v>
@@ -793,7 +806,7 @@
         <v>300</v>
       </c>
       <c r="H9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="I9" s="3">
         <v>300</v>
@@ -802,25 +815,31 @@
         <v>200</v>
       </c>
       <c r="K9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O9" s="3">
+        <v>100</v>
+      </c>
+      <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -828,43 +847,49 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="F10" s="3">
         <v>300</v>
       </c>
       <c r="G10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>500</v>
+      </c>
+      <c r="J10" s="3">
         <v>300</v>
       </c>
-      <c r="J10" s="3">
-        <v>200</v>
-      </c>
       <c r="K10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>200</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N10" s="3">
+        <v>200</v>
+      </c>
+      <c r="O10" s="3">
+        <v>200</v>
+      </c>
+      <c r="P10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>400</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,8 +1002,14 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1013,8 +1052,14 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,78 +1123,86 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F17" s="3">
         <v>800</v>
-      </c>
-      <c r="E17" s="3">
-        <v>600</v>
-      </c>
-      <c r="F17" s="3">
-        <v>600</v>
       </c>
       <c r="G17" s="3">
         <v>600</v>
       </c>
       <c r="H17" s="3">
+        <v>600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>600</v>
+      </c>
+      <c r="J17" s="3">
         <v>500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>400</v>
-      </c>
-      <c r="K17" s="3">
-        <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>400</v>
       </c>
       <c r="P17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>400</v>
+      </c>
+      <c r="R17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
       </c>
       <c r="K18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="L18" s="3">
         <v>0</v>
@@ -1152,16 +1211,22 @@
         <v>-100</v>
       </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>300</v>
       </c>
-      <c r="P18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1222,52 +1289,64 @@
       <c r="P20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-100</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>200</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>200</v>
+      </c>
+      <c r="R21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1275,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1310,96 +1389,114 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-100</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
-        <v>100</v>
-      </c>
       <c r="G23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>200</v>
-      </c>
       <c r="P23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>200</v>
+      </c>
+      <c r="R23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
+      <c r="D24" s="3">
+        <v>0</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
+        <v>0</v>
+      </c>
+      <c r="M24" s="3">
+        <v>0</v>
+      </c>
+      <c r="N24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N24" s="3">
-        <v>0</v>
-      </c>
-      <c r="O24" s="3">
-        <v>0</v>
-      </c>
-      <c r="P24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-100</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
-      <c r="F26" s="3">
-        <v>100</v>
-      </c>
       <c r="G26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J26" s="3">
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
+        <v>0</v>
+      </c>
+      <c r="N26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>200</v>
-      </c>
       <c r="P26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>200</v>
+      </c>
+      <c r="R26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-100</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
-      <c r="F27" s="3">
-        <v>100</v>
-      </c>
       <c r="G27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
+        <v>0</v>
+      </c>
+      <c r="N27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>200</v>
-      </c>
       <c r="P27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>200</v>
+      </c>
+      <c r="R27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1750,52 +1889,64 @@
       <c r="P32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-100</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
-      <c r="F33" s="3">
-        <v>100</v>
-      </c>
       <c r="G33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>200</v>
-      </c>
       <c r="P33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>200</v>
+      </c>
+      <c r="R33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-100</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
-      <c r="F35" s="3">
-        <v>100</v>
-      </c>
       <c r="G35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>200</v>
-      </c>
       <c r="P35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>200</v>
+      </c>
+      <c r="R35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,52 +2138,60 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>600</v>
+      </c>
+      <c r="F41" s="3">
         <v>1000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>400</v>
       </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>100</v>
-      </c>
       <c r="J41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>100</v>
       </c>
       <c r="L41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>300</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>300</v>
+      </c>
+      <c r="R41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2055,63 +2234,75 @@
       <c r="P42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
+        <v>600</v>
+      </c>
+      <c r="G43" s="3">
         <v>400</v>
       </c>
-      <c r="F43" s="3">
-        <v>200</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>200</v>
+      </c>
+      <c r="I43" s="3">
         <v>300</v>
-      </c>
-      <c r="H43" s="3">
-        <v>300</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
       </c>
       <c r="N43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>600</v>
+      </c>
+      <c r="F44" s="3">
         <v>700</v>
-      </c>
-      <c r="E44" s="3">
-        <v>400</v>
-      </c>
-      <c r="F44" s="3">
-        <v>400</v>
       </c>
       <c r="G44" s="3">
         <v>400</v>
@@ -2120,16 +2311,16 @@
         <v>400</v>
       </c>
       <c r="I44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="J44" s="3">
         <v>400</v>
       </c>
       <c r="K44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="L44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>300</v>
@@ -2143,19 +2334,25 @@
       <c r="P44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>300</v>
+      </c>
+      <c r="R44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
         <v>100</v>
@@ -2167,10 +2364,10 @@
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F46" s="3">
         <v>2200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
-      </c>
-      <c r="M46" s="3">
-        <v>700</v>
-      </c>
-      <c r="N46" s="3">
-        <v>700</v>
       </c>
       <c r="O46" s="3">
         <v>700</v>
       </c>
       <c r="P46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>700</v>
+      </c>
+      <c r="R46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,8 +2484,14 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2284,28 +2499,28 @@
         <v>700</v>
       </c>
       <c r="E48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="F48" s="3">
+        <v>700</v>
+      </c>
+      <c r="G48" s="3">
+        <v>200</v>
+      </c>
+      <c r="H48" s="3">
         <v>300</v>
       </c>
-      <c r="G48" s="3">
-        <v>200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>200</v>
-      </c>
       <c r="I48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M48" s="3">
         <v>100</v>
@@ -2319,19 +2534,25 @@
       <c r="P48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3">
+        <v>100</v>
+      </c>
+      <c r="R48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
         <v>800</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>8</v>
+      <c r="E49" s="3">
+        <v>800</v>
+      </c>
+      <c r="F49" s="3">
+        <v>800</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>8</v>
@@ -2345,11 +2566,11 @@
       <c r="J49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
-      <c r="L49" s="3">
-        <v>0</v>
+      <c r="K49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -2363,8 +2584,14 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2495,8 +2734,14 @@
       <c r="P52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F54" s="3">
         <v>3800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>1700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>700</v>
-      </c>
-      <c r="M54" s="3">
-        <v>800</v>
-      </c>
-      <c r="N54" s="3">
-        <v>800</v>
       </c>
       <c r="O54" s="3">
         <v>800</v>
       </c>
       <c r="P54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>800</v>
+      </c>
+      <c r="R54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,8 +2878,10 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2628,10 +2889,10 @@
         <v>200</v>
       </c>
       <c r="E57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
@@ -2640,13 +2901,13 @@
         <v>100</v>
       </c>
       <c r="I57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J57" s="3">
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -2663,8 +2924,14 @@
       <c r="P57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3">
+        <v>100</v>
+      </c>
+      <c r="R57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2672,10 +2939,10 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G58" s="3">
         <v>100</v>
@@ -2693,96 +2960,108 @@
         <v>100</v>
       </c>
       <c r="L58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>100</v>
+      </c>
+      <c r="R58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200</v>
+      </c>
+      <c r="E59" s="3">
+        <v>200</v>
+      </c>
+      <c r="F59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>200</v>
-      </c>
-      <c r="F59" s="3">
-        <v>100</v>
-      </c>
       <c r="G59" s="3">
         <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>500</v>
+      </c>
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>300</v>
-      </c>
-      <c r="G60" s="3">
-        <v>400</v>
-      </c>
-      <c r="H60" s="3">
-        <v>400</v>
       </c>
       <c r="I60" s="3">
         <v>400</v>
       </c>
       <c r="J60" s="3">
+        <v>400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>400</v>
+      </c>
+      <c r="L60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
-        <v>200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>200</v>
-      </c>
       <c r="M60" s="3">
         <v>200</v>
       </c>
@@ -2793,33 +3072,39 @@
         <v>200</v>
       </c>
       <c r="P60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>200</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1700</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
-        <v>100</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
-      </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -2839,25 +3124,31 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>300</v>
+      </c>
+      <c r="E62" s="3">
+        <v>300</v>
+      </c>
+      <c r="F62" s="3">
         <v>400</v>
       </c>
-      <c r="E62" s="3">
-        <v>0</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>8</v>
+      <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>8</v>
@@ -2865,11 +3156,11 @@
       <c r="J62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
-      <c r="L62" s="3">
-        <v>0</v>
+      <c r="K62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M62" s="3">
         <v>0</v>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,38 +3324,44 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>600</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
-        <v>200</v>
-      </c>
-      <c r="L66" s="3">
-        <v>200</v>
-      </c>
       <c r="M66" s="3">
         <v>200</v>
       </c>
@@ -3057,10 +3372,16 @@
         <v>200</v>
       </c>
       <c r="P66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>200</v>
+      </c>
+      <c r="R66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-1100</v>
       </c>
       <c r="J72" s="3">
         <v>-1100</v>
       </c>
       <c r="K72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="L72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1000</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
       </c>
       <c r="P72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,13 +3794,19 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E76" s="3">
         <v>1100</v>
@@ -3444,37 +3815,43 @@
         <v>1000</v>
       </c>
       <c r="G76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I76" s="3">
         <v>900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>700</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>700</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>600</v>
       </c>
       <c r="O76" s="3">
         <v>600</v>
       </c>
       <c r="P76" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>600</v>
+      </c>
+      <c r="R76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-100</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
-      <c r="F81" s="3">
-        <v>100</v>
-      </c>
       <c r="G81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J81" s="3">
         <v>0</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
+        <v>0</v>
+      </c>
+      <c r="N81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>200</v>
-      </c>
       <c r="P81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>200</v>
+      </c>
+      <c r="R81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
-      <c r="G89" s="3">
-        <v>200</v>
-      </c>
       <c r="H89" s="3">
         <v>100</v>
       </c>
       <c r="I89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="L89" s="3">
         <v>-100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="N89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,13 +4393,15 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>8</v>
+      <c r="D91" s="3">
+        <v>0</v>
       </c>
       <c r="E91" s="3" t="s">
         <v>8</v>
@@ -3968,11 +4409,11 @@
       <c r="F91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="G91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -3998,8 +4439,14 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,20 +4539,26 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>0</v>
+      </c>
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -4130,8 +4589,14 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,25 +4809,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F100" s="3">
         <v>1000</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4366,10 +4857,16 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,48 +4909,60 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>300</v>
+        <v>-100</v>
       </c>
       <c r="E102" s="3">
-        <v>-100</v>
+        <v>-400</v>
       </c>
       <c r="F102" s="3">
         <v>300</v>
       </c>
       <c r="G102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="H102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="I102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
+        <v>100</v>
+      </c>
+      <c r="R102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,113 +665,117 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>700</v>
+      </c>
+      <c r="E8" s="3">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>400</v>
-      </c>
-      <c r="M8" s="3">
-        <v>300</v>
       </c>
       <c r="N8" s="3">
         <v>300</v>
@@ -780,66 +784,72 @@
         <v>300</v>
       </c>
       <c r="P8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q8" s="3">
         <v>500</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>700</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>300</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>300</v>
       </c>
-      <c r="J9" s="3">
-        <v>200</v>
-      </c>
       <c r="K9" s="3">
+        <v>200</v>
+      </c>
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
-        <v>200</v>
-      </c>
       <c r="M9" s="3">
         <v>200</v>
       </c>
       <c r="N9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O9" s="3">
         <v>100</v>
       </c>
       <c r="P9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
@@ -847,10 +857,10 @@
         <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>300</v>
+      </c>
+      <c r="F10" s="3">
         <v>500</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
       </c>
       <c r="G10" s="3">
         <v>300</v>
@@ -859,37 +869,40 @@
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O10" s="3">
         <v>200</v>
       </c>
       <c r="P10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q10" s="3">
         <v>300</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>400</v>
       </c>
       <c r="R10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,8 +1025,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1058,8 +1078,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,22 +1151,23 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
         <v>1100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>800</v>
-      </c>
-      <c r="G17" s="3">
-        <v>600</v>
       </c>
       <c r="H17" s="3">
         <v>600</v>
@@ -1149,22 +1176,22 @@
         <v>600</v>
       </c>
       <c r="J17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>500</v>
       </c>
       <c r="L17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="M17" s="3">
         <v>400</v>
       </c>
       <c r="N17" s="3">
+        <v>400</v>
+      </c>
+      <c r="O17" s="3">
         <v>300</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
       </c>
       <c r="P17" s="3">
         <v>400</v>
@@ -1173,60 +1200,66 @@
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>100</v>
-      </c>
       <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
-        <v>0</v>
-      </c>
       <c r="H18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
+        <v>0</v>
+      </c>
+      <c r="N18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
       <c r="O18" s="3">
+        <v>0</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>100</v>
-      </c>
       <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>300</v>
       </c>
-      <c r="R18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1278,9 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1295,58 +1329,64 @@
       <c r="R20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-100</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
         <v>100</v>
       </c>
       <c r="I21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
         <v>0</v>
       </c>
       <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
       <c r="Q21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
+        <v>200</v>
+      </c>
+      <c r="S21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1354,10 +1394,10 @@
         <v>0</v>
       </c>
       <c r="E22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1395,58 +1435,64 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E23" s="3">
         <v>-300</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-100</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
         <v>-100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1480,23 +1526,26 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>8</v>
+      <c r="N24" s="3">
+        <v>0</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P24" s="3">
-        <v>0</v>
+      <c r="P24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E26" s="3">
         <v>-300</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-100</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
         <v>-100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-300</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-100</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>-100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1912,11 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1895,58 +1965,64 @@
       <c r="R32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-300</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-100</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>-100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-300</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-100</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>-100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2226,9 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2149,25 +2236,25 @@
         <v>400</v>
       </c>
       <c r="E41" s="3">
+        <v>400</v>
+      </c>
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>1000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>800</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>400</v>
       </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
       <c r="K41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>100</v>
@@ -2176,10 +2263,10 @@
         <v>100</v>
       </c>
       <c r="N41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>300</v>
@@ -2188,10 +2275,13 @@
         <v>300</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="S41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,41 +2330,44 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>400</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
-      </c>
-      <c r="E43" s="3">
-        <v>600</v>
       </c>
       <c r="F43" s="3">
         <v>600</v>
       </c>
       <c r="G43" s="3">
+        <v>600</v>
+      </c>
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
       <c r="I43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="M43" s="3">
-        <v>100</v>
-      </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
@@ -2282,16 +2375,19 @@
         <v>100</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2302,10 +2398,10 @@
         <v>600</v>
       </c>
       <c r="F44" s="3">
+        <v>600</v>
+      </c>
+      <c r="G44" s="3">
         <v>700</v>
-      </c>
-      <c r="G44" s="3">
-        <v>400</v>
       </c>
       <c r="H44" s="3">
         <v>400</v>
@@ -2317,13 +2413,13 @@
         <v>400</v>
       </c>
       <c r="K44" s="3">
+        <v>400</v>
+      </c>
+      <c r="L44" s="3">
         <v>500</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>400</v>
-      </c>
-      <c r="M44" s="3">
-        <v>300</v>
       </c>
       <c r="N44" s="3">
         <v>300</v>
@@ -2340,22 +2436,25 @@
       <c r="R44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
         <v>100</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -2370,7 +2469,7 @@
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -2390,8 +2489,11 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,37 +2501,37 @@
         <v>1500</v>
       </c>
       <c r="E46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>800</v>
-      </c>
-      <c r="M46" s="3">
-        <v>600</v>
       </c>
       <c r="N46" s="3">
         <v>600</v>
       </c>
       <c r="O46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P46" s="3">
         <v>700</v>
@@ -2438,10 +2540,13 @@
         <v>700</v>
       </c>
       <c r="R46" s="3">
+        <v>700</v>
+      </c>
+      <c r="S46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2595,11 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2505,25 +2613,25 @@
         <v>700</v>
       </c>
       <c r="G48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="H48" s="3">
+        <v>200</v>
+      </c>
+      <c r="I48" s="3">
         <v>300</v>
       </c>
-      <c r="I48" s="3">
-        <v>200</v>
-      </c>
       <c r="J48" s="3">
         <v>200</v>
       </c>
       <c r="K48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N48" s="3">
         <v>100</v>
@@ -2540,8 +2648,11 @@
       <c r="R48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2554,8 +2665,8 @@
       <c r="F49" s="3">
         <v>800</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>8</v>
+      <c r="G49" s="3">
+        <v>800</v>
       </c>
       <c r="H49" s="3" t="s">
         <v>8</v>
@@ -2572,8 +2683,8 @@
       <c r="L49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
-        <v>0</v>
+      <c r="M49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -2590,8 +2701,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2740,8 +2860,11 @@
       <c r="R52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,8 +2913,11 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -2799,37 +2925,37 @@
         <v>3000</v>
       </c>
       <c r="E54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F54" s="3">
         <v>3400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>900</v>
-      </c>
-      <c r="M54" s="3">
-        <v>700</v>
       </c>
       <c r="N54" s="3">
         <v>700</v>
       </c>
       <c r="O54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="P54" s="3">
         <v>800</v>
@@ -2838,10 +2964,13 @@
         <v>800</v>
       </c>
       <c r="R54" s="3">
+        <v>800</v>
+      </c>
+      <c r="S54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3010,9 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -2895,7 +3026,7 @@
         <v>200</v>
       </c>
       <c r="G57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H57" s="3">
         <v>100</v>
@@ -2907,10 +3038,10 @@
         <v>100</v>
       </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -2930,13 +3061,16 @@
       <c r="R57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -2945,7 +3079,7 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H58" s="3">
         <v>100</v>
@@ -2966,13 +3100,13 @@
         <v>100</v>
       </c>
       <c r="N58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -2980,8 +3114,11 @@
       <c r="R58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2992,66 +3129,69 @@
         <v>200</v>
       </c>
       <c r="F59" s="3">
+        <v>200</v>
+      </c>
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J59" s="3">
         <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O59" s="3">
         <v>100</v>
       </c>
       <c r="P59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
-      </c>
-      <c r="G60" s="3">
-        <v>300</v>
       </c>
       <c r="H60" s="3">
         <v>300</v>
       </c>
       <c r="I60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J60" s="3">
         <v>400</v>
@@ -3060,11 +3200,11 @@
         <v>400</v>
       </c>
       <c r="L60" s="3">
+        <v>400</v>
+      </c>
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="M60" s="3">
-        <v>200</v>
-      </c>
       <c r="N60" s="3">
         <v>200</v>
       </c>
@@ -3078,36 +3218,39 @@
         <v>200</v>
       </c>
       <c r="R60" s="3">
+        <v>200</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="E61" s="3">
         <v>1400</v>
       </c>
       <c r="F61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G61" s="3">
         <v>1700</v>
-      </c>
-      <c r="G61" s="3">
-        <v>400</v>
       </c>
       <c r="H61" s="3">
         <v>400</v>
       </c>
       <c r="I61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>0</v>
@@ -3130,8 +3273,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3142,16 +3288,16 @@
         <v>300</v>
       </c>
       <c r="F62" s="3">
+        <v>300</v>
+      </c>
+      <c r="G62" s="3">
         <v>400</v>
       </c>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
       <c r="H62" s="3">
         <v>0</v>
       </c>
-      <c r="I62" s="3" t="s">
-        <v>8</v>
+      <c r="I62" s="3">
+        <v>0</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>8</v>
@@ -3162,8 +3308,8 @@
       <c r="L62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
+      <c r="M62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N62" s="3">
         <v>0</v>
@@ -3180,8 +3326,11 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,41 +3485,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>2300</v>
+        <v>2500</v>
       </c>
       <c r="E66" s="3">
         <v>2300</v>
       </c>
       <c r="F66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2700</v>
-      </c>
-      <c r="G66" s="3">
-        <v>700</v>
       </c>
       <c r="H66" s="3">
         <v>700</v>
       </c>
       <c r="I66" s="3">
+        <v>700</v>
+      </c>
+      <c r="J66" s="3">
         <v>500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>600</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="M66" s="3">
-        <v>200</v>
-      </c>
       <c r="N66" s="3">
         <v>200</v>
       </c>
@@ -3378,10 +3536,13 @@
         <v>200</v>
       </c>
       <c r="R66" s="3">
+        <v>200</v>
+      </c>
+      <c r="S66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,31 +3771,34 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-1200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-900</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-700</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-800</v>
       </c>
       <c r="I72" s="3">
         <v>-800</v>
       </c>
       <c r="J72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="K72" s="3">
         <v>-1100</v>
@@ -3633,25 +3807,28 @@
         <v>-1100</v>
       </c>
       <c r="M72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="N72" s="3">
         <v>-1200</v>
       </c>
       <c r="O72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="P72" s="3">
         <v>-1100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1100</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,46 +3983,49 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>600</v>
+      </c>
+      <c r="E76" s="3">
         <v>800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>700</v>
       </c>
       <c r="K76" s="3">
         <v>700</v>
       </c>
       <c r="L76" s="3">
+        <v>700</v>
+      </c>
+      <c r="M76" s="3">
         <v>600</v>
-      </c>
-      <c r="M76" s="3">
-        <v>500</v>
       </c>
       <c r="N76" s="3">
         <v>500</v>
       </c>
       <c r="O76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="P76" s="3">
         <v>600</v>
@@ -3848,10 +4034,13 @@
         <v>600</v>
       </c>
       <c r="R76" s="3">
+        <v>600</v>
+      </c>
+      <c r="S76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-300</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-100</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
         <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
         <v>-100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4223,9 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4075,8 +4274,11 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>100</v>
-      </c>
       <c r="I89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="J89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K89" s="3">
         <v>100</v>
       </c>
       <c r="L89" s="3">
+        <v>100</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
       <c r="P89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,16 +4615,17 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
         <v>0</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>8</v>
+      <c r="E91" s="3">
+        <v>0</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>8</v>
@@ -4415,8 +4636,8 @@
       <c r="H91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -4445,8 +4666,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4772,11 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4557,11 +4787,11 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -4595,8 +4825,11 @@
       <c r="R94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,28 +5058,31 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>-400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>1000</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
         <v>0</v>
@@ -4863,10 +5109,13 @@
         <v>0</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,54 +5164,60 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>0</v>
+      </c>
+      <c r="E102" s="3">
         <v>-100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>300</v>
       </c>
-      <c r="I102" s="3">
-        <v>200</v>
-      </c>
       <c r="J102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>
       </c>
       <c r="L102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="N102" s="3">
         <v>-100</v>
       </c>
       <c r="O102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,120 +665,124 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E8" s="3">
         <v>700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>400</v>
-      </c>
-      <c r="N8" s="3">
-        <v>300</v>
       </c>
       <c r="O8" s="3">
         <v>300</v>
@@ -787,83 +791,89 @@
         <v>300</v>
       </c>
       <c r="Q8" s="3">
+        <v>300</v>
+      </c>
+      <c r="R8" s="3">
         <v>500</v>
-      </c>
-      <c r="R8" s="3">
-        <v>700</v>
       </c>
       <c r="S8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>600</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>600</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>300</v>
       </c>
-      <c r="K9" s="3">
-        <v>200</v>
-      </c>
       <c r="L9" s="3">
+        <v>200</v>
+      </c>
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
-        <v>200</v>
-      </c>
       <c r="N9" s="3">
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P9" s="3">
         <v>100</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>300</v>
+      </c>
+      <c r="G10" s="3">
         <v>500</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
@@ -872,37 +882,40 @@
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
+        <v>200</v>
+      </c>
+      <c r="R10" s="3">
         <v>300</v>
-      </c>
-      <c r="R10" s="3">
-        <v>400</v>
       </c>
       <c r="S10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,8 +1045,11 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1081,8 +1101,11 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1157,11 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,25 +1178,26 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E17" s="3">
         <v>900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>800</v>
-      </c>
-      <c r="H17" s="3">
-        <v>600</v>
       </c>
       <c r="I17" s="3">
         <v>600</v>
@@ -1179,22 +1206,22 @@
         <v>600</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="N17" s="3">
         <v>400</v>
       </c>
       <c r="O17" s="3">
+        <v>400</v>
+      </c>
+      <c r="P17" s="3">
         <v>300</v>
-      </c>
-      <c r="P17" s="3">
-        <v>400</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
@@ -1203,63 +1230,69 @@
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>100</v>
+      </c>
+      <c r="E18" s="3">
         <v>-200</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-100</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
+        <v>0</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>300</v>
       </c>
-      <c r="S18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,8 +1312,9 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,61 +1366,67 @@
       <c r="S20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-100</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
         <v>100</v>
       </c>
       <c r="J21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
         <v>0</v>
       </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>200</v>
+      </c>
+      <c r="T21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1397,10 +1437,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1438,61 +1478,67 @@
       <c r="S22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>-200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-300</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-100</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1529,23 +1575,26 @@
       <c r="N24" s="3">
         <v>0</v>
       </c>
-      <c r="O24" s="3" t="s">
-        <v>8</v>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
+      <c r="Q24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>0</v>
+      </c>
+      <c r="E26" s="3">
         <v>-200</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-300</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-100</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>0</v>
+      </c>
+      <c r="E27" s="3">
         <v>-200</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-300</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-100</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1870,11 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,8 +1982,11 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1968,61 +2038,67 @@
       <c r="S32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>0</v>
+      </c>
+      <c r="E33" s="3">
         <v>-200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-300</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-100</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>0</v>
+      </c>
+      <c r="E35" s="3">
         <v>-200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-300</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-100</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,8 +2313,9 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2239,25 +2326,25 @@
         <v>400</v>
       </c>
       <c r="F41" s="3">
+        <v>400</v>
+      </c>
+      <c r="G41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>1000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>800</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
       <c r="L41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M41" s="3">
         <v>100</v>
@@ -2266,10 +2353,10 @@
         <v>100</v>
       </c>
       <c r="O41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>300</v>
@@ -2278,10 +2365,13 @@
         <v>300</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,44 +2423,47 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>800</v>
+      </c>
+      <c r="E43" s="3">
         <v>400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>500</v>
-      </c>
-      <c r="F43" s="3">
-        <v>600</v>
       </c>
       <c r="G43" s="3">
         <v>600</v>
       </c>
       <c r="H43" s="3">
+        <v>600</v>
+      </c>
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
-        <v>200</v>
-      </c>
       <c r="J43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K43" s="3">
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
       </c>
-      <c r="N43" s="3">
-        <v>100</v>
-      </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
@@ -2378,16 +2471,19 @@
         <v>100</v>
       </c>
       <c r="Q43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2401,10 +2497,10 @@
         <v>600</v>
       </c>
       <c r="G44" s="3">
+        <v>600</v>
+      </c>
+      <c r="H44" s="3">
         <v>700</v>
-      </c>
-      <c r="H44" s="3">
-        <v>400</v>
       </c>
       <c r="I44" s="3">
         <v>400</v>
@@ -2416,13 +2512,13 @@
         <v>400</v>
       </c>
       <c r="L44" s="3">
+        <v>400</v>
+      </c>
+      <c r="M44" s="3">
         <v>500</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>400</v>
-      </c>
-      <c r="N44" s="3">
-        <v>300</v>
       </c>
       <c r="O44" s="3">
         <v>300</v>
@@ -2439,25 +2535,28 @@
       <c r="S44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
@@ -2472,7 +2571,7 @@
         <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -2492,49 +2591,52 @@
       <c r="S45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="E46" s="3">
         <v>1500</v>
       </c>
       <c r="F46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="G46" s="3">
         <v>1900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
-      </c>
-      <c r="N46" s="3">
-        <v>600</v>
       </c>
       <c r="O46" s="3">
         <v>600</v>
       </c>
       <c r="P46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Q46" s="3">
         <v>700</v>
@@ -2543,10 +2645,13 @@
         <v>700</v>
       </c>
       <c r="S46" s="3">
+        <v>700</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2598,8 +2703,11 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2616,25 +2724,25 @@
         <v>700</v>
       </c>
       <c r="H48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="I48" s="3">
+        <v>200</v>
+      </c>
+      <c r="J48" s="3">
         <v>300</v>
       </c>
-      <c r="J48" s="3">
-        <v>200</v>
-      </c>
       <c r="K48" s="3">
         <v>200</v>
       </c>
       <c r="L48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M48" s="3">
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>100</v>
@@ -2651,8 +2759,11 @@
       <c r="S48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2668,8 +2779,8 @@
       <c r="G49" s="3">
         <v>800</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>8</v>
+      <c r="H49" s="3">
+        <v>800</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>8</v>
@@ -2686,8 +2797,8 @@
       <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
-        <v>0</v>
+      <c r="N49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O49" s="3">
         <v>0</v>
@@ -2704,8 +2815,11 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,8 +2927,11 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2863,8 +2983,11 @@
       <c r="S52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,49 +3039,52 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>3000</v>
+        <v>3300</v>
       </c>
       <c r="E54" s="3">
         <v>3000</v>
       </c>
       <c r="F54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G54" s="3">
         <v>3400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1100</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>900</v>
-      </c>
-      <c r="N54" s="3">
-        <v>700</v>
       </c>
       <c r="O54" s="3">
         <v>700</v>
       </c>
       <c r="P54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Q54" s="3">
         <v>800</v>
@@ -2967,10 +3093,13 @@
         <v>800</v>
       </c>
       <c r="S54" s="3">
+        <v>800</v>
+      </c>
+      <c r="T54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,8 +3141,9 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3029,7 +3160,7 @@
         <v>200</v>
       </c>
       <c r="H57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I57" s="3">
         <v>100</v>
@@ -3041,10 +3172,10 @@
         <v>100</v>
       </c>
       <c r="L57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3064,17 +3195,20 @@
       <c r="S57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>500</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
@@ -3082,7 +3216,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I58" s="3">
         <v>100</v>
@@ -3103,13 +3237,13 @@
         <v>100</v>
       </c>
       <c r="O58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R58" s="3">
         <v>100</v>
@@ -3117,8 +3251,11 @@
       <c r="S58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3132,69 +3269,72 @@
         <v>200</v>
       </c>
       <c r="G59" s="3">
+        <v>200</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
       <c r="I59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
         <v>100</v>
       </c>
       <c r="N59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
-      </c>
-      <c r="H60" s="3">
-        <v>300</v>
       </c>
       <c r="I60" s="3">
         <v>300</v>
       </c>
       <c r="J60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="K60" s="3">
         <v>400</v>
@@ -3203,11 +3343,11 @@
         <v>400</v>
       </c>
       <c r="M60" s="3">
+        <v>400</v>
+      </c>
+      <c r="N60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
-        <v>200</v>
-      </c>
       <c r="O60" s="3">
         <v>200</v>
       </c>
@@ -3221,10 +3361,13 @@
         <v>200</v>
       </c>
       <c r="S60" s="3">
+        <v>200</v>
+      </c>
+      <c r="T60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3232,28 +3375,28 @@
         <v>1500</v>
       </c>
       <c r="E61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F61" s="3">
         <v>1400</v>
       </c>
       <c r="G61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H61" s="3">
         <v>1700</v>
-      </c>
-      <c r="H61" s="3">
-        <v>400</v>
       </c>
       <c r="I61" s="3">
         <v>400</v>
       </c>
       <c r="J61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="K61" s="3">
         <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -3276,8 +3419,11 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3291,16 +3437,16 @@
         <v>300</v>
       </c>
       <c r="G62" s="3">
+        <v>300</v>
+      </c>
+      <c r="H62" s="3">
         <v>400</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>8</v>
+      <c r="J62" s="3">
+        <v>0</v>
       </c>
       <c r="K62" s="3" t="s">
         <v>8</v>
@@ -3311,8 +3457,8 @@
       <c r="M62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
+      <c r="N62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O62" s="3">
         <v>0</v>
@@ -3329,8 +3475,11 @@
       <c r="S62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,44 +3643,47 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
-      </c>
-      <c r="E66" s="3">
-        <v>2300</v>
       </c>
       <c r="F66" s="3">
         <v>2300</v>
       </c>
       <c r="G66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="H66" s="3">
         <v>2700</v>
-      </c>
-      <c r="H66" s="3">
-        <v>700</v>
       </c>
       <c r="I66" s="3">
         <v>700</v>
       </c>
       <c r="J66" s="3">
+        <v>700</v>
+      </c>
+      <c r="K66" s="3">
         <v>500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>600</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
-        <v>200</v>
-      </c>
       <c r="O66" s="3">
         <v>200</v>
       </c>
@@ -3539,10 +3697,13 @@
         <v>200</v>
       </c>
       <c r="S66" s="3">
+        <v>200</v>
+      </c>
+      <c r="T66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3833,11 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +3889,11 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +3945,11 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3783,25 +3957,25 @@
         <v>-1400</v>
       </c>
       <c r="E72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-800</v>
       </c>
       <c r="J72" s="3">
         <v>-800</v>
       </c>
       <c r="K72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="L72" s="3">
         <v>-1100</v>
@@ -3810,25 +3984,28 @@
         <v>-1100</v>
       </c>
       <c r="N72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="O72" s="3">
         <v>-1200</v>
       </c>
       <c r="P72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-1000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-1100</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,8 +4169,11 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -3995,40 +4181,40 @@
         <v>600</v>
       </c>
       <c r="E76" s="3">
+        <v>600</v>
+      </c>
+      <c r="F76" s="3">
         <v>800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>900</v>
-      </c>
-      <c r="K76" s="3">
-        <v>700</v>
       </c>
       <c r="L76" s="3">
         <v>700</v>
       </c>
       <c r="M76" s="3">
+        <v>700</v>
+      </c>
+      <c r="N76" s="3">
         <v>600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>500</v>
       </c>
       <c r="O76" s="3">
         <v>500</v>
       </c>
       <c r="P76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Q76" s="3">
         <v>600</v>
@@ -4037,10 +4223,13 @@
         <v>600</v>
       </c>
       <c r="S76" s="3">
+        <v>600</v>
+      </c>
+      <c r="T76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3">
         <v>-200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-300</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-100</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,8 +4422,9 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4277,8 +4476,11 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,8 +4756,11 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4551,52 +4768,55 @@
         <v>-200</v>
       </c>
       <c r="E89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>100</v>
-      </c>
       <c r="J89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
+        <v>100</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="P89" s="3">
-        <v>100</v>
-      </c>
       <c r="Q89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,8 +4836,9 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4627,8 +4848,8 @@
       <c r="E91" s="3">
         <v>0</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>8</v>
+      <c r="F91" s="3">
+        <v>0</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>8</v>
@@ -4639,8 +4860,8 @@
       <c r="I91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
+      <c r="J91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -4669,8 +4890,11 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,8 +5002,11 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4790,11 +5020,11 @@
         <v>0</v>
       </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-700</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -4828,8 +5058,11 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5136,11 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,8 +5304,11 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5070,22 +5316,22 @@
         <v>200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>-400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>1000</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -5112,10 +5358,13 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5167,8 +5416,11 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5176,48 +5428,51 @@
         <v>0</v>
       </c>
       <c r="E102" s="3">
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
         <v>-100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>300</v>
       </c>
-      <c r="J102" s="3">
-        <v>200</v>
-      </c>
       <c r="K102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L102" s="3">
         <v>100</v>
       </c>
       <c r="M102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O102" s="3">
         <v>-100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>0</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
+        <v>100</v>
+      </c>
+      <c r="T102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,165 +665,178 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
+        <v>900</v>
+      </c>
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>800</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1100</v>
-      </c>
-      <c r="H8" s="3">
-        <v>700</v>
-      </c>
-      <c r="I8" s="3">
-        <v>600</v>
       </c>
       <c r="J8" s="3">
         <v>700</v>
       </c>
       <c r="K8" s="3">
+        <v>600</v>
+      </c>
+      <c r="L8" s="3">
+        <v>700</v>
+      </c>
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>400</v>
-      </c>
-      <c r="O8" s="3">
-        <v>300</v>
-      </c>
-      <c r="P8" s="3">
-        <v>300</v>
       </c>
       <c r="Q8" s="3">
         <v>300</v>
       </c>
       <c r="R8" s="3">
+        <v>300</v>
+      </c>
+      <c r="S8" s="3">
+        <v>300</v>
+      </c>
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>400</v>
+      </c>
+      <c r="E9" s="3">
         <v>600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
+        <v>600</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>500</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>600</v>
-      </c>
-      <c r="H9" s="3">
-        <v>400</v>
-      </c>
-      <c r="I9" s="3">
-        <v>300</v>
       </c>
       <c r="J9" s="3">
         <v>400</v>
@@ -832,7 +845,7 @@
         <v>300</v>
       </c>
       <c r="L9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="M9" s="3">
         <v>300</v>
@@ -841,81 +854,93 @@
         <v>200</v>
       </c>
       <c r="O9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S9" s="3">
+        <v>100</v>
+      </c>
+      <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="E10" s="3">
         <v>300</v>
       </c>
       <c r="F10" s="3">
+        <v>600</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>500</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>500</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
-        <v>200</v>
-      </c>
       <c r="O10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>200</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R10" s="3">
+        <v>200</v>
+      </c>
+      <c r="S10" s="3">
+        <v>200</v>
+      </c>
+      <c r="T10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>400</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +961,10 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1019,14 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,8 +1081,14 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1104,8 +1143,14 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1160,8 +1205,14 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,102 +1230,110 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
-        <v>1100</v>
+      <c r="D17" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E17" s="3">
-        <v>900</v>
+        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>1100</v>
       </c>
       <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="3">
         <v>1000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>800</v>
-      </c>
-      <c r="I17" s="3">
-        <v>600</v>
-      </c>
-      <c r="J17" s="3">
-        <v>600</v>
       </c>
       <c r="K17" s="3">
         <v>600</v>
       </c>
       <c r="L17" s="3">
+        <v>600</v>
+      </c>
+      <c r="M17" s="3">
+        <v>600</v>
+      </c>
+      <c r="N17" s="3">
         <v>500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>400</v>
-      </c>
-      <c r="P17" s="3">
-        <v>300</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
+        <v>400</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
-        <v>100</v>
+      <c r="D18" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>100</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-100</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
         <v>0</v>
@@ -1283,16 +1342,22 @@
         <v>-100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T18" s="3">
+        <v>100</v>
+      </c>
+      <c r="U18" s="3">
         <v>300</v>
       </c>
-      <c r="T18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="V18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,13 +1378,15 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1369,69 +1436,81 @@
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>100</v>
+      <c r="D21" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-100</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>200</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>200</v>
+      </c>
+      <c r="V21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1440,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="G22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -1481,64 +1560,76 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="E23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-100</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
-        <v>100</v>
-      </c>
       <c r="K23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N23" s="3">
         <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
-      <c r="S23" s="3">
-        <v>200</v>
-      </c>
       <c r="T23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>200</v>
+      </c>
+      <c r="V23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1578,23 +1669,29 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
+      <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q24" s="3" t="s">
+      <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3" t="s">
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1746,138 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
-        <v>0</v>
+      <c r="D26" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-100</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
-      <c r="J26" s="3">
-        <v>100</v>
-      </c>
       <c r="K26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N26" s="3">
         <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
-      <c r="S26" s="3">
-        <v>200</v>
-      </c>
       <c r="T26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>200</v>
+      </c>
+      <c r="V26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
-        <v>0</v>
+      <c r="D27" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-100</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
-      <c r="J27" s="3">
-        <v>100</v>
-      </c>
       <c r="K27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N27" s="3">
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
-      <c r="S27" s="3">
-        <v>200</v>
-      </c>
       <c r="T27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>200</v>
+      </c>
+      <c r="V27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1932,14 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1994,14 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +2056,14 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,13 +2118,19 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2041,64 +2180,76 @@
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
-        <v>0</v>
+      <c r="D33" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-100</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
-      <c r="J33" s="3">
-        <v>100</v>
-      </c>
       <c r="K33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N33" s="3">
         <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
-      <c r="S33" s="3">
-        <v>200</v>
-      </c>
       <c r="T33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>200</v>
+      </c>
+      <c r="V33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2304,143 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
-        <v>0</v>
+      <c r="D35" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-100</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
-      <c r="J35" s="3">
-        <v>100</v>
-      </c>
       <c r="K35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
-      <c r="S35" s="3">
-        <v>200</v>
-      </c>
       <c r="T35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>200</v>
+      </c>
+      <c r="V35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2461,10 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2485,72 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>400</v>
+        <v>9900</v>
       </c>
       <c r="E41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="F41" s="3">
         <v>400</v>
       </c>
       <c r="G41" s="3">
+        <v>400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>400</v>
+      </c>
+      <c r="I41" s="3">
         <v>600</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>800</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>400</v>
       </c>
-      <c r="L41" s="3">
-        <v>200</v>
-      </c>
-      <c r="M41" s="3">
-        <v>100</v>
-      </c>
       <c r="N41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>100</v>
       </c>
       <c r="P41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S41" s="3">
         <v>300</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="U41" s="3">
+        <v>300</v>
+      </c>
+      <c r="V41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2426,72 +2605,84 @@
       <c r="T42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>800</v>
+        <v>400</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>800</v>
+      </c>
+      <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
-        <v>200</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>200</v>
+      </c>
+      <c r="M43" s="3">
         <v>300</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>100</v>
       </c>
       <c r="R43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
+        <v>100</v>
+      </c>
+      <c r="V43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>600</v>
+        <v>800</v>
       </c>
       <c r="E44" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="F44" s="3">
         <v>600</v>
@@ -2500,13 +2691,13 @@
         <v>600</v>
       </c>
       <c r="H44" s="3">
+        <v>600</v>
+      </c>
+      <c r="I44" s="3">
+        <v>600</v>
+      </c>
+      <c r="J44" s="3">
         <v>700</v>
-      </c>
-      <c r="I44" s="3">
-        <v>400</v>
-      </c>
-      <c r="J44" s="3">
-        <v>400</v>
       </c>
       <c r="K44" s="3">
         <v>400</v>
@@ -2515,16 +2706,16 @@
         <v>400</v>
       </c>
       <c r="M44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
       </c>
       <c r="O44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="P44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>300</v>
@@ -2538,31 +2729,37 @@
       <c r="T44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>300</v>
+      </c>
+      <c r="V44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="F45" s="3">
         <v>100</v>
       </c>
       <c r="G45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
@@ -2574,10 +2771,10 @@
         <v>100</v>
       </c>
       <c r="N45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -2594,64 +2791,76 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F46" s="3">
         <v>1900</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>700</v>
-      </c>
-      <c r="R46" s="3">
-        <v>700</v>
       </c>
       <c r="S46" s="3">
         <v>700</v>
       </c>
       <c r="T46" s="3">
+        <v>700</v>
+      </c>
+      <c r="U46" s="3">
+        <v>700</v>
+      </c>
+      <c r="V46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,16 +2915,22 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="E48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>700</v>
@@ -2727,28 +2942,28 @@
         <v>700</v>
       </c>
       <c r="I48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="J48" s="3">
+        <v>700</v>
+      </c>
+      <c r="K48" s="3">
+        <v>200</v>
+      </c>
+      <c r="L48" s="3">
         <v>300</v>
       </c>
-      <c r="K48" s="3">
-        <v>200</v>
-      </c>
-      <c r="L48" s="3">
-        <v>200</v>
-      </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="3">
         <v>100</v>
@@ -2762,13 +2977,19 @@
       <c r="T48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3">
+        <v>100</v>
+      </c>
+      <c r="V48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E49" s="3">
         <v>800</v>
@@ -2782,11 +3003,11 @@
       <c r="H49" s="3">
         <v>800</v>
       </c>
-      <c r="I49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J49" s="3" t="s">
-        <v>8</v>
+      <c r="I49" s="3">
+        <v>800</v>
+      </c>
+      <c r="J49" s="3">
+        <v>800</v>
       </c>
       <c r="K49" s="3" t="s">
         <v>8</v>
@@ -2800,11 +3021,11 @@
       <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O49" s="3">
-        <v>0</v>
-      </c>
-      <c r="P49" s="3">
-        <v>0</v>
+      <c r="O49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q49" s="3">
         <v>0</v>
@@ -2818,8 +3039,14 @@
       <c r="T49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +3101,14 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3163,14 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2986,8 +3225,14 @@
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3287,76 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E54" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F54" s="3">
         <v>3300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>3000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>3000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>3400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>3800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>1800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>1700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>1400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>1300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>1100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>900</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>700</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>800</v>
-      </c>
-      <c r="R54" s="3">
-        <v>800</v>
       </c>
       <c r="S54" s="3">
         <v>800</v>
       </c>
       <c r="T54" s="3">
+        <v>800</v>
+      </c>
+      <c r="U54" s="3">
+        <v>800</v>
+      </c>
+      <c r="V54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3377,10 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,16 +3401,18 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>200</v>
@@ -3163,10 +3424,10 @@
         <v>200</v>
       </c>
       <c r="I57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K57" s="3">
         <v>100</v>
@@ -3175,13 +3436,13 @@
         <v>100</v>
       </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3198,31 +3459,37 @@
       <c r="T57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>100</v>
+      </c>
+      <c r="V57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
+        <v>400</v>
+      </c>
+      <c r="F58" s="3">
         <v>500</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
       <c r="I58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="J58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K58" s="3">
         <v>100</v>
@@ -3240,22 +3507,28 @@
         <v>100</v>
       </c>
       <c r="P58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>100</v>
+      </c>
+      <c r="V58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3263,7 +3536,7 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F59" s="3">
         <v>200</v>
@@ -3272,88 +3545,94 @@
         <v>200</v>
       </c>
       <c r="H59" s="3">
+        <v>200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>200</v>
+      </c>
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>100</v>
-      </c>
       <c r="K59" s="3">
         <v>200</v>
       </c>
       <c r="L59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="E60" s="3">
         <v>700</v>
       </c>
       <c r="F60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G60" s="3">
+        <v>700</v>
+      </c>
+      <c r="H60" s="3">
         <v>600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>300</v>
-      </c>
-      <c r="K60" s="3">
-        <v>400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>400</v>
       </c>
       <c r="M60" s="3">
         <v>400</v>
       </c>
       <c r="N60" s="3">
+        <v>400</v>
+      </c>
+      <c r="O60" s="3">
+        <v>400</v>
+      </c>
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
-        <v>200</v>
-      </c>
-      <c r="P60" s="3">
-        <v>200</v>
-      </c>
       <c r="Q60" s="3">
         <v>200</v>
       </c>
@@ -3364,45 +3643,51 @@
         <v>200</v>
       </c>
       <c r="T60" s="3">
+        <v>200</v>
+      </c>
+      <c r="U60" s="3">
+        <v>200</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>1500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1700</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>400</v>
       </c>
-      <c r="K61" s="3">
-        <v>100</v>
-      </c>
-      <c r="L61" s="3">
-        <v>100</v>
-      </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -3422,13 +3707,19 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E62" s="3">
         <v>300</v>
@@ -3440,19 +3731,19 @@
         <v>300</v>
       </c>
       <c r="H62" s="3">
+        <v>300</v>
+      </c>
+      <c r="I62" s="3">
+        <v>300</v>
+      </c>
+      <c r="J62" s="3">
         <v>400</v>
       </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
-      <c r="K62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L62" s="3" t="s">
-        <v>8</v>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
       </c>
       <c r="M62" s="3" t="s">
         <v>8</v>
@@ -3460,11 +3751,11 @@
       <c r="N62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3">
-        <v>0</v>
+      <c r="O62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q62" s="3">
         <v>0</v>
@@ -3478,8 +3769,14 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3831,14 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3893,14 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,50 +3955,56 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>600</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="O66" s="3">
-        <v>200</v>
-      </c>
-      <c r="P66" s="3">
-        <v>200</v>
-      </c>
       <c r="Q66" s="3">
         <v>200</v>
       </c>
@@ -3700,10 +4015,16 @@
         <v>200</v>
       </c>
       <c r="T66" s="3">
+        <v>200</v>
+      </c>
+      <c r="U66" s="3">
+        <v>200</v>
+      </c>
+      <c r="V66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +4045,10 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +4103,14 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4165,14 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4227,14 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4289,76 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="F72" s="3">
         <v>-1400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-1400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-1200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-800</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-1100</v>
       </c>
       <c r="N72" s="3">
         <v>-1100</v>
       </c>
       <c r="O72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="P72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1000</v>
       </c>
       <c r="S72" s="3">
         <v>-1100</v>
       </c>
       <c r="T72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4413,14 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4475,14 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,25 +4537,31 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>10200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>400</v>
+      </c>
+      <c r="F76" s="3">
         <v>600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>800</v>
-      </c>
-      <c r="G76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>1000</v>
       </c>
       <c r="I76" s="3">
         <v>1100</v>
@@ -4199,37 +4570,43 @@
         <v>1000</v>
       </c>
       <c r="K76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="M76" s="3">
         <v>900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>700</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>700</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>600</v>
       </c>
       <c r="S76" s="3">
         <v>600</v>
       </c>
       <c r="T76" s="3">
+        <v>600</v>
+      </c>
+      <c r="U76" s="3">
+        <v>600</v>
+      </c>
+      <c r="V76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4661,143 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
-        <v>0</v>
+      <c r="D81" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-100</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
-      <c r="J81" s="3">
-        <v>100</v>
-      </c>
       <c r="K81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N81" s="3">
         <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
-      <c r="S81" s="3">
-        <v>200</v>
-      </c>
       <c r="T81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U81" s="3">
+        <v>200</v>
+      </c>
+      <c r="V81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4818,10 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4479,8 +4876,14 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4938,14 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +5000,14 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +5062,14 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +5124,14 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +5186,76 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-200</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-200</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>100</v>
-      </c>
-      <c r="K89" s="3">
-        <v>200</v>
-      </c>
       <c r="L89" s="3">
         <v>100</v>
       </c>
       <c r="M89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="R89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5276,10 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4846,16 +5287,16 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>8</v>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
       </c>
       <c r="I91" s="3" t="s">
         <v>8</v>
@@ -4863,11 +5304,11 @@
       <c r="J91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4893,8 +5334,14 @@
       <c r="T91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5396,14 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5458,14 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5014,7 +5473,7 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F94" s="3">
         <v>0</v>
@@ -5023,14 +5482,14 @@
         <v>0</v>
       </c>
       <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -5061,8 +5520,14 @@
       <c r="T94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5548,10 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5606,14 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5668,14 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5730,14 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,37 +5792,43 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>200</v>
+        <v>10300</v>
       </c>
       <c r="E100" s="3">
-        <v>200</v>
+        <v>-200</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G100" s="3">
+        <v>200</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>1000</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5361,10 +5852,16 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,60 +5916,72 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>9700</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
         <v>-100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
-      </c>
-      <c r="H102" s="3">
-        <v>300</v>
-      </c>
-      <c r="I102" s="3">
-        <v>-100</v>
       </c>
       <c r="J102" s="3">
         <v>300</v>
       </c>
       <c r="K102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="L102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="M102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
-        <v>0</v>
-      </c>
-      <c r="R102" s="3">
-        <v>0</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
+        <v>0</v>
+      </c>
+      <c r="U102" s="3">
+        <v>100</v>
+      </c>
+      <c r="V102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,140 +665,144 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>900</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>800</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>400</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>300</v>
       </c>
       <c r="R8" s="3">
         <v>300</v>
@@ -807,101 +811,107 @@
         <v>300</v>
       </c>
       <c r="T8" s="3">
+        <v>300</v>
+      </c>
+      <c r="U8" s="3">
         <v>500</v>
-      </c>
-      <c r="U8" s="3">
-        <v>700</v>
       </c>
       <c r="V8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>700</v>
+      </c>
+      <c r="E9" s="3">
         <v>400</v>
-      </c>
-      <c r="E9" s="3">
-        <v>600</v>
       </c>
       <c r="F9" s="3">
         <v>600</v>
       </c>
       <c r="G9" s="3">
+        <v>600</v>
+      </c>
+      <c r="H9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
-        <v>200</v>
-      </c>
       <c r="O9" s="3">
+        <v>200</v>
+      </c>
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
         <v>200</v>
       </c>
       <c r="R9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S9" s="3">
         <v>100</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="E10" s="3">
+        <v>100</v>
+      </c>
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
-      </c>
-      <c r="G10" s="3">
-        <v>300</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
+        <v>300</v>
+      </c>
+      <c r="J10" s="3">
         <v>500</v>
-      </c>
-      <c r="J10" s="3">
-        <v>300</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
@@ -910,37 +920,40 @@
         <v>300</v>
       </c>
       <c r="M10" s="3">
+        <v>300</v>
+      </c>
+      <c r="N10" s="3">
         <v>500</v>
-      </c>
-      <c r="N10" s="3">
-        <v>300</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S10" s="3">
         <v>200</v>
       </c>
       <c r="T10" s="3">
+        <v>200</v>
+      </c>
+      <c r="U10" s="3">
         <v>300</v>
-      </c>
-      <c r="U10" s="3">
-        <v>400</v>
       </c>
       <c r="V10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,31 +1104,34 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>-200</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -1149,8 +1169,11 @@
       <c r="V14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,34 +1258,35 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1500</v>
       </c>
       <c r="E17" s="3">
         <v>1300</v>
       </c>
       <c r="F17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G17" s="3">
         <v>1100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
-      </c>
-      <c r="K17" s="3">
-        <v>600</v>
       </c>
       <c r="L17" s="3">
         <v>600</v>
@@ -1268,22 +1295,22 @@
         <v>600</v>
       </c>
       <c r="N17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="O17" s="3">
         <v>500</v>
       </c>
       <c r="P17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Q17" s="3">
         <v>400</v>
       </c>
       <c r="R17" s="3">
+        <v>400</v>
+      </c>
+      <c r="S17" s="3">
         <v>300</v>
-      </c>
-      <c r="S17" s="3">
-        <v>400</v>
       </c>
       <c r="T17" s="3">
         <v>400</v>
@@ -1292,72 +1319,78 @@
         <v>400</v>
       </c>
       <c r="V17" s="3">
+        <v>400</v>
+      </c>
+      <c r="W17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
         <v>-400</v>
       </c>
-      <c r="F18" s="3">
-        <v>100</v>
-      </c>
       <c r="G18" s="3">
+        <v>100</v>
+      </c>
+      <c r="H18" s="3">
         <v>-200</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
       <c r="J18" s="3">
+        <v>100</v>
+      </c>
+      <c r="K18" s="3">
         <v>-100</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>100</v>
-      </c>
       <c r="U18" s="3">
+        <v>100</v>
+      </c>
+      <c r="V18" s="3">
         <v>300</v>
       </c>
-      <c r="V18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,13 +1413,14 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1442,75 +1476,81 @@
       <c r="V20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
       <c r="G21" s="3">
+        <v>100</v>
+      </c>
+      <c r="H21" s="3">
         <v>-200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
         <v>100</v>
       </c>
       <c r="M21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P21" s="3">
         <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
         <v>0</v>
       </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
       <c r="U21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V21" s="3">
+        <v>200</v>
+      </c>
+      <c r="W21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3">
         <v>0</v>
@@ -1525,10 +1565,10 @@
         <v>0</v>
       </c>
       <c r="I22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K22" s="3">
         <v>0</v>
@@ -1566,70 +1606,76 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
       <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>-200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-300</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1675,23 +1721,26 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-      <c r="R24" s="3" t="s">
-        <v>8</v>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
+      <c r="T24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U24" s="3">
         <v>0</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
       <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
         <v>-200</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-300</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
       <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
         <v>-200</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-300</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,13 +2191,16 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2186,70 +2256,76 @@
       <c r="V32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
       <c r="G33" s="3">
+        <v>0</v>
+      </c>
+      <c r="H33" s="3">
         <v>-200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-300</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
       <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
         <v>-200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-300</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,19 +2573,20 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>27600</v>
+      </c>
+      <c r="E41" s="3">
         <v>9900</v>
       </c>
-      <c r="E41" s="3">
-        <v>200</v>
-      </c>
       <c r="F41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="G41" s="3">
         <v>400</v>
@@ -2508,25 +2595,25 @@
         <v>400</v>
       </c>
       <c r="I41" s="3">
+        <v>400</v>
+      </c>
+      <c r="J41" s="3">
         <v>600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>1000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>100</v>
@@ -2535,10 +2622,10 @@
         <v>100</v>
       </c>
       <c r="R41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>300</v>
@@ -2547,10 +2634,13 @@
         <v>300</v>
       </c>
       <c r="V41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="W41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,53 +2701,56 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="E43" s="3">
         <v>400</v>
       </c>
       <c r="F43" s="3">
+        <v>400</v>
+      </c>
+      <c r="G43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>400</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>600</v>
       </c>
       <c r="J43" s="3">
         <v>600</v>
       </c>
       <c r="K43" s="3">
+        <v>600</v>
+      </c>
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="L43" s="3">
-        <v>200</v>
-      </c>
       <c r="M43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="Q43" s="3">
-        <v>100</v>
-      </c>
       <c r="R43" s="3">
         <v>100</v>
       </c>
@@ -2665,16 +2758,19 @@
         <v>100</v>
       </c>
       <c r="T43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2682,10 +2778,10 @@
         <v>800</v>
       </c>
       <c r="E44" s="3">
+        <v>800</v>
+      </c>
+      <c r="F44" s="3">
         <v>500</v>
-      </c>
-      <c r="F44" s="3">
-        <v>600</v>
       </c>
       <c r="G44" s="3">
         <v>600</v>
@@ -2697,10 +2793,10 @@
         <v>600</v>
       </c>
       <c r="J44" s="3">
+        <v>600</v>
+      </c>
+      <c r="K44" s="3">
         <v>700</v>
-      </c>
-      <c r="K44" s="3">
-        <v>400</v>
       </c>
       <c r="L44" s="3">
         <v>400</v>
@@ -2712,13 +2808,13 @@
         <v>400</v>
       </c>
       <c r="O44" s="3">
+        <v>400</v>
+      </c>
+      <c r="P44" s="3">
         <v>500</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>400</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>300</v>
       </c>
       <c r="R44" s="3">
         <v>300</v>
@@ -2735,34 +2831,37 @@
       <c r="V44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>1500</v>
       </c>
       <c r="E45" s="3">
+        <v>200</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>100</v>
-      </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L45" s="3">
         <v>100</v>
@@ -2777,7 +2876,7 @@
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>0</v>
@@ -2797,58 +2896,61 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E46" s="3">
         <v>11300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1400</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1900</v>
-      </c>
-      <c r="G46" s="3">
-        <v>1500</v>
       </c>
       <c r="H46" s="3">
         <v>1500</v>
       </c>
       <c r="I46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>800</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>600</v>
       </c>
       <c r="R46" s="3">
         <v>600</v>
       </c>
       <c r="S46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="T46" s="3">
         <v>700</v>
@@ -2857,10 +2959,13 @@
         <v>700</v>
       </c>
       <c r="V46" s="3">
+        <v>700</v>
+      </c>
+      <c r="W46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,19 +3026,22 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="E48" s="3">
         <v>600</v>
       </c>
       <c r="F48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>700</v>
@@ -2948,25 +3056,25 @@
         <v>700</v>
       </c>
       <c r="K48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="L48" s="3">
+        <v>200</v>
+      </c>
+      <c r="M48" s="3">
         <v>300</v>
       </c>
-      <c r="M48" s="3">
-        <v>200</v>
-      </c>
       <c r="N48" s="3">
         <v>200</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R48" s="3">
         <v>100</v>
@@ -2983,8 +3091,11 @@
       <c r="V48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2992,7 +3103,7 @@
         <v>700</v>
       </c>
       <c r="E49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="F49" s="3">
         <v>800</v>
@@ -3009,8 +3120,8 @@
       <c r="J49" s="3">
         <v>800</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>8</v>
+      <c r="K49" s="3">
+        <v>800</v>
       </c>
       <c r="L49" s="3" t="s">
         <v>8</v>
@@ -3027,8 +3138,8 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
-        <v>0</v>
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R49" s="3">
         <v>0</v>
@@ -3045,8 +3156,11 @@
       <c r="V49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,13 +3286,16 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3231,8 +3351,11 @@
       <c r="V52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,58 +3416,61 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32400</v>
+      </c>
+      <c r="E54" s="3">
         <v>12700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>2800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>3300</v>
-      </c>
-      <c r="G54" s="3">
-        <v>3000</v>
       </c>
       <c r="H54" s="3">
         <v>3000</v>
       </c>
       <c r="I54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J54" s="3">
         <v>3400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>3800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1400</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>900</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>700</v>
       </c>
       <c r="R54" s="3">
         <v>700</v>
       </c>
       <c r="S54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="T54" s="3">
         <v>800</v>
@@ -3353,10 +3479,13 @@
         <v>800</v>
       </c>
       <c r="V54" s="3">
+        <v>800</v>
+      </c>
+      <c r="W54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,19 +3533,20 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
       </c>
-      <c r="E57" s="3">
-        <v>100</v>
-      </c>
       <c r="F57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>200</v>
@@ -3430,7 +3561,7 @@
         <v>200</v>
       </c>
       <c r="K57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L57" s="3">
         <v>100</v>
@@ -3442,10 +3573,10 @@
         <v>100</v>
       </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -3465,8 +3596,11 @@
       <c r="V57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,17 +3608,17 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
         <v>400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>500</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
@@ -3492,7 +3626,7 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L58" s="3">
         <v>100</v>
@@ -3513,13 +3647,13 @@
         <v>100</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -3527,8 +3661,11 @@
       <c r="V58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3536,10 +3673,10 @@
         <v>200</v>
       </c>
       <c r="E59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G59" s="3">
         <v>200</v>
@@ -3551,78 +3688,81 @@
         <v>200</v>
       </c>
       <c r="J59" s="3">
+        <v>200</v>
+      </c>
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
       <c r="L59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P59" s="3">
         <v>100</v>
       </c>
       <c r="Q59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S59" s="3">
         <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>0</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>700</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
-      </c>
-      <c r="K60" s="3">
-        <v>300</v>
       </c>
       <c r="L60" s="3">
         <v>300</v>
       </c>
       <c r="M60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>400</v>
@@ -3631,11 +3771,11 @@
         <v>400</v>
       </c>
       <c r="P60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
-        <v>200</v>
-      </c>
       <c r="R60" s="3">
         <v>200</v>
       </c>
@@ -3649,48 +3789,51 @@
         <v>200</v>
       </c>
       <c r="V60" s="3">
+        <v>200</v>
+      </c>
+      <c r="W60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="E61" s="3">
         <v>1400</v>
       </c>
       <c r="F61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="G61" s="3">
         <v>1500</v>
       </c>
       <c r="H61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="I61" s="3">
         <v>1400</v>
       </c>
       <c r="J61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K61" s="3">
         <v>1700</v>
-      </c>
-      <c r="K61" s="3">
-        <v>400</v>
       </c>
       <c r="L61" s="3">
         <v>400</v>
       </c>
       <c r="M61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
         <v>0</v>
@@ -3713,8 +3856,11 @@
       <c r="V61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3722,7 +3868,7 @@
         <v>200</v>
       </c>
       <c r="E62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="F62" s="3">
         <v>300</v>
@@ -3737,16 +3883,16 @@
         <v>300</v>
       </c>
       <c r="J62" s="3">
+        <v>300</v>
+      </c>
+      <c r="K62" s="3">
         <v>400</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>8</v>
+      <c r="M62" s="3">
+        <v>0</v>
       </c>
       <c r="N62" s="3" t="s">
         <v>8</v>
@@ -3757,8 +3903,8 @@
       <c r="P62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
+      <c r="Q62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R62" s="3">
         <v>0</v>
@@ -3775,8 +3921,11 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,53 +4116,56 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E66" s="3">
         <v>2500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2300</v>
       </c>
       <c r="I66" s="3">
         <v>2300</v>
       </c>
       <c r="J66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K66" s="3">
         <v>2700</v>
-      </c>
-      <c r="K66" s="3">
-        <v>700</v>
       </c>
       <c r="L66" s="3">
         <v>700</v>
       </c>
       <c r="M66" s="3">
+        <v>700</v>
+      </c>
+      <c r="N66" s="3">
         <v>500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>600</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
-        <v>200</v>
-      </c>
       <c r="R66" s="3">
         <v>200</v>
       </c>
@@ -4021,10 +4179,13 @@
         <v>200</v>
       </c>
       <c r="V66" s="3">
+        <v>200</v>
+      </c>
+      <c r="W66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,43 +4466,46 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-2700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="F72" s="3">
-        <v>-1400</v>
       </c>
       <c r="G72" s="3">
         <v>-1400</v>
       </c>
       <c r="H72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="I72" s="3">
         <v>-1200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-700</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-800</v>
       </c>
       <c r="M72" s="3">
         <v>-800</v>
       </c>
       <c r="N72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="O72" s="3">
         <v>-1100</v>
@@ -4340,25 +4514,28 @@
         <v>-1100</v>
       </c>
       <c r="Q72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="R72" s="3">
         <v>-1200</v>
       </c>
       <c r="S72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="T72" s="3">
         <v>-1100</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-1000</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,58 +4726,61 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>31200</v>
+      </c>
+      <c r="E76" s="3">
         <v>10200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>400</v>
-      </c>
-      <c r="F76" s="3">
-        <v>600</v>
       </c>
       <c r="G76" s="3">
         <v>600</v>
       </c>
       <c r="H76" s="3">
+        <v>600</v>
+      </c>
+      <c r="I76" s="3">
         <v>800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>700</v>
       </c>
       <c r="O76" s="3">
         <v>700</v>
       </c>
       <c r="P76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Q76" s="3">
         <v>600</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>500</v>
       </c>
       <c r="R76" s="3">
         <v>500</v>
       </c>
       <c r="S76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="T76" s="3">
         <v>600</v>
@@ -4603,10 +4789,13 @@
         <v>600</v>
       </c>
       <c r="V76" s="3">
+        <v>600</v>
+      </c>
+      <c r="W76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
       <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
         <v>-200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-300</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q81" s="3">
         <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5018,9 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4882,8 +5081,11 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="G89" s="3">
         <v>-200</v>
       </c>
       <c r="H89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
         <v>0</v>
       </c>
       <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>100</v>
-      </c>
       <c r="M89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O89" s="3">
         <v>100</v>
       </c>
       <c r="P89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
-        <v>100</v>
-      </c>
       <c r="T89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,28 +5498,29 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>8</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3" t="s">
         <v>8</v>
@@ -5310,8 +5531,8 @@
       <c r="L91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="M91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5340,8 +5561,11 @@
       <c r="V91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,20 +5691,23 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
         <v>-100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
         <v>0</v>
       </c>
@@ -5488,11 +5718,11 @@
         <v>0</v>
       </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-700</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -5526,8 +5756,11 @@
       <c r="V94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,40 +6041,43 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>20400</v>
+      </c>
+      <c r="E100" s="3">
         <v>10300</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-200</v>
       </c>
-      <c r="F100" s="3">
-        <v>200</v>
-      </c>
       <c r="G100" s="3">
         <v>200</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>-400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>1000</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
       <c r="L100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
         <v>0</v>
@@ -5858,10 +6104,13 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,66 +6171,72 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17800</v>
+      </c>
+      <c r="E102" s="3">
         <v>9700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-200</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
       <c r="G102" s="3">
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
-        <v>200</v>
-      </c>
       <c r="N102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O102" s="3">
         <v>100</v>
       </c>
       <c r="P102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
         <v>0</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,147 +665,151 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>700</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>400</v>
-      </c>
-      <c r="R8" s="3">
-        <v>300</v>
       </c>
       <c r="S8" s="3">
         <v>300</v>
@@ -814,16 +818,19 @@
         <v>300</v>
       </c>
       <c r="U8" s="3">
+        <v>300</v>
+      </c>
+      <c r="V8" s="3">
         <v>500</v>
-      </c>
-      <c r="V8" s="3">
-        <v>700</v>
       </c>
       <c r="W8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -831,90 +838,93 @@
         <v>700</v>
       </c>
       <c r="E9" s="3">
+        <v>700</v>
+      </c>
+      <c r="F9" s="3">
         <v>400</v>
-      </c>
-      <c r="F9" s="3">
-        <v>600</v>
       </c>
       <c r="G9" s="3">
         <v>600</v>
       </c>
       <c r="H9" s="3">
+        <v>600</v>
+      </c>
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>300</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>300</v>
       </c>
-      <c r="O9" s="3">
-        <v>200</v>
-      </c>
       <c r="P9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
-        <v>200</v>
-      </c>
       <c r="R9" s="3">
         <v>200</v>
       </c>
       <c r="S9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T9" s="3">
         <v>100</v>
       </c>
       <c r="U9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>400</v>
+      </c>
+      <c r="E10" s="3">
         <v>300</v>
       </c>
-      <c r="E10" s="3">
-        <v>100</v>
-      </c>
       <c r="F10" s="3">
+        <v>100</v>
+      </c>
+      <c r="G10" s="3">
         <v>300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>600</v>
-      </c>
-      <c r="H10" s="3">
-        <v>300</v>
       </c>
       <c r="I10" s="3">
         <v>300</v>
       </c>
       <c r="J10" s="3">
+        <v>300</v>
+      </c>
+      <c r="K10" s="3">
         <v>500</v>
-      </c>
-      <c r="K10" s="3">
-        <v>300</v>
       </c>
       <c r="L10" s="3">
         <v>300</v>
@@ -923,37 +933,40 @@
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="R10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T10" s="3">
         <v>200</v>
       </c>
       <c r="U10" s="3">
+        <v>200</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
-      </c>
-      <c r="V10" s="3">
-        <v>400</v>
       </c>
       <c r="W10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +990,9 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1056,11 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,16 +1124,19 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>0</v>
+      </c>
+      <c r="E14" s="3">
         <v>-200</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>8</v>
@@ -1133,8 +1153,8 @@
       <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
+      <c r="K14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L14" s="3">
         <v>0</v>
@@ -1172,8 +1192,11 @@
       <c r="W14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1260,11 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,37 +1285,38 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E17" s="3">
         <v>1500</v>
-      </c>
-      <c r="E17" s="3">
-        <v>1300</v>
       </c>
       <c r="F17" s="3">
         <v>1300</v>
       </c>
       <c r="G17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="H17" s="3">
         <v>1100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>800</v>
-      </c>
-      <c r="L17" s="3">
-        <v>600</v>
       </c>
       <c r="M17" s="3">
         <v>600</v>
@@ -1298,22 +1325,22 @@
         <v>600</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="R17" s="3">
         <v>400</v>
       </c>
       <c r="S17" s="3">
+        <v>400</v>
+      </c>
+      <c r="T17" s="3">
         <v>300</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
       </c>
       <c r="U17" s="3">
         <v>400</v>
@@ -1322,10 +1349,13 @@
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1333,64 +1363,67 @@
         <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
-        <v>100</v>
-      </c>
       <c r="H18" s="3">
+        <v>100</v>
+      </c>
+      <c r="I18" s="3">
         <v>-200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-300</v>
       </c>
-      <c r="J18" s="3">
-        <v>100</v>
-      </c>
       <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-100</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
+        <v>0</v>
+      </c>
+      <c r="U18" s="3">
         <v>-100</v>
       </c>
-      <c r="U18" s="3">
-        <v>100</v>
-      </c>
       <c r="V18" s="3">
+        <v>100</v>
+      </c>
+      <c r="W18" s="3">
         <v>300</v>
       </c>
-      <c r="W18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,13 +1447,14 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
@@ -1479,73 +1513,79 @@
       <c r="W20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-400</v>
       </c>
-      <c r="G21" s="3">
-        <v>100</v>
-      </c>
       <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-200</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-300</v>
       </c>
-      <c r="J21" s="3">
-        <v>100</v>
-      </c>
       <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
       <c r="M21" s="3">
         <v>100</v>
       </c>
       <c r="N21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
         <v>0</v>
       </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
       </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
+        <v>200</v>
+      </c>
+      <c r="X21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1568,10 +1608,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
@@ -1609,73 +1649,79 @@
       <c r="W22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-300</v>
       </c>
-      <c r="J23" s="3">
-        <v>0</v>
-      </c>
       <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
         <v>0</v>
       </c>
       <c r="S23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1724,23 +1770,26 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>8</v>
+      <c r="S24" s="3">
+        <v>0</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U24" s="3">
-        <v>0</v>
+      <c r="U24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1853,147 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
-        <v>0</v>
-      </c>
       <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-300</v>
       </c>
-      <c r="J26" s="3">
-        <v>0</v>
-      </c>
       <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
       <c r="M26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
         <v>0</v>
       </c>
       <c r="S26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
-        <v>0</v>
-      </c>
       <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-300</v>
       </c>
-      <c r="J27" s="3">
-        <v>0</v>
-      </c>
       <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
       <c r="M27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
         <v>0</v>
       </c>
       <c r="S27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2057,11 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2125,11 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2193,11 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,13 +2261,16 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
@@ -2259,73 +2329,79 @@
       <c r="W32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
-        <v>0</v>
-      </c>
       <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-300</v>
       </c>
-      <c r="J33" s="3">
-        <v>0</v>
-      </c>
       <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
       <c r="M33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
         <v>0</v>
       </c>
       <c r="S33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2465,152 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
-        <v>0</v>
-      </c>
       <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-300</v>
       </c>
-      <c r="J35" s="3">
-        <v>0</v>
-      </c>
       <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
       <c r="M35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
       </c>
       <c r="S35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2634,9 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,22 +2660,23 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E41" s="3">
         <v>27600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>9900</v>
       </c>
-      <c r="F41" s="3">
-        <v>200</v>
-      </c>
       <c r="G41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>400</v>
@@ -2598,25 +2685,25 @@
         <v>400</v>
       </c>
       <c r="J41" s="3">
+        <v>400</v>
+      </c>
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>800</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
-        <v>200</v>
-      </c>
       <c r="P41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>100</v>
@@ -2625,10 +2712,10 @@
         <v>100</v>
       </c>
       <c r="S41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>300</v>
@@ -2637,33 +2724,36 @@
         <v>300</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0</v>
-      </c>
-      <c r="G42" s="3">
-        <v>0</v>
-      </c>
-      <c r="H42" s="3">
-        <v>0</v>
-      </c>
-      <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>4200</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2704,56 +2794,59 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>500</v>
+      </c>
+      <c r="E43" s="3">
         <v>600</v>
-      </c>
-      <c r="E43" s="3">
-        <v>400</v>
       </c>
       <c r="F43" s="3">
         <v>400</v>
       </c>
       <c r="G43" s="3">
+        <v>400</v>
+      </c>
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
-      </c>
-      <c r="J43" s="3">
-        <v>600</v>
       </c>
       <c r="K43" s="3">
         <v>600</v>
       </c>
       <c r="L43" s="3">
+        <v>600</v>
+      </c>
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
       <c r="N43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
       </c>
-      <c r="R43" s="3">
-        <v>100</v>
-      </c>
       <c r="S43" s="3">
         <v>100</v>
       </c>
@@ -2761,30 +2854,33 @@
         <v>100</v>
       </c>
       <c r="U43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="E44" s="3">
         <v>800</v>
       </c>
       <c r="F44" s="3">
+        <v>800</v>
+      </c>
+      <c r="G44" s="3">
         <v>500</v>
-      </c>
-      <c r="G44" s="3">
-        <v>600</v>
       </c>
       <c r="H44" s="3">
         <v>600</v>
@@ -2796,10 +2892,10 @@
         <v>600</v>
       </c>
       <c r="K44" s="3">
+        <v>600</v>
+      </c>
+      <c r="L44" s="3">
         <v>700</v>
-      </c>
-      <c r="L44" s="3">
-        <v>400</v>
       </c>
       <c r="M44" s="3">
         <v>400</v>
@@ -2811,13 +2907,13 @@
         <v>400</v>
       </c>
       <c r="P44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q44" s="3">
         <v>500</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>300</v>
       </c>
       <c r="S44" s="3">
         <v>300</v>
@@ -2834,37 +2930,40 @@
       <c r="W44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1500</v>
       </c>
-      <c r="E45" s="3">
-        <v>200</v>
-      </c>
       <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>100</v>
-      </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>100</v>
       </c>
       <c r="K45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
         <v>100</v>
@@ -2879,7 +2978,7 @@
         <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R45" s="3">
         <v>0</v>
@@ -2899,61 +2998,64 @@
       <c r="W45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>29500</v>
+      </c>
+      <c r="E46" s="3">
         <v>30600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>11300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1400</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1900</v>
-      </c>
-      <c r="H46" s="3">
-        <v>1500</v>
       </c>
       <c r="I46" s="3">
         <v>1500</v>
       </c>
       <c r="J46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
-      </c>
-      <c r="R46" s="3">
-        <v>600</v>
       </c>
       <c r="S46" s="3">
         <v>600</v>
       </c>
       <c r="T46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="U46" s="3">
         <v>700</v>
@@ -2962,33 +3064,36 @@
         <v>700</v>
       </c>
       <c r="W46" s="3">
+        <v>700</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0</v>
-      </c>
-      <c r="G47" s="3">
-        <v>0</v>
-      </c>
-      <c r="H47" s="3">
-        <v>0</v>
-      </c>
-      <c r="I47" s="3">
-        <v>0</v>
-      </c>
-      <c r="J47" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -3029,22 +3134,25 @@
       <c r="W47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E48" s="3">
         <v>1000</v>
-      </c>
-      <c r="E48" s="3">
-        <v>600</v>
       </c>
       <c r="F48" s="3">
         <v>600</v>
       </c>
       <c r="G48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="H48" s="3">
         <v>700</v>
@@ -3059,25 +3167,25 @@
         <v>700</v>
       </c>
       <c r="L48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="M48" s="3">
+        <v>200</v>
+      </c>
+      <c r="N48" s="3">
         <v>300</v>
       </c>
-      <c r="N48" s="3">
-        <v>200</v>
-      </c>
       <c r="O48" s="3">
         <v>200</v>
       </c>
       <c r="P48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q48" s="3">
         <v>0</v>
       </c>
       <c r="R48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S48" s="3">
         <v>100</v>
@@ -3094,8 +3202,11 @@
       <c r="W48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3106,7 +3217,7 @@
         <v>700</v>
       </c>
       <c r="F49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="G49" s="3">
         <v>800</v>
@@ -3123,8 +3234,8 @@
       <c r="K49" s="3">
         <v>800</v>
       </c>
-      <c r="L49" s="3" t="s">
-        <v>8</v>
+      <c r="L49" s="3">
+        <v>800</v>
       </c>
       <c r="M49" s="3" t="s">
         <v>8</v>
@@ -3141,8 +3252,8 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
-        <v>0</v>
+      <c r="R49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -3159,8 +3270,11 @@
       <c r="W49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3338,11 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,16 +3406,19 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F52" s="3">
         <v>0</v>
@@ -3354,8 +3474,11 @@
       <c r="W52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,61 +3542,64 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>31900</v>
+      </c>
+      <c r="E54" s="3">
         <v>32400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>12700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>2800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>3300</v>
-      </c>
-      <c r="H54" s="3">
-        <v>3000</v>
       </c>
       <c r="I54" s="3">
         <v>3000</v>
       </c>
       <c r="J54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K54" s="3">
         <v>3400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>1800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1100</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>900</v>
-      </c>
-      <c r="R54" s="3">
-        <v>700</v>
       </c>
       <c r="S54" s="3">
         <v>700</v>
       </c>
       <c r="T54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="U54" s="3">
         <v>800</v>
@@ -3482,10 +3608,13 @@
         <v>800</v>
       </c>
       <c r="W54" s="3">
+        <v>800</v>
+      </c>
+      <c r="X54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3638,9 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,8 +3664,9 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -3543,13 +3674,13 @@
         <v>400</v>
       </c>
       <c r="E57" s="3">
+        <v>400</v>
+      </c>
+      <c r="F57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
-        <v>100</v>
-      </c>
       <c r="G57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H57" s="3">
         <v>200</v>
@@ -3564,7 +3695,7 @@
         <v>200</v>
       </c>
       <c r="L57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M57" s="3">
         <v>100</v>
@@ -3576,10 +3707,10 @@
         <v>100</v>
       </c>
       <c r="P57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
         <v>100</v>
@@ -3599,8 +3730,11 @@
       <c r="W57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3611,17 +3745,17 @@
         <v>200</v>
       </c>
       <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>400</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>500</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
@@ -3629,7 +3763,7 @@
         <v>200</v>
       </c>
       <c r="L58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="M58" s="3">
         <v>100</v>
@@ -3650,13 +3784,13 @@
         <v>100</v>
       </c>
       <c r="S58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
       <c r="U58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V58" s="3">
         <v>100</v>
@@ -3664,22 +3798,25 @@
       <c r="W58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E59" s="3">
         <v>200</v>
       </c>
       <c r="F59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H59" s="3">
         <v>200</v>
@@ -3691,81 +3828,84 @@
         <v>200</v>
       </c>
       <c r="K59" s="3">
+        <v>200</v>
+      </c>
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
       </c>
       <c r="P59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q59" s="3">
         <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>800</v>
+      </c>
+      <c r="E60" s="3">
         <v>700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
-      </c>
-      <c r="L60" s="3">
-        <v>300</v>
       </c>
       <c r="M60" s="3">
         <v>300</v>
       </c>
       <c r="N60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="O60" s="3">
         <v>400</v>
@@ -3774,11 +3914,11 @@
         <v>400</v>
       </c>
       <c r="Q60" s="3">
+        <v>400</v>
+      </c>
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
-        <v>200</v>
-      </c>
       <c r="S60" s="3">
         <v>200</v>
       </c>
@@ -3792,10 +3932,13 @@
         <v>200</v>
       </c>
       <c r="W60" s="3">
+        <v>200</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3803,40 +3946,40 @@
         <v>300</v>
       </c>
       <c r="E61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="F61" s="3">
         <v>1400</v>
       </c>
       <c r="G61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="H61" s="3">
         <v>1500</v>
       </c>
       <c r="I61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
       </c>
       <c r="K61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="L61" s="3">
         <v>1700</v>
-      </c>
-      <c r="L61" s="3">
-        <v>400</v>
       </c>
       <c r="M61" s="3">
         <v>400</v>
       </c>
       <c r="N61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="O61" s="3">
         <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -3859,8 +4002,11 @@
       <c r="W61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3871,7 +4017,7 @@
         <v>200</v>
       </c>
       <c r="F62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="G62" s="3">
         <v>300</v>
@@ -3886,16 +4032,16 @@
         <v>300</v>
       </c>
       <c r="K62" s="3">
+        <v>300</v>
+      </c>
+      <c r="L62" s="3">
         <v>400</v>
       </c>
-      <c r="L62" s="3">
-        <v>0</v>
-      </c>
       <c r="M62" s="3">
         <v>0</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>8</v>
+      <c r="N62" s="3">
+        <v>0</v>
       </c>
       <c r="O62" s="3" t="s">
         <v>8</v>
@@ -3906,8 +4052,8 @@
       <c r="Q62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R62" s="3">
-        <v>0</v>
+      <c r="R62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S62" s="3">
         <v>0</v>
@@ -3924,8 +4070,11 @@
       <c r="W62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4138,11 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4206,11 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,8 +4274,11 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -4128,47 +4286,47 @@
         <v>1300</v>
       </c>
       <c r="E66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2500</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2300</v>
       </c>
       <c r="J66" s="3">
         <v>2300</v>
       </c>
       <c r="K66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="L66" s="3">
         <v>2700</v>
-      </c>
-      <c r="L66" s="3">
-        <v>700</v>
       </c>
       <c r="M66" s="3">
         <v>700</v>
       </c>
       <c r="N66" s="3">
+        <v>700</v>
+      </c>
+      <c r="O66" s="3">
         <v>500</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="R66" s="3">
-        <v>200</v>
-      </c>
       <c r="S66" s="3">
         <v>200</v>
       </c>
@@ -4182,10 +4340,13 @@
         <v>200</v>
       </c>
       <c r="W66" s="3">
+        <v>200</v>
+      </c>
+      <c r="X66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4370,9 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4436,11 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4504,11 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4572,11 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,46 +4640,49 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-2700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="G72" s="3">
-        <v>-1400</v>
       </c>
       <c r="H72" s="3">
         <v>-1400</v>
       </c>
       <c r="I72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-1200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-700</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-800</v>
       </c>
       <c r="N72" s="3">
         <v>-800</v>
       </c>
       <c r="O72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="P72" s="3">
         <v>-1100</v>
@@ -4517,25 +4691,28 @@
         <v>-1100</v>
       </c>
       <c r="R72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="S72" s="3">
         <v>-1200</v>
       </c>
       <c r="T72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="U72" s="3">
         <v>-1100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-1000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1100</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4776,11 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4844,11 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,61 +4912,64 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>30600</v>
+      </c>
+      <c r="E76" s="3">
         <v>31200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>10200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>600</v>
       </c>
       <c r="H76" s="3">
         <v>600</v>
       </c>
       <c r="I76" s="3">
+        <v>600</v>
+      </c>
+      <c r="J76" s="3">
         <v>800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>900</v>
-      </c>
-      <c r="O76" s="3">
-        <v>700</v>
       </c>
       <c r="P76" s="3">
         <v>700</v>
       </c>
       <c r="Q76" s="3">
+        <v>700</v>
+      </c>
+      <c r="R76" s="3">
         <v>600</v>
-      </c>
-      <c r="R76" s="3">
-        <v>500</v>
       </c>
       <c r="S76" s="3">
         <v>500</v>
       </c>
       <c r="T76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="U76" s="3">
         <v>600</v>
@@ -4792,10 +4978,13 @@
         <v>600</v>
       </c>
       <c r="W76" s="3">
+        <v>600</v>
+      </c>
+      <c r="X76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5048,152 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
       <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-300</v>
       </c>
-      <c r="J81" s="3">
-        <v>0</v>
-      </c>
       <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
       <c r="M81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
         <v>0</v>
       </c>
       <c r="S81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="W81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,8 +5217,9 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5084,8 +5283,11 @@
       <c r="W83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5351,11 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5419,11 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5487,11 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5555,11 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5623,79 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
       </c>
       <c r="I89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>100</v>
-      </c>
       <c r="N89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P89" s="3">
         <v>100</v>
       </c>
       <c r="Q89" s="3">
+        <v>100</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,31 +5719,32 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
-      <c r="J91" s="3" t="s">
-        <v>8</v>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>8</v>
@@ -5534,8 +5755,8 @@
       <c r="M91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -5564,8 +5785,11 @@
       <c r="W91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +5853,11 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,23 +5921,26 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-1700</v>
       </c>
-      <c r="E94" s="3">
-        <v>0</v>
-      </c>
       <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
         <v>-100</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
       <c r="H94" s="3">
         <v>0</v>
       </c>
@@ -5721,11 +5951,11 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
         <v>0</v>
       </c>
@@ -5759,8 +5989,11 @@
       <c r="W94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6017,9 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6083,11 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6151,11 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6219,11 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,43 +6287,46 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>20400</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>10300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-200</v>
       </c>
-      <c r="G100" s="3">
-        <v>200</v>
-      </c>
       <c r="H100" s="3">
         <v>200</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>-400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>1000</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -6107,10 +6353,13 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6174,69 +6423,75 @@
       <c r="W101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="E102" s="3">
         <v>17800</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-200</v>
       </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>300</v>
       </c>
-      <c r="N102" s="3">
-        <v>200</v>
-      </c>
       <c r="O102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S102" s="3">
         <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>0</v>
       </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,154 +665,157 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E8" s="3">
         <v>1100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>400</v>
-      </c>
-      <c r="S8" s="3">
-        <v>300</v>
       </c>
       <c r="T8" s="3">
         <v>300</v>
@@ -821,113 +824,119 @@
         <v>300</v>
       </c>
       <c r="V8" s="3">
+        <v>300</v>
+      </c>
+      <c r="W8" s="3">
         <v>500</v>
-      </c>
-      <c r="W8" s="3">
-        <v>700</v>
       </c>
       <c r="X8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>700</v>
+        <v>2100</v>
       </c>
       <c r="E9" s="3">
         <v>700</v>
       </c>
       <c r="F9" s="3">
+        <v>700</v>
+      </c>
+      <c r="G9" s="3">
         <v>400</v>
-      </c>
-      <c r="G9" s="3">
-        <v>600</v>
       </c>
       <c r="H9" s="3">
         <v>600</v>
       </c>
       <c r="I9" s="3">
+        <v>600</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>300</v>
       </c>
-      <c r="P9" s="3">
-        <v>200</v>
-      </c>
       <c r="Q9" s="3">
+        <v>200</v>
+      </c>
+      <c r="R9" s="3">
         <v>300</v>
       </c>
-      <c r="R9" s="3">
-        <v>200</v>
-      </c>
       <c r="S9" s="3">
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U9" s="3">
         <v>100</v>
       </c>
       <c r="V9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>600</v>
+      </c>
+      <c r="E10" s="3">
         <v>400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3">
-        <v>100</v>
-      </c>
       <c r="G10" s="3">
+        <v>100</v>
+      </c>
+      <c r="H10" s="3">
         <v>300</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>300</v>
+      </c>
+      <c r="L10" s="3">
         <v>500</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
@@ -936,37 +945,40 @@
         <v>300</v>
       </c>
       <c r="O10" s="3">
+        <v>300</v>
+      </c>
+      <c r="P10" s="3">
         <v>500</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="S10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
+        <v>200</v>
+      </c>
+      <c r="W10" s="3">
         <v>300</v>
-      </c>
-      <c r="W10" s="3">
-        <v>400</v>
       </c>
       <c r="X10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,8 +1003,9 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,8 +1143,11 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1136,10 +1155,10 @@
         <v>0</v>
       </c>
       <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
         <v>-200</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>8</v>
@@ -1156,8 +1175,8 @@
       <c r="K14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M14" s="3">
         <v>0</v>
@@ -1195,8 +1214,11 @@
       <c r="X14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,40 +1311,41 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E17" s="3">
         <v>1600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1500</v>
-      </c>
-      <c r="F17" s="3">
-        <v>1300</v>
       </c>
       <c r="G17" s="3">
         <v>1300</v>
       </c>
       <c r="H17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I17" s="3">
         <v>1100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1100</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>800</v>
-      </c>
-      <c r="M17" s="3">
-        <v>600</v>
       </c>
       <c r="N17" s="3">
         <v>600</v>
@@ -1328,22 +1354,22 @@
         <v>600</v>
       </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="S17" s="3">
         <v>400</v>
       </c>
       <c r="T17" s="3">
+        <v>400</v>
+      </c>
+      <c r="U17" s="3">
         <v>300</v>
-      </c>
-      <c r="U17" s="3">
-        <v>400</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
@@ -1352,78 +1378,84 @@
         <v>400</v>
       </c>
       <c r="X17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-500</v>
+        <v>-3000</v>
       </c>
       <c r="E18" s="3">
         <v>-500</v>
       </c>
       <c r="F18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
-        <v>100</v>
-      </c>
       <c r="I18" s="3">
+        <v>100</v>
+      </c>
+      <c r="J18" s="3">
         <v>-200</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-300</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-100</v>
       </c>
-      <c r="M18" s="3">
-        <v>0</v>
-      </c>
       <c r="N18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
+        <v>0</v>
+      </c>
+      <c r="V18" s="3">
         <v>-100</v>
       </c>
-      <c r="V18" s="3">
-        <v>100</v>
-      </c>
       <c r="W18" s="3">
+        <v>100</v>
+      </c>
+      <c r="X18" s="3">
         <v>300</v>
       </c>
-      <c r="X18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,17 +1480,18 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>200</v>
+      </c>
+      <c r="E20" s="3">
         <v>-100</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
@@ -1516,76 +1549,82 @@
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E21" s="3">
         <v>-500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-400</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-300</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
       </c>
-      <c r="M21" s="3">
-        <v>100</v>
-      </c>
       <c r="N21" s="3">
         <v>100</v>
       </c>
       <c r="O21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R21" s="3">
         <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
         <v>0</v>
       </c>
       <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
       <c r="W21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1611,10 +1650,10 @@
         <v>0</v>
       </c>
       <c r="K22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
@@ -1652,76 +1691,82 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-300</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-100</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
       <c r="N23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
         <v>-100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1773,23 +1818,26 @@
       <c r="S24" s="3">
         <v>0</v>
       </c>
-      <c r="T24" s="3" t="s">
-        <v>8</v>
+      <c r="T24" s="3">
+        <v>0</v>
       </c>
       <c r="U24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="3">
-        <v>0</v>
+      <c r="V24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,144 +1904,153 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-300</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-100</v>
       </c>
-      <c r="M26" s="3">
-        <v>0</v>
-      </c>
       <c r="N26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
         <v>-100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-300</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-100</v>
       </c>
-      <c r="M27" s="3">
-        <v>0</v>
-      </c>
       <c r="N27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
         <v>-100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,16 +2330,19 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2332,76 +2401,82 @@
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-300</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-100</v>
       </c>
-      <c r="M33" s="3">
-        <v>0</v>
-      </c>
       <c r="N33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
         <v>-100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,149 +2543,158 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-300</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-100</v>
       </c>
-      <c r="M35" s="3">
-        <v>0</v>
-      </c>
       <c r="N35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
         <v>-100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,25 +2746,26 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E41" s="3">
         <v>22900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>27600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9900</v>
       </c>
-      <c r="G41" s="3">
-        <v>200</v>
-      </c>
       <c r="H41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="I41" s="3">
         <v>400</v>
@@ -2688,25 +2774,25 @@
         <v>400</v>
       </c>
       <c r="K41" s="3">
+        <v>400</v>
+      </c>
+      <c r="L41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>1000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
-        <v>200</v>
-      </c>
       <c r="Q41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R41" s="3">
         <v>100</v>
@@ -2715,10 +2801,10 @@
         <v>100</v>
       </c>
       <c r="T41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V41" s="3">
         <v>300</v>
@@ -2727,18 +2813,21 @@
         <v>300</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>4200</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -2755,8 +2844,8 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
+      <c r="K42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -2797,59 +2886,62 @@
       <c r="X42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
         <v>500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>600</v>
-      </c>
-      <c r="F43" s="3">
-        <v>400</v>
       </c>
       <c r="G43" s="3">
         <v>400</v>
       </c>
       <c r="H43" s="3">
+        <v>400</v>
+      </c>
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
-      </c>
-      <c r="K43" s="3">
-        <v>600</v>
       </c>
       <c r="L43" s="3">
         <v>600</v>
       </c>
       <c r="M43" s="3">
+        <v>600</v>
+      </c>
+      <c r="N43" s="3">
         <v>400</v>
       </c>
-      <c r="N43" s="3">
-        <v>200</v>
-      </c>
       <c r="O43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
       </c>
       <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
-        <v>100</v>
-      </c>
       <c r="T43" s="3">
         <v>100</v>
       </c>
@@ -2857,33 +2949,36 @@
         <v>100</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E44" s="3">
         <v>900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>800</v>
       </c>
       <c r="F44" s="3">
         <v>800</v>
       </c>
       <c r="G44" s="3">
+        <v>800</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
-      </c>
-      <c r="H44" s="3">
-        <v>600</v>
       </c>
       <c r="I44" s="3">
         <v>600</v>
@@ -2895,10 +2990,10 @@
         <v>600</v>
       </c>
       <c r="L44" s="3">
+        <v>600</v>
+      </c>
+      <c r="M44" s="3">
         <v>700</v>
-      </c>
-      <c r="M44" s="3">
-        <v>400</v>
       </c>
       <c r="N44" s="3">
         <v>400</v>
@@ -2910,13 +3005,13 @@
         <v>400</v>
       </c>
       <c r="Q44" s="3">
+        <v>400</v>
+      </c>
+      <c r="R44" s="3">
         <v>500</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>400</v>
-      </c>
-      <c r="S44" s="3">
-        <v>300</v>
       </c>
       <c r="T44" s="3">
         <v>300</v>
@@ -2933,40 +3028,43 @@
       <c r="X44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>200</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1500</v>
       </c>
-      <c r="F45" s="3">
-        <v>200</v>
-      </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="H45" s="3">
-        <v>100</v>
-      </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
@@ -2981,7 +3079,7 @@
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -3001,64 +3099,67 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>24300</v>
+      </c>
+      <c r="E46" s="3">
         <v>29500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>30600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>11300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1900</v>
-      </c>
-      <c r="I46" s="3">
-        <v>1500</v>
       </c>
       <c r="J46" s="3">
         <v>1500</v>
       </c>
       <c r="K46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L46" s="3">
         <v>1900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
-      </c>
-      <c r="S46" s="3">
-        <v>600</v>
       </c>
       <c r="T46" s="3">
         <v>600</v>
       </c>
       <c r="U46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="V46" s="3">
         <v>700</v>
@@ -3067,18 +3168,21 @@
         <v>700</v>
       </c>
       <c r="X46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="3">
         <v>300</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -3095,8 +3199,8 @@
       <c r="J47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
+      <c r="K47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -3137,25 +3241,28 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1000</v>
-      </c>
-      <c r="F48" s="3">
-        <v>600</v>
       </c>
       <c r="G48" s="3">
         <v>600</v>
       </c>
       <c r="H48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I48" s="3">
         <v>700</v>
@@ -3170,25 +3277,25 @@
         <v>700</v>
       </c>
       <c r="M48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="N48" s="3">
+        <v>200</v>
+      </c>
+      <c r="O48" s="3">
         <v>300</v>
       </c>
-      <c r="O48" s="3">
-        <v>200</v>
-      </c>
       <c r="P48" s="3">
         <v>200</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
       </c>
       <c r="S48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T48" s="3">
         <v>100</v>
@@ -3205,13 +3312,16 @@
       <c r="X48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>700</v>
+        <v>8100</v>
       </c>
       <c r="E49" s="3">
         <v>700</v>
@@ -3220,7 +3330,7 @@
         <v>700</v>
       </c>
       <c r="G49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="H49" s="3">
         <v>800</v>
@@ -3237,8 +3347,8 @@
       <c r="L49" s="3">
         <v>800</v>
       </c>
-      <c r="M49" s="3" t="s">
-        <v>8</v>
+      <c r="M49" s="3">
+        <v>800</v>
       </c>
       <c r="N49" s="3" t="s">
         <v>8</v>
@@ -3255,8 +3365,8 @@
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
-        <v>0</v>
+      <c r="S49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T49" s="3">
         <v>0</v>
@@ -3273,8 +3383,11 @@
       <c r="X49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,19 +3525,22 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -3477,8 +3596,11 @@
       <c r="X52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,64 +3667,67 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>35200</v>
+      </c>
+      <c r="E54" s="3">
         <v>31900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>32400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>12700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>2800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>3300</v>
-      </c>
-      <c r="I54" s="3">
-        <v>3000</v>
       </c>
       <c r="J54" s="3">
         <v>3000</v>
       </c>
       <c r="K54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L54" s="3">
         <v>3400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>1800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>1700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>1400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>900</v>
-      </c>
-      <c r="S54" s="3">
-        <v>700</v>
       </c>
       <c r="T54" s="3">
         <v>700</v>
       </c>
       <c r="U54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="V54" s="3">
         <v>800</v>
@@ -3611,10 +3736,13 @@
         <v>800</v>
       </c>
       <c r="X54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,25 +3794,26 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>400</v>
+        <v>3000</v>
       </c>
       <c r="E57" s="3">
         <v>400</v>
       </c>
       <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="G57" s="3">
-        <v>100</v>
-      </c>
       <c r="H57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I57" s="3">
         <v>200</v>
@@ -3698,7 +3828,7 @@
         <v>200</v>
       </c>
       <c r="M57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N57" s="3">
         <v>100</v>
@@ -3710,10 +3840,10 @@
         <v>100</v>
       </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -3733,8 +3863,11 @@
       <c r="X57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,17 +3881,17 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>500</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="J58" s="3">
-        <v>200</v>
-      </c>
       <c r="K58" s="3">
         <v>200</v>
       </c>
@@ -3766,7 +3899,7 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N58" s="3">
         <v>100</v>
@@ -3787,13 +3920,13 @@
         <v>100</v>
       </c>
       <c r="T58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U58" s="3">
         <v>0</v>
       </c>
       <c r="V58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W58" s="3">
         <v>100</v>
@@ -3801,25 +3934,28 @@
       <c r="X58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>600</v>
+      </c>
+      <c r="E59" s="3">
         <v>300</v>
       </c>
-      <c r="E59" s="3">
-        <v>200</v>
-      </c>
       <c r="F59" s="3">
         <v>200</v>
       </c>
       <c r="G59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="H59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
@@ -3831,84 +3967,87 @@
         <v>200</v>
       </c>
       <c r="L59" s="3">
+        <v>200</v>
+      </c>
+      <c r="M59" s="3">
         <v>300</v>
       </c>
-      <c r="M59" s="3">
-        <v>200</v>
-      </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
         <v>100</v>
       </c>
       <c r="S59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>0</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3800</v>
+      </c>
+      <c r="E60" s="3">
         <v>800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>500</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
-      </c>
-      <c r="M60" s="3">
-        <v>300</v>
       </c>
       <c r="N60" s="3">
         <v>300</v>
       </c>
       <c r="O60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="P60" s="3">
         <v>400</v>
@@ -3917,11 +4056,11 @@
         <v>400</v>
       </c>
       <c r="R60" s="3">
+        <v>400</v>
+      </c>
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
-        <v>200</v>
-      </c>
       <c r="T60" s="3">
         <v>200</v>
       </c>
@@ -3935,54 +4074,57 @@
         <v>200</v>
       </c>
       <c r="X60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E61" s="3">
         <v>300</v>
       </c>
       <c r="F61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="G61" s="3">
         <v>1400</v>
       </c>
       <c r="H61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I61" s="3">
         <v>1500</v>
       </c>
       <c r="J61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="K61" s="3">
         <v>1400</v>
       </c>
       <c r="L61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="M61" s="3">
         <v>1700</v>
-      </c>
-      <c r="M61" s="3">
-        <v>400</v>
       </c>
       <c r="N61" s="3">
         <v>400</v>
       </c>
       <c r="O61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="P61" s="3">
         <v>100</v>
       </c>
       <c r="Q61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R61" s="3">
         <v>0</v>
@@ -4005,13 +4147,16 @@
       <c r="X61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>200</v>
+        <v>2200</v>
       </c>
       <c r="E62" s="3">
         <v>200</v>
@@ -4020,7 +4165,7 @@
         <v>200</v>
       </c>
       <c r="G62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H62" s="3">
         <v>300</v>
@@ -4035,16 +4180,16 @@
         <v>300</v>
       </c>
       <c r="L62" s="3">
+        <v>300</v>
+      </c>
+      <c r="M62" s="3">
         <v>400</v>
       </c>
-      <c r="M62" s="3">
-        <v>0</v>
-      </c>
       <c r="N62" s="3">
         <v>0</v>
       </c>
-      <c r="O62" s="3" t="s">
-        <v>8</v>
+      <c r="O62" s="3">
+        <v>0</v>
       </c>
       <c r="P62" s="3" t="s">
         <v>8</v>
@@ -4055,8 +4200,8 @@
       <c r="R62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
+      <c r="S62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T62" s="3">
         <v>0</v>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,59 +4431,62 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1300</v>
+        <v>6200</v>
       </c>
       <c r="E66" s="3">
         <v>1300</v>
       </c>
       <c r="F66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G66" s="3">
         <v>2500</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>2400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>2500</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2300</v>
       </c>
       <c r="K66" s="3">
         <v>2300</v>
       </c>
       <c r="L66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="M66" s="3">
         <v>2700</v>
-      </c>
-      <c r="M66" s="3">
-        <v>700</v>
       </c>
       <c r="N66" s="3">
         <v>700</v>
       </c>
       <c r="O66" s="3">
+        <v>700</v>
+      </c>
+      <c r="P66" s="3">
         <v>500</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>600</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
-        <v>200</v>
-      </c>
       <c r="T66" s="3">
         <v>200</v>
       </c>
@@ -4343,10 +4500,13 @@
         <v>200</v>
       </c>
       <c r="X66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,49 +4813,52 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-3800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-3200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-2700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-1400</v>
       </c>
       <c r="I72" s="3">
         <v>-1400</v>
       </c>
       <c r="J72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-1200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-700</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-800</v>
       </c>
       <c r="O72" s="3">
         <v>-800</v>
       </c>
       <c r="P72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="Q72" s="3">
         <v>-1100</v>
@@ -4694,25 +4867,28 @@
         <v>-1100</v>
       </c>
       <c r="S72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="T72" s="3">
         <v>-1200</v>
       </c>
       <c r="U72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1100</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-1000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-1100</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,64 +5097,67 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E76" s="3">
         <v>30600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>31200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>10200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>600</v>
       </c>
       <c r="I76" s="3">
         <v>600</v>
       </c>
       <c r="J76" s="3">
+        <v>600</v>
+      </c>
+      <c r="K76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>900</v>
-      </c>
-      <c r="P76" s="3">
-        <v>700</v>
       </c>
       <c r="Q76" s="3">
         <v>700</v>
       </c>
       <c r="R76" s="3">
+        <v>700</v>
+      </c>
+      <c r="S76" s="3">
         <v>600</v>
-      </c>
-      <c r="S76" s="3">
-        <v>500</v>
       </c>
       <c r="T76" s="3">
         <v>500</v>
       </c>
       <c r="U76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="V76" s="3">
         <v>600</v>
@@ -4981,10 +5166,13 @@
         <v>600</v>
       </c>
       <c r="X76" s="3">
+        <v>600</v>
+      </c>
+      <c r="Y76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,149 +5239,158 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-300</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-100</v>
       </c>
-      <c r="M81" s="3">
-        <v>0</v>
-      </c>
       <c r="N81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
         <v>-100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="W81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,13 +5415,14 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E83" s="3">
         <v>0</v>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,76 +5839,82 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-700</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="I89" s="3">
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>100</v>
-      </c>
       <c r="O89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
+        <v>100</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,34 +5939,35 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-500</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
       <c r="I91" s="3">
         <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>8</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>8</v>
@@ -5758,8 +5978,8 @@
       <c r="N91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5788,8 +6008,11 @@
       <c r="X91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,26 +6150,29 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-3700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1700</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
       <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
         <v>-100</v>
       </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
       <c r="I94" s="3">
         <v>0</v>
       </c>
@@ -5954,11 +6183,11 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -5992,8 +6221,11 @@
       <c r="X94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,8 +6532,11 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6299,37 +6544,37 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>20400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>10300</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-200</v>
       </c>
-      <c r="H100" s="3">
-        <v>200</v>
-      </c>
       <c r="I100" s="3">
         <v>200</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>-400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>1000</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6356,10 +6601,13 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,72 +6674,78 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="E102" s="3">
         <v>-4700</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>9700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-200</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
         <v>-100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="O102" s="3">
-        <v>200</v>
-      </c>
       <c r="P102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q102" s="3">
         <v>100</v>
       </c>
       <c r="R102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="T102" s="3">
         <v>-100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="V102" s="3">
         <v>0</v>
       </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X102" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,213 +665,227 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4600</v>
+      </c>
+      <c r="E8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F8" s="3">
         <v>2700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1100</v>
-      </c>
-      <c r="M8" s="3">
-        <v>700</v>
-      </c>
-      <c r="N8" s="3">
-        <v>600</v>
       </c>
       <c r="O8" s="3">
         <v>700</v>
       </c>
       <c r="P8" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>700</v>
+      </c>
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>400</v>
-      </c>
-      <c r="T8" s="3">
-        <v>300</v>
-      </c>
-      <c r="U8" s="3">
-        <v>300</v>
       </c>
       <c r="V8" s="3">
         <v>300</v>
       </c>
       <c r="W8" s="3">
+        <v>300</v>
+      </c>
+      <c r="X8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>700</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F9" s="3">
         <v>2100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
-      </c>
-      <c r="M9" s="3">
-        <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>300</v>
       </c>
       <c r="O9" s="3">
         <v>400</v>
@@ -880,7 +894,7 @@
         <v>300</v>
       </c>
       <c r="Q9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="R9" s="3">
         <v>300</v>
@@ -889,96 +903,108 @@
         <v>200</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="U9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X9" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F10" s="3">
         <v>600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>400</v>
-      </c>
-      <c r="F10" s="3">
-        <v>300</v>
-      </c>
-      <c r="G10" s="3">
-        <v>100</v>
       </c>
       <c r="H10" s="3">
         <v>300</v>
       </c>
       <c r="I10" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="J10" s="3">
         <v>300</v>
       </c>
       <c r="K10" s="3">
+        <v>600</v>
+      </c>
+      <c r="L10" s="3">
         <v>300</v>
-      </c>
-      <c r="L10" s="3">
-        <v>500</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="O10" s="3">
         <v>300</v>
       </c>
       <c r="P10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>500</v>
+      </c>
+      <c r="S10" s="3">
         <v>300</v>
       </c>
-      <c r="S10" s="3">
-        <v>200</v>
-      </c>
       <c r="T10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U10" s="3">
         <v>200</v>
       </c>
       <c r="V10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W10" s="3">
+        <v>200</v>
+      </c>
+      <c r="X10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y10" s="3">
         <v>300</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Z10" s="3">
         <v>400</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,16 +1030,18 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>8</v>
+      <c r="D12" s="3">
+        <v>200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>400</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>8</v>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,25 +1180,31 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-200</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>8</v>
@@ -1178,11 +1218,11 @@
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1217,8 +1257,14 @@
       <c r="Y14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,132 +1364,140 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>5100</v>
+      </c>
+      <c r="F17" s="3">
         <v>5700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1500</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1300</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1300</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="J17" s="3">
-        <v>900</v>
       </c>
       <c r="K17" s="3">
         <v>1100</v>
       </c>
       <c r="L17" s="3">
+        <v>900</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>800</v>
-      </c>
-      <c r="N17" s="3">
-        <v>600</v>
-      </c>
-      <c r="O17" s="3">
-        <v>600</v>
       </c>
       <c r="P17" s="3">
         <v>600</v>
       </c>
       <c r="Q17" s="3">
+        <v>600</v>
+      </c>
+      <c r="R17" s="3">
+        <v>600</v>
+      </c>
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>400</v>
-      </c>
-      <c r="T17" s="3">
-        <v>400</v>
-      </c>
-      <c r="U17" s="3">
-        <v>300</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="X17" s="3">
         <v>400</v>
       </c>
       <c r="Y17" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
         <v>-3000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="I18" s="3">
-        <v>100</v>
-      </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
+        <v>100</v>
+      </c>
+      <c r="L18" s="3">
         <v>-200</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-300</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-100</v>
       </c>
-      <c r="N18" s="3">
-        <v>0</v>
-      </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
         <v>0</v>
@@ -1446,16 +1506,22 @@
         <v>-100</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z18" s="3">
         <v>300</v>
       </c>
-      <c r="Y18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,23 +1547,25 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>200</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1552,79 +1620,91 @@
       <c r="Y20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-2800</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-500</v>
-      </c>
-      <c r="F21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-800</v>
       </c>
       <c r="H21" s="3">
         <v>-400</v>
       </c>
       <c r="I21" s="3">
-        <v>100</v>
+        <v>-800</v>
       </c>
       <c r="J21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="K21" s="3">
+        <v>100</v>
+      </c>
+      <c r="L21" s="3">
         <v>-200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-300</v>
       </c>
-      <c r="L21" s="3">
-        <v>100</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-100</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Q21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="3">
         <v>-100</v>
       </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
-      <c r="X21" s="3">
-        <v>200</v>
-      </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1653,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="L22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M22" s="3">
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -1694,79 +1774,91 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>-2800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-600</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-900</v>
       </c>
       <c r="H23" s="3">
         <v>-500</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>-200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-300</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
-      <c r="O23" s="3">
-        <v>100</v>
-      </c>
       <c r="P23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-100</v>
       </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>200</v>
-      </c>
       <c r="Y23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1821,23 +1913,29 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-      <c r="U24" s="3" t="s">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V24" s="3" t="s">
+      <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3" t="s">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +2005,168 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+      <c r="F26" s="3">
         <v>-2800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-600</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-900</v>
       </c>
       <c r="H26" s="3">
         <v>-500</v>
       </c>
       <c r="I26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K26" s="3">
+        <v>0</v>
+      </c>
+      <c r="L26" s="3">
         <v>-200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-300</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
-      <c r="O26" s="3">
-        <v>100</v>
-      </c>
       <c r="P26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-100</v>
       </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>200</v>
-      </c>
       <c r="Y26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
         <v>-2800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-600</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-900</v>
       </c>
       <c r="H27" s="3">
         <v>-500</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="3">
         <v>-200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-300</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
-      <c r="O27" s="3">
-        <v>100</v>
-      </c>
       <c r="P27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-100</v>
       </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>200</v>
-      </c>
       <c r="Y27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,22 +2467,28 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>-200</v>
       </c>
-      <c r="E32" s="3">
-        <v>100</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H32" s="3">
         <v>0</v>
@@ -2404,79 +2544,91 @@
       <c r="Y32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+      <c r="F33" s="3">
         <v>-2800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-600</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-900</v>
       </c>
       <c r="H33" s="3">
         <v>-500</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
         <v>-200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-300</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
-      <c r="O33" s="3">
-        <v>100</v>
-      </c>
       <c r="P33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-100</v>
       </c>
-      <c r="W33" s="3">
-        <v>0</v>
-      </c>
-      <c r="X33" s="3">
-        <v>200</v>
-      </c>
       <c r="Y33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2698,173 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+      <c r="F35" s="3">
         <v>-2800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-600</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-900</v>
       </c>
       <c r="H35" s="3">
         <v>-500</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K35" s="3">
+        <v>0</v>
+      </c>
+      <c r="L35" s="3">
         <v>-200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-300</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
-      <c r="O35" s="3">
-        <v>100</v>
-      </c>
       <c r="P35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S35" s="3">
         <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-100</v>
       </c>
-      <c r="W35" s="3">
-        <v>0</v>
-      </c>
-      <c r="X35" s="3">
-        <v>200</v>
-      </c>
       <c r="Y35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,93 +2919,101 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>14400</v>
+      </c>
+      <c r="E41" s="3">
+        <v>16000</v>
+      </c>
+      <c r="F41" s="3">
         <v>18000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>22900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>27600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>9900</v>
       </c>
-      <c r="H41" s="3">
-        <v>200</v>
-      </c>
-      <c r="I41" s="3">
-        <v>400</v>
-      </c>
       <c r="J41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="K41" s="3">
         <v>400</v>
       </c>
       <c r="L41" s="3">
+        <v>400</v>
+      </c>
+      <c r="M41" s="3">
+        <v>400</v>
+      </c>
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>1000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>700</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
-        <v>200</v>
-      </c>
-      <c r="R41" s="3">
-        <v>100</v>
-      </c>
       <c r="S41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T41" s="3">
         <v>100</v>
       </c>
       <c r="U41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>300</v>
       </c>
       <c r="Y41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
-        <v>4200</v>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>8</v>
+      <c r="G42" s="3">
+        <v>4200</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>8</v>
@@ -2847,11 +3027,11 @@
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
-      <c r="M42" s="3">
-        <v>0</v>
+      <c r="L42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N42" s="3">
         <v>0</v>
@@ -2889,102 +3069,114 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>400</v>
-      </c>
-      <c r="H43" s="3">
-        <v>400</v>
-      </c>
-      <c r="I43" s="3">
-        <v>800</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>800</v>
+      </c>
+      <c r="L43" s="3">
+        <v>400</v>
+      </c>
+      <c r="M43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>600</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>600</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
-        <v>200</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>400</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="U43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>100</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X43" s="3">
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E44" s="3">
+        <v>4600</v>
+      </c>
+      <c r="F44" s="3">
         <v>4200</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>900</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>800</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>800</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>500</v>
-      </c>
-      <c r="I44" s="3">
-        <v>600</v>
-      </c>
-      <c r="J44" s="3">
-        <v>600</v>
       </c>
       <c r="K44" s="3">
         <v>600</v>
@@ -2993,13 +3185,13 @@
         <v>600</v>
       </c>
       <c r="M44" s="3">
+        <v>600</v>
+      </c>
+      <c r="N44" s="3">
+        <v>600</v>
+      </c>
+      <c r="O44" s="3">
         <v>700</v>
-      </c>
-      <c r="N44" s="3">
-        <v>400</v>
-      </c>
-      <c r="O44" s="3">
-        <v>400</v>
       </c>
       <c r="P44" s="3">
         <v>400</v>
@@ -3008,16 +3200,16 @@
         <v>400</v>
       </c>
       <c r="R44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
       </c>
       <c r="T44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="U44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="V44" s="3">
         <v>300</v>
@@ -3031,46 +3223,52 @@
       <c r="Y44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>300</v>
+      </c>
+      <c r="F45" s="3">
+        <v>200</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1500</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>100</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
       <c r="K45" s="3">
         <v>100</v>
       </c>
       <c r="L45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -3082,10 +3280,10 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U45" s="3">
         <v>0</v>
@@ -3102,93 +3300,105 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>23200</v>
+      </c>
+      <c r="E46" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F46" s="3">
         <v>24300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>29500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>30600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>11300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>600</v>
-      </c>
-      <c r="V46" s="3">
-        <v>700</v>
-      </c>
-      <c r="W46" s="3">
-        <v>700</v>
       </c>
       <c r="X46" s="3">
         <v>700</v>
       </c>
       <c r="Y46" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AA46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3">
-        <v>300</v>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
+      <c r="G47" s="3">
+        <v>300</v>
       </c>
       <c r="H47" s="3" t="s">
         <v>8</v>
@@ -3202,11 +3412,11 @@
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
+      <c r="L47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -3244,31 +3454,37 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E48" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F48" s="3">
         <v>2500</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>600</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>600</v>
-      </c>
-      <c r="I48" s="3">
-        <v>700</v>
-      </c>
-      <c r="J48" s="3">
-        <v>700</v>
       </c>
       <c r="K48" s="3">
         <v>700</v>
@@ -3280,28 +3496,28 @@
         <v>700</v>
       </c>
       <c r="N48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="O48" s="3">
+        <v>700</v>
+      </c>
+      <c r="P48" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q48" s="3">
         <v>300</v>
       </c>
-      <c r="P48" s="3">
-        <v>200</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>200</v>
-      </c>
       <c r="R48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V48" s="3">
         <v>100</v>
@@ -3315,28 +3531,34 @@
       <c r="Y48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>8000</v>
+      </c>
+      <c r="E49" s="3">
         <v>8100</v>
       </c>
-      <c r="E49" s="3">
-        <v>700</v>
-      </c>
       <c r="F49" s="3">
-        <v>700</v>
+        <v>8100</v>
       </c>
       <c r="G49" s="3">
         <v>700</v>
       </c>
       <c r="H49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>800</v>
@@ -3350,11 +3572,11 @@
       <c r="M49" s="3">
         <v>800</v>
       </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
+      <c r="N49" s="3">
+        <v>800</v>
+      </c>
+      <c r="O49" s="3">
+        <v>800</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -3368,11 +3590,11 @@
       <c r="S49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T49" s="3">
-        <v>0</v>
-      </c>
-      <c r="U49" s="3">
-        <v>0</v>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V49" s="3">
         <v>0</v>
@@ -3386,8 +3608,14 @@
       <c r="Y49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,25 +3762,31 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>500</v>
+      </c>
+      <c r="E52" s="3">
+        <v>500</v>
+      </c>
+      <c r="F52" s="3">
         <v>400</v>
       </c>
-      <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3">
-        <v>200</v>
-      </c>
       <c r="G52" s="3">
         <v>0</v>
       </c>
       <c r="H52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -3599,8 +3839,14 @@
       <c r="Y52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>34200</v>
+      </c>
+      <c r="F54" s="3">
         <v>35200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>31900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>32400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>12700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>2800</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>1800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>1700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>1400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>900</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>700</v>
-      </c>
-      <c r="V54" s="3">
-        <v>800</v>
-      </c>
-      <c r="W54" s="3">
-        <v>800</v>
       </c>
       <c r="X54" s="3">
         <v>800</v>
       </c>
       <c r="Y54" s="3">
+        <v>800</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AA54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,31 +4055,33 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>3000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>300</v>
       </c>
-      <c r="H57" s="3">
-        <v>100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>200</v>
-      </c>
       <c r="J57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K57" s="3">
         <v>200</v>
@@ -3831,10 +4093,10 @@
         <v>200</v>
       </c>
       <c r="N57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P57" s="3">
         <v>100</v>
@@ -3843,13 +4105,13 @@
         <v>100</v>
       </c>
       <c r="R57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -3866,13 +4128,19 @@
       <c r="Y57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -3884,28 +4152,28 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
+        <v>200</v>
+      </c>
+      <c r="J58" s="3">
         <v>400</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>500</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3">
-        <v>200</v>
-      </c>
-      <c r="L58" s="3">
-        <v>200</v>
-      </c>
       <c r="M58" s="3">
         <v>200</v>
       </c>
       <c r="N58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="P58" s="3">
         <v>100</v>
@@ -3923,45 +4191,51 @@
         <v>100</v>
       </c>
       <c r="U58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F59" s="3">
         <v>600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>300</v>
       </c>
-      <c r="F59" s="3">
-        <v>200</v>
-      </c>
-      <c r="G59" s="3">
-        <v>200</v>
-      </c>
       <c r="H59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K59" s="3">
         <v>200</v>
@@ -3970,57 +4244,63 @@
         <v>200</v>
       </c>
       <c r="M59" s="3">
+        <v>200</v>
+      </c>
+      <c r="N59" s="3">
+        <v>200</v>
+      </c>
+      <c r="O59" s="3">
         <v>300</v>
       </c>
-      <c r="N59" s="3">
-        <v>200</v>
-      </c>
-      <c r="O59" s="3">
-        <v>100</v>
-      </c>
       <c r="P59" s="3">
         <v>200</v>
       </c>
       <c r="Q59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="R59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>3800</v>
-      </c>
-      <c r="E60" s="3">
-        <v>800</v>
-      </c>
-      <c r="F60" s="3">
-        <v>700</v>
       </c>
       <c r="G60" s="3">
         <v>800</v>
@@ -4029,44 +4309,44 @@
         <v>700</v>
       </c>
       <c r="I60" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="J60" s="3">
         <v>700</v>
       </c>
       <c r="K60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>700</v>
+      </c>
+      <c r="M60" s="3">
         <v>600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>500</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
-      </c>
-      <c r="P60" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>400</v>
       </c>
       <c r="R60" s="3">
         <v>400</v>
       </c>
       <c r="S60" s="3">
+        <v>400</v>
+      </c>
+      <c r="T60" s="3">
+        <v>400</v>
+      </c>
+      <c r="U60" s="3">
         <v>300</v>
       </c>
-      <c r="T60" s="3">
-        <v>200</v>
-      </c>
-      <c r="U60" s="3">
-        <v>200</v>
-      </c>
       <c r="V60" s="3">
         <v>200</v>
       </c>
@@ -4077,60 +4357,66 @@
         <v>200</v>
       </c>
       <c r="Y60" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
+        <v>200</v>
+      </c>
+      <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1500</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>400</v>
       </c>
-      <c r="P61" s="3">
-        <v>100</v>
-      </c>
-      <c r="Q61" s="3">
-        <v>100</v>
-      </c>
       <c r="R61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T61" s="3">
         <v>0</v>
@@ -4150,28 +4436,34 @@
       <c r="Y61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E62" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F62" s="3">
         <v>2200</v>
       </c>
-      <c r="E62" s="3">
-        <v>200</v>
-      </c>
-      <c r="F62" s="3">
-        <v>200</v>
-      </c>
       <c r="G62" s="3">
         <v>200</v>
       </c>
       <c r="H62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="J62" s="3">
         <v>300</v>
@@ -4183,19 +4475,19 @@
         <v>300</v>
       </c>
       <c r="M62" s="3">
+        <v>300</v>
+      </c>
+      <c r="N62" s="3">
+        <v>300</v>
+      </c>
+      <c r="O62" s="3">
         <v>400</v>
       </c>
-      <c r="N62" s="3">
-        <v>0</v>
-      </c>
-      <c r="O62" s="3">
-        <v>0</v>
-      </c>
-      <c r="P62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q62" s="3" t="s">
-        <v>8</v>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
       </c>
       <c r="R62" s="3" t="s">
         <v>8</v>
@@ -4203,11 +4495,11 @@
       <c r="S62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
-      <c r="U62" s="3">
-        <v>0</v>
+      <c r="T62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V62" s="3">
         <v>0</v>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,65 +4744,71 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="E66" s="3">
+        <v>5200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2500</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>2400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2300</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>500</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>300</v>
       </c>
-      <c r="T66" s="3">
-        <v>200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>200</v>
-      </c>
       <c r="V66" s="3">
         <v>200</v>
       </c>
@@ -4503,10 +4819,16 @@
         <v>200</v>
       </c>
       <c r="Y66" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-6600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-3800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-3200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-2700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-1900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-1400</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-1400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-800</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="R72" s="3">
-        <v>-1100</v>
       </c>
       <c r="S72" s="3">
         <v>-1100</v>
       </c>
       <c r="T72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="U72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="V72" s="3">
         <v>-1200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="V72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="W72" s="3">
-        <v>-1000</v>
       </c>
       <c r="X72" s="3">
         <v>-1100</v>
       </c>
       <c r="Y72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AA72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,40 +5466,46 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>29100</v>
+      </c>
+      <c r="F76" s="3">
         <v>29000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>30600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>31200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>10200</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>800</v>
-      </c>
-      <c r="L76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M76" s="3">
-        <v>1000</v>
       </c>
       <c r="N76" s="3">
         <v>1100</v>
@@ -5142,37 +5514,43 @@
         <v>1000</v>
       </c>
       <c r="P76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="R76" s="3">
         <v>900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>700</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>700</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>500</v>
-      </c>
-      <c r="V76" s="3">
-        <v>600</v>
-      </c>
-      <c r="W76" s="3">
-        <v>600</v>
       </c>
       <c r="X76" s="3">
         <v>600</v>
       </c>
       <c r="Y76" s="3">
+        <v>600</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AA76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5620,173 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+      <c r="F81" s="3">
         <v>-2800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-600</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-900</v>
       </c>
       <c r="H81" s="3">
         <v>-500</v>
       </c>
       <c r="I81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="J81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="K81" s="3">
+        <v>0</v>
+      </c>
+      <c r="L81" s="3">
         <v>-200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-300</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
-      <c r="O81" s="3">
-        <v>100</v>
-      </c>
       <c r="P81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S81" s="3">
         <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
+        <v>0</v>
+      </c>
+      <c r="V81" s="3">
+        <v>0</v>
+      </c>
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-100</v>
       </c>
-      <c r="W81" s="3">
-        <v>0</v>
-      </c>
-      <c r="X81" s="3">
-        <v>200</v>
-      </c>
       <c r="Y81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5425,10 +5823,10 @@
         <v>100</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G83" s="3">
         <v>0</v>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6270,91 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F89" s="3">
         <v>300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-900</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-700</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
         <v>-200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>100</v>
-      </c>
-      <c r="P89" s="3">
-        <v>200</v>
-      </c>
       <c r="Q89" s="3">
         <v>100</v>
       </c>
       <c r="R89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="T89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="W89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="Z89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,40 +6380,42 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
         <v>-500</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
         <v>-100</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="M91" s="3" t="s">
-        <v>8</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>8</v>
@@ -5981,11 +6423,11 @@
       <c r="O91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
+      <c r="P91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R91" s="3">
         <v>0</v>
@@ -6011,8 +6453,14 @@
       <c r="Y91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,32 +6607,38 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-5200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-3700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-1700</v>
       </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
         <v>-100</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
       <c r="K94" s="3">
         <v>0</v>
       </c>
@@ -6186,14 +6646,14 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-700</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -6224,8 +6684,14 @@
       <c r="Y94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,52 +7021,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>20400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>10300</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-200</v>
       </c>
-      <c r="I100" s="3">
-        <v>200</v>
-      </c>
-      <c r="J100" s="3">
-        <v>200</v>
-      </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L100" s="3">
+        <v>200</v>
+      </c>
+      <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>-400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>1000</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
         <v>0</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6604,10 +7096,16 @@
         <v>0</v>
       </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,75 +7175,87 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="F102" s="3">
         <v>-4900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-4700</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>17800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>9700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-200</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
       <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
-      </c>
-      <c r="M102" s="3">
-        <v>300</v>
-      </c>
-      <c r="N102" s="3">
-        <v>-100</v>
       </c>
       <c r="O102" s="3">
         <v>300</v>
       </c>
       <c r="P102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="Q102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="R102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T102" s="3">
+        <v>100</v>
+      </c>
+      <c r="U102" s="3">
+        <v>0</v>
+      </c>
+      <c r="V102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
-        <v>0</v>
-      </c>
-      <c r="W102" s="3">
-        <v>0</v>
-      </c>
       <c r="X102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,174 +665,178 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E8" s="3">
         <v>4600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2700</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1100</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>800</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>500</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>400</v>
-      </c>
-      <c r="V8" s="3">
-        <v>300</v>
       </c>
       <c r="W8" s="3">
         <v>300</v>
@@ -841,131 +845,137 @@
         <v>300</v>
       </c>
       <c r="Y8" s="3">
+        <v>300</v>
+      </c>
+      <c r="Z8" s="3">
         <v>500</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>700</v>
       </c>
       <c r="AA8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E9" s="3">
         <v>2500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2100</v>
-      </c>
-      <c r="G9" s="3">
-        <v>700</v>
       </c>
       <c r="H9" s="3">
         <v>700</v>
       </c>
       <c r="I9" s="3">
+        <v>700</v>
+      </c>
+      <c r="J9" s="3">
         <v>400</v>
-      </c>
-      <c r="J9" s="3">
-        <v>600</v>
       </c>
       <c r="K9" s="3">
         <v>600</v>
       </c>
       <c r="L9" s="3">
+        <v>600</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>500</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>300</v>
       </c>
-      <c r="S9" s="3">
-        <v>200</v>
-      </c>
       <c r="T9" s="3">
+        <v>200</v>
+      </c>
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
-        <v>200</v>
-      </c>
       <c r="V9" s="3">
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X9" s="3">
         <v>100</v>
       </c>
       <c r="Y9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E10" s="3">
         <v>2100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>2300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>300</v>
       </c>
-      <c r="I10" s="3">
-        <v>100</v>
-      </c>
       <c r="J10" s="3">
+        <v>100</v>
+      </c>
+      <c r="K10" s="3">
         <v>300</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>300</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>300</v>
+      </c>
+      <c r="O10" s="3">
         <v>500</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
@@ -974,37 +984,40 @@
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="V10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
       <c r="Y10" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z10" s="3">
         <v>300</v>
-      </c>
-      <c r="Z10" s="3">
-        <v>400</v>
       </c>
       <c r="AA10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1045,9 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1041,10 +1055,10 @@
         <v>200</v>
       </c>
       <c r="E12" s="3">
+        <v>200</v>
+      </c>
+      <c r="F12" s="3">
         <v>400</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>8</v>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,28 +1203,31 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-200</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>8</v>
@@ -1224,8 +1244,8 @@
       <c r="N14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="P14" s="3">
         <v>0</v>
@@ -1263,8 +1283,11 @@
       <c r="AA14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,49 +1392,50 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E17" s="3">
         <v>4900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>5100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>5700</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>1300</v>
       </c>
       <c r="J17" s="3">
         <v>1300</v>
       </c>
       <c r="K17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="L17" s="3">
         <v>1100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>900</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1100</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>800</v>
-      </c>
-      <c r="P17" s="3">
-        <v>600</v>
       </c>
       <c r="Q17" s="3">
         <v>600</v>
@@ -1417,22 +1444,22 @@
         <v>600</v>
       </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
       </c>
       <c r="U17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="V17" s="3">
         <v>400</v>
       </c>
       <c r="W17" s="3">
+        <v>400</v>
+      </c>
+      <c r="X17" s="3">
         <v>300</v>
-      </c>
-      <c r="X17" s="3">
-        <v>400</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
@@ -1441,87 +1468,93 @@
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-300</v>
       </c>
-      <c r="E18" s="3">
-        <v>0</v>
-      </c>
       <c r="F18" s="3">
+        <v>0</v>
+      </c>
+      <c r="G18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-500</v>
       </c>
       <c r="H18" s="3">
         <v>-500</v>
       </c>
       <c r="I18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="J18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
-        <v>100</v>
-      </c>
       <c r="L18" s="3">
+        <v>100</v>
+      </c>
+      <c r="M18" s="3">
         <v>-200</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-100</v>
       </c>
-      <c r="P18" s="3">
-        <v>0</v>
-      </c>
       <c r="Q18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
+        <v>0</v>
+      </c>
+      <c r="W18" s="3">
         <v>-100</v>
       </c>
-      <c r="W18" s="3">
-        <v>0</v>
-      </c>
       <c r="X18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="3">
         <v>-100</v>
       </c>
-      <c r="Y18" s="3">
-        <v>100</v>
-      </c>
       <c r="Z18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AA18" s="3">
         <v>300</v>
       </c>
-      <c r="AA18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,14 +1595,14 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>200</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1626,85 +1660,91 @@
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-300</v>
       </c>
-      <c r="E21" s="3">
-        <v>100</v>
-      </c>
       <c r="F21" s="3">
+        <v>100</v>
+      </c>
+      <c r="G21" s="3">
         <v>-2800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
       </c>
-      <c r="K21" s="3">
-        <v>100</v>
-      </c>
       <c r="L21" s="3">
+        <v>100</v>
+      </c>
+      <c r="M21" s="3">
         <v>-200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="P21" s="3">
-        <v>100</v>
-      </c>
       <c r="Q21" s="3">
         <v>100</v>
       </c>
       <c r="R21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="3">
         <v>-100</v>
       </c>
-      <c r="Y21" s="3">
-        <v>0</v>
-      </c>
       <c r="Z21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1739,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
@@ -1780,85 +1820,91 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>600</v>
+      </c>
+      <c r="E23" s="3">
         <v>-400</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
       <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
         <v>-2800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-900</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>-200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
         <v>-100</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1919,23 +1965,26 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-      <c r="W24" s="3" t="s">
-        <v>8</v>
+      <c r="W24" s="3">
+        <v>0</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y24" s="3">
-        <v>0</v>
+      <c r="Y24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2060,171 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-400</v>
       </c>
-      <c r="E26" s="3">
-        <v>0</v>
-      </c>
       <c r="F26" s="3">
+        <v>0</v>
+      </c>
+      <c r="G26" s="3">
         <v>-2800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="K26" s="3">
-        <v>0</v>
-      </c>
       <c r="L26" s="3">
+        <v>0</v>
+      </c>
+      <c r="M26" s="3">
         <v>-200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="P26" s="3">
-        <v>0</v>
-      </c>
       <c r="Q26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
         <v>-100</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-400</v>
       </c>
-      <c r="E27" s="3">
-        <v>0</v>
-      </c>
       <c r="F27" s="3">
+        <v>0</v>
+      </c>
+      <c r="G27" s="3">
         <v>-2800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="K27" s="3">
-        <v>0</v>
-      </c>
       <c r="L27" s="3">
+        <v>0</v>
+      </c>
+      <c r="M27" s="3">
         <v>-200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="P27" s="3">
-        <v>0</v>
-      </c>
       <c r="Q27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
         <v>-100</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,13 +2555,13 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>-200</v>
       </c>
-      <c r="G32" s="3">
-        <v>100</v>
-      </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -2550,85 +2620,91 @@
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-400</v>
       </c>
-      <c r="E33" s="3">
-        <v>0</v>
-      </c>
       <c r="F33" s="3">
+        <v>0</v>
+      </c>
+      <c r="G33" s="3">
         <v>-2800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="K33" s="3">
-        <v>0</v>
-      </c>
       <c r="L33" s="3">
+        <v>0</v>
+      </c>
+      <c r="M33" s="3">
         <v>-200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="P33" s="3">
-        <v>0</v>
-      </c>
       <c r="Q33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
         <v>-100</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2780,176 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-400</v>
       </c>
-      <c r="E35" s="3">
-        <v>0</v>
-      </c>
       <c r="F35" s="3">
+        <v>0</v>
+      </c>
+      <c r="G35" s="3">
         <v>-2800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="K35" s="3">
-        <v>0</v>
-      </c>
       <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
         <v>-200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="P35" s="3">
-        <v>0</v>
-      </c>
       <c r="Q35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
         <v>-100</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,34 +3007,35 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>16000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>18000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>22900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>27600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>9900</v>
       </c>
-      <c r="J41" s="3">
-        <v>200</v>
-      </c>
       <c r="K41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="L41" s="3">
         <v>400</v>
@@ -2957,25 +3044,25 @@
         <v>400</v>
       </c>
       <c r="N41" s="3">
+        <v>400</v>
+      </c>
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>700</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
-        <v>200</v>
-      </c>
       <c r="T41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>100</v>
@@ -2984,10 +3071,10 @@
         <v>100</v>
       </c>
       <c r="W41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>300</v>
@@ -2996,10 +3083,13 @@
         <v>300</v>
       </c>
       <c r="AA41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3012,11 +3102,11 @@
       <c r="F42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H42" s="3">
         <v>4200</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>8</v>
@@ -3033,8 +3123,8 @@
       <c r="M42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
+      <c r="N42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O42" s="3">
         <v>0</v>
@@ -3075,68 +3165,71 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>600</v>
-      </c>
-      <c r="I43" s="3">
-        <v>400</v>
       </c>
       <c r="J43" s="3">
         <v>400</v>
       </c>
       <c r="K43" s="3">
+        <v>400</v>
+      </c>
+      <c r="L43" s="3">
         <v>800</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>500</v>
-      </c>
-      <c r="N43" s="3">
-        <v>600</v>
       </c>
       <c r="O43" s="3">
         <v>600</v>
       </c>
       <c r="P43" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
-        <v>200</v>
-      </c>
       <c r="R43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>300</v>
       </c>
-      <c r="V43" s="3">
-        <v>100</v>
-      </c>
       <c r="W43" s="3">
         <v>100</v>
       </c>
@@ -3144,42 +3237,45 @@
         <v>100</v>
       </c>
       <c r="Y43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6300</v>
+      </c>
+      <c r="E44" s="3">
         <v>5700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>4600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>4200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>900</v>
-      </c>
-      <c r="H44" s="3">
-        <v>800</v>
       </c>
       <c r="I44" s="3">
         <v>800</v>
       </c>
       <c r="J44" s="3">
+        <v>800</v>
+      </c>
+      <c r="K44" s="3">
         <v>500</v>
-      </c>
-      <c r="K44" s="3">
-        <v>600</v>
       </c>
       <c r="L44" s="3">
         <v>600</v>
@@ -3191,10 +3287,10 @@
         <v>600</v>
       </c>
       <c r="O44" s="3">
+        <v>600</v>
+      </c>
+      <c r="P44" s="3">
         <v>700</v>
-      </c>
-      <c r="P44" s="3">
-        <v>400</v>
       </c>
       <c r="Q44" s="3">
         <v>400</v>
@@ -3206,13 +3302,13 @@
         <v>400</v>
       </c>
       <c r="T44" s="3">
+        <v>400</v>
+      </c>
+      <c r="U44" s="3">
         <v>500</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>400</v>
-      </c>
-      <c r="V44" s="3">
-        <v>300</v>
       </c>
       <c r="W44" s="3">
         <v>300</v>
@@ -3229,8 +3325,11 @@
       <c r="AA44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3238,40 +3337,40 @@
         <v>600</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>300</v>
       </c>
-      <c r="F45" s="3">
-        <v>200</v>
-      </c>
       <c r="G45" s="3">
+        <v>200</v>
+      </c>
+      <c r="H45" s="3">
         <v>900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1500</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>300</v>
       </c>
-      <c r="K45" s="3">
-        <v>100</v>
-      </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
@@ -3286,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="U45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V45" s="3">
         <v>0</v>
@@ -3306,73 +3405,76 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>22600</v>
+      </c>
+      <c r="E46" s="3">
         <v>23200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>23100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>24300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>29500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>30600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>11300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1900</v>
-      </c>
-      <c r="L46" s="3">
-        <v>1500</v>
       </c>
       <c r="M46" s="3">
         <v>1500</v>
       </c>
       <c r="N46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O46" s="3">
         <v>1900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
-      </c>
-      <c r="V46" s="3">
-        <v>600</v>
       </c>
       <c r="W46" s="3">
         <v>600</v>
       </c>
       <c r="X46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="Y46" s="3">
         <v>700</v>
@@ -3381,10 +3483,13 @@
         <v>700</v>
       </c>
       <c r="AA46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AB46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3397,11 +3502,11 @@
       <c r="F47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G47" s="3">
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3">
         <v>300</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>8</v>
@@ -3418,8 +3523,8 @@
       <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
+      <c r="N47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -3460,34 +3565,37 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2600</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1000</v>
-      </c>
-      <c r="I48" s="3">
-        <v>600</v>
       </c>
       <c r="J48" s="3">
         <v>600</v>
       </c>
       <c r="K48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="L48" s="3">
         <v>700</v>
@@ -3502,25 +3610,25 @@
         <v>700</v>
       </c>
       <c r="P48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="Q48" s="3">
+        <v>200</v>
+      </c>
+      <c r="R48" s="3">
         <v>300</v>
       </c>
-      <c r="R48" s="3">
-        <v>200</v>
-      </c>
       <c r="S48" s="3">
         <v>200</v>
       </c>
       <c r="T48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U48" s="3">
         <v>0</v>
       </c>
       <c r="V48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W48" s="3">
         <v>100</v>
@@ -3537,8 +3645,11 @@
       <c r="AA48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3546,13 +3657,13 @@
         <v>8000</v>
       </c>
       <c r="E49" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="F49" s="3">
         <v>8100</v>
       </c>
       <c r="G49" s="3">
-        <v>700</v>
+        <v>8100</v>
       </c>
       <c r="H49" s="3">
         <v>700</v>
@@ -3561,7 +3672,7 @@
         <v>700</v>
       </c>
       <c r="J49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="K49" s="3">
         <v>800</v>
@@ -3578,8 +3689,8 @@
       <c r="O49" s="3">
         <v>800</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>8</v>
+      <c r="P49" s="3">
+        <v>800</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>8</v>
@@ -3596,8 +3707,8 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
-        <v>0</v>
+      <c r="V49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W49" s="3">
         <v>0</v>
@@ -3614,8 +3725,11 @@
       <c r="AA49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3780,16 +3900,16 @@
         <v>500</v>
       </c>
       <c r="F52" s="3">
+        <v>500</v>
+      </c>
+      <c r="G52" s="3">
         <v>400</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
       <c r="H52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
@@ -3845,8 +3965,11 @@
       <c r="AA52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,73 +4045,76 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>37500</v>
+      </c>
+      <c r="E54" s="3">
         <v>37900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>35200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>31900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>32400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>12700</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>2800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3300</v>
-      </c>
-      <c r="L54" s="3">
-        <v>3000</v>
       </c>
       <c r="M54" s="3">
         <v>3000</v>
       </c>
       <c r="N54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O54" s="3">
         <v>3400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>1800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>1700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>900</v>
-      </c>
-      <c r="V54" s="3">
-        <v>700</v>
       </c>
       <c r="W54" s="3">
         <v>700</v>
       </c>
       <c r="X54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="Y54" s="3">
         <v>800</v>
@@ -3997,10 +4123,13 @@
         <v>800</v>
       </c>
       <c r="AA54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AB54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,34 +4187,35 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>3000</v>
-      </c>
-      <c r="G57" s="3">
-        <v>400</v>
       </c>
       <c r="H57" s="3">
         <v>400</v>
       </c>
       <c r="I57" s="3">
+        <v>400</v>
+      </c>
+      <c r="J57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
-        <v>100</v>
-      </c>
       <c r="K57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L57" s="3">
         <v>200</v>
@@ -4099,7 +4230,7 @@
         <v>200</v>
       </c>
       <c r="P57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q57" s="3">
         <v>100</v>
@@ -4111,10 +4242,10 @@
         <v>100</v>
       </c>
       <c r="T57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
@@ -4134,17 +4265,20 @@
       <c r="AA57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>200</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
-      </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
@@ -4158,17 +4292,17 @@
         <v>200</v>
       </c>
       <c r="J58" s="3">
+        <v>200</v>
+      </c>
+      <c r="K58" s="3">
         <v>400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>300</v>
       </c>
-      <c r="M58" s="3">
-        <v>200</v>
-      </c>
       <c r="N58" s="3">
         <v>200</v>
       </c>
@@ -4176,7 +4310,7 @@
         <v>200</v>
       </c>
       <c r="P58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q58" s="3">
         <v>100</v>
@@ -4197,13 +4331,13 @@
         <v>100</v>
       </c>
       <c r="W58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
       </c>
       <c r="Y58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="3">
         <v>100</v>
@@ -4211,34 +4345,37 @@
       <c r="AA58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>700</v>
+      </c>
+      <c r="E59" s="3">
         <v>900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="H59" s="3">
-        <v>200</v>
-      </c>
       <c r="I59" s="3">
         <v>200</v>
       </c>
       <c r="J59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
@@ -4250,93 +4387,96 @@
         <v>200</v>
       </c>
       <c r="O59" s="3">
+        <v>200</v>
+      </c>
+      <c r="P59" s="3">
         <v>300</v>
       </c>
-      <c r="P59" s="3">
-        <v>200</v>
-      </c>
       <c r="Q59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
         <v>100</v>
       </c>
       <c r="V59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
         <v>0</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
-      </c>
-      <c r="P60" s="3">
-        <v>300</v>
       </c>
       <c r="Q60" s="3">
         <v>300</v>
       </c>
       <c r="R60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="S60" s="3">
         <v>400</v>
@@ -4345,11 +4485,11 @@
         <v>400</v>
       </c>
       <c r="U60" s="3">
+        <v>400</v>
+      </c>
+      <c r="V60" s="3">
         <v>300</v>
       </c>
-      <c r="V60" s="3">
-        <v>200</v>
-      </c>
       <c r="W60" s="3">
         <v>200</v>
       </c>
@@ -4363,63 +4503,66 @@
         <v>200</v>
       </c>
       <c r="AA60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>200</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
       </c>
-      <c r="E61" s="3">
-        <v>200</v>
-      </c>
       <c r="F61" s="3">
         <v>200</v>
       </c>
       <c r="G61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="H61" s="3">
         <v>300</v>
       </c>
       <c r="I61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="J61" s="3">
         <v>1400</v>
       </c>
       <c r="K61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="L61" s="3">
         <v>1500</v>
       </c>
       <c r="M61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="N61" s="3">
         <v>1400</v>
       </c>
       <c r="O61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="P61" s="3">
         <v>1700</v>
-      </c>
-      <c r="P61" s="3">
-        <v>400</v>
       </c>
       <c r="Q61" s="3">
         <v>400</v>
       </c>
       <c r="R61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="S61" s="3">
         <v>100</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U61" s="3">
         <v>0</v>
@@ -4442,23 +4585,26 @@
       <c r="AA61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>5300</v>
+      </c>
+      <c r="E62" s="3">
         <v>5400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>2100</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>2200</v>
       </c>
-      <c r="G62" s="3">
-        <v>200</v>
-      </c>
       <c r="H62" s="3">
         <v>200</v>
       </c>
@@ -4466,7 +4612,7 @@
         <v>200</v>
       </c>
       <c r="J62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K62" s="3">
         <v>300</v>
@@ -4481,16 +4627,16 @@
         <v>300</v>
       </c>
       <c r="O62" s="3">
+        <v>300</v>
+      </c>
+      <c r="P62" s="3">
         <v>400</v>
       </c>
-      <c r="P62" s="3">
-        <v>0</v>
-      </c>
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-      <c r="R62" s="3" t="s">
-        <v>8</v>
+      <c r="R62" s="3">
+        <v>0</v>
       </c>
       <c r="S62" s="3" t="s">
         <v>8</v>
@@ -4501,8 +4647,8 @@
       <c r="U62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V62" s="3">
-        <v>0</v>
+      <c r="V62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W62" s="3">
         <v>0</v>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,68 +4905,71 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E66" s="3">
         <v>8900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6200</v>
-      </c>
-      <c r="G66" s="3">
-        <v>1300</v>
       </c>
       <c r="H66" s="3">
         <v>1300</v>
       </c>
       <c r="I66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="J66" s="3">
         <v>2500</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>2400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2300</v>
       </c>
       <c r="N66" s="3">
         <v>2300</v>
       </c>
       <c r="O66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="P66" s="3">
         <v>2700</v>
-      </c>
-      <c r="P66" s="3">
-        <v>700</v>
       </c>
       <c r="Q66" s="3">
         <v>700</v>
       </c>
       <c r="R66" s="3">
+        <v>700</v>
+      </c>
+      <c r="S66" s="3">
         <v>500</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>300</v>
       </c>
-      <c r="V66" s="3">
-        <v>200</v>
-      </c>
       <c r="W66" s="3">
         <v>200</v>
       </c>
@@ -4825,10 +4983,13 @@
         <v>200</v>
       </c>
       <c r="AA66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,58 +5335,61 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-6400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="E72" s="3">
-        <v>-6600</v>
       </c>
       <c r="F72" s="3">
         <v>-6600</v>
       </c>
       <c r="G72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="H72" s="3">
         <v>-3800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-3200</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-2700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-1400</v>
       </c>
       <c r="L72" s="3">
         <v>-1400</v>
       </c>
       <c r="M72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="N72" s="3">
         <v>-1200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-700</v>
-      </c>
-      <c r="Q72" s="3">
-        <v>-800</v>
       </c>
       <c r="R72" s="3">
         <v>-800</v>
       </c>
       <c r="S72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="T72" s="3">
         <v>-1100</v>
@@ -5224,25 +5398,28 @@
         <v>-1100</v>
       </c>
       <c r="V72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="W72" s="3">
         <v>-1200</v>
       </c>
       <c r="X72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-1100</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-1000</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,73 +5655,76 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E76" s="3">
         <v>28900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>29100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>30600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>31200</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>10200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>600</v>
       </c>
       <c r="L76" s="3">
         <v>600</v>
       </c>
       <c r="M76" s="3">
+        <v>600</v>
+      </c>
+      <c r="N76" s="3">
         <v>800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1100</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1100</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>900</v>
-      </c>
-      <c r="S76" s="3">
-        <v>700</v>
       </c>
       <c r="T76" s="3">
         <v>700</v>
       </c>
       <c r="U76" s="3">
+        <v>700</v>
+      </c>
+      <c r="V76" s="3">
         <v>600</v>
-      </c>
-      <c r="V76" s="3">
-        <v>500</v>
       </c>
       <c r="W76" s="3">
         <v>500</v>
       </c>
       <c r="X76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="Y76" s="3">
         <v>600</v>
@@ -5547,10 +5733,13 @@
         <v>600</v>
       </c>
       <c r="AA76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AB76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +5815,176 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-400</v>
       </c>
-      <c r="E81" s="3">
-        <v>0</v>
-      </c>
       <c r="F81" s="3">
+        <v>0</v>
+      </c>
+      <c r="G81" s="3">
         <v>-2800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="K81" s="3">
-        <v>0</v>
-      </c>
       <c r="L81" s="3">
+        <v>0</v>
+      </c>
+      <c r="M81" s="3">
         <v>-200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="P81" s="3">
-        <v>0</v>
-      </c>
       <c r="Q81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
         <v>-100</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Z81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5829,7 +6028,7 @@
         <v>100</v>
       </c>
       <c r="G83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H83" s="3">
         <v>0</v>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6490,91 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-1300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-700</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
       </c>
       <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>100</v>
-      </c>
       <c r="R89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="S89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T89" s="3">
         <v>100</v>
       </c>
       <c r="U89" s="3">
+        <v>100</v>
+      </c>
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-200</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-100</v>
       </c>
-      <c r="X89" s="3">
-        <v>100</v>
-      </c>
       <c r="Y89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,43 +6602,44 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-200</v>
-      </c>
-      <c r="E91" s="3">
-        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>-100</v>
       </c>
       <c r="G91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="H91" s="3">
         <v>-500</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-400</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
       <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3">
         <v>-100</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>8</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>8</v>
@@ -6429,8 +6650,8 @@
       <c r="Q91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6459,8 +6680,11 @@
       <c r="AA91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,35 +6840,38 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-200</v>
+        <v>-900</v>
       </c>
       <c r="E94" s="3">
         <v>-200</v>
       </c>
       <c r="F94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-5200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-3700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1700</v>
       </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
       <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>-100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
       <c r="L94" s="3">
         <v>0</v>
       </c>
@@ -6652,11 +6882,11 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>-700</v>
       </c>
-      <c r="P94" s="3">
-        <v>0</v>
-      </c>
       <c r="Q94" s="3">
         <v>0</v>
       </c>
@@ -6690,8 +6920,11 @@
       <c r="AA94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,17 +7270,20 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
@@ -7045,37 +7291,37 @@
         <v>0</v>
       </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>20400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>10300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-200</v>
       </c>
-      <c r="K100" s="3">
-        <v>200</v>
-      </c>
       <c r="L100" s="3">
         <v>200</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>-400</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1000</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7102,10 +7348,13 @@
         <v>0</v>
       </c>
       <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,81 +7430,87 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1600</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-4900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-4700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>17800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>9700</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>300</v>
       </c>
-      <c r="R102" s="3">
-        <v>200</v>
-      </c>
       <c r="S102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W102" s="3">
         <v>-100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y102" s="3">
         <v>0</v>
       </c>
       <c r="Z102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,243 +665,256 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>4300</v>
+      </c>
+      <c r="F8" s="3">
         <v>5400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>4600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>5100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>2700</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1200</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1100</v>
-      </c>
-      <c r="P8" s="3">
-        <v>700</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>600</v>
       </c>
       <c r="R8" s="3">
         <v>700</v>
       </c>
       <c r="S8" s="3">
+        <v>600</v>
+      </c>
+      <c r="T8" s="3">
+        <v>700</v>
+      </c>
+      <c r="U8" s="3">
         <v>800</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>500</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>600</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>400</v>
-      </c>
-      <c r="W8" s="3">
-        <v>300</v>
-      </c>
-      <c r="X8" s="3">
-        <v>300</v>
       </c>
       <c r="Y8" s="3">
         <v>300</v>
       </c>
       <c r="Z8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AB8" s="3">
         <v>500</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>700</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AD8" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>2800</v>
+        <v>2300</v>
       </c>
       <c r="E9" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F9" s="3">
         <v>2800</v>
       </c>
       <c r="G9" s="3">
+        <v>2500</v>
+      </c>
+      <c r="H9" s="3">
+        <v>2800</v>
+      </c>
+      <c r="I9" s="3">
         <v>2100</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>500</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>600</v>
-      </c>
-      <c r="P9" s="3">
-        <v>400</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>300</v>
       </c>
       <c r="R9" s="3">
         <v>400</v>
@@ -910,7 +923,7 @@
         <v>300</v>
       </c>
       <c r="T9" s="3">
-        <v>200</v>
+        <v>400</v>
       </c>
       <c r="U9" s="3">
         <v>300</v>
@@ -919,105 +932,117 @@
         <v>200</v>
       </c>
       <c r="W9" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA9" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC9" s="3">
         <v>300</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AD9" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F10" s="3">
         <v>2600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>2100</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>400</v>
-      </c>
-      <c r="I10" s="3">
-        <v>300</v>
-      </c>
-      <c r="J10" s="3">
-        <v>100</v>
       </c>
       <c r="K10" s="3">
         <v>300</v>
       </c>
       <c r="L10" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="M10" s="3">
         <v>300</v>
       </c>
       <c r="N10" s="3">
+        <v>600</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
-      </c>
-      <c r="O10" s="3">
-        <v>500</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="R10" s="3">
         <v>300</v>
       </c>
       <c r="S10" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>500</v>
+      </c>
+      <c r="V10" s="3">
         <v>300</v>
       </c>
-      <c r="V10" s="3">
-        <v>200</v>
-      </c>
       <c r="W10" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>200</v>
       </c>
       <c r="Y10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Z10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AB10" s="3">
         <v>300</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>400</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AD10" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1046,26 +1071,28 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E12" s="3">
         <v>200</v>
       </c>
       <c r="F12" s="3">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3">
+        <v>200</v>
+      </c>
+      <c r="H12" s="3">
         <v>400</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="I12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1126,8 +1153,14 @@
       <c r="AB12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,35 +1239,41 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
+      <c r="D14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+        <v>100</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-200</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>8</v>
       </c>
@@ -1247,11 +1286,11 @@
       <c r="O14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="P14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R14" s="3">
         <v>0</v>
@@ -1286,8 +1325,14 @@
       <c r="AB14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1366,8 +1411,14 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,150 +1444,158 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4400</v>
+      </c>
+      <c r="F17" s="3">
         <v>4800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>4900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>5100</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>5700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1300</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1300</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1100</v>
-      </c>
-      <c r="M17" s="3">
-        <v>900</v>
       </c>
       <c r="N17" s="3">
         <v>1100</v>
       </c>
       <c r="O17" s="3">
+        <v>900</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>800</v>
-      </c>
-      <c r="Q17" s="3">
-        <v>600</v>
-      </c>
-      <c r="R17" s="3">
-        <v>600</v>
       </c>
       <c r="S17" s="3">
         <v>600</v>
       </c>
       <c r="T17" s="3">
+        <v>600</v>
+      </c>
+      <c r="U17" s="3">
+        <v>600</v>
+      </c>
+      <c r="V17" s="3">
         <v>500</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>500</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>400</v>
-      </c>
-      <c r="W17" s="3">
-        <v>400</v>
-      </c>
-      <c r="X17" s="3">
-        <v>300</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="AA17" s="3">
         <v>400</v>
       </c>
       <c r="AB17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F18" s="3">
         <v>600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="F18" s="3">
-        <v>0</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="3">
         <v>-3000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
-        <v>100</v>
-      </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
+        <v>100</v>
+      </c>
+      <c r="O18" s="3">
         <v>-200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-300</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
+        <v>100</v>
+      </c>
+      <c r="R18" s="3">
         <v>-100</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V18" s="3">
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -1545,16 +1604,22 @@
         <v>-100</v>
       </c>
       <c r="Z18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA18" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC18" s="3">
         <v>300</v>
       </c>
-      <c r="AB18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AD18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,32 +1648,34 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-800</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1663,96 +1730,108 @@
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F21" s="3">
         <v>700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="F21" s="3">
-        <v>100</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-2800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-800</v>
       </c>
       <c r="K21" s="3">
         <v>-400</v>
       </c>
       <c r="L21" s="3">
-        <v>100</v>
+        <v>-800</v>
       </c>
       <c r="M21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="N21" s="3">
+        <v>100</v>
+      </c>
+      <c r="O21" s="3">
         <v>-200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
+        <v>100</v>
+      </c>
+      <c r="R21" s="3">
         <v>-100</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="T21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-100</v>
       </c>
-      <c r="Z21" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>200</v>
-      </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="3">
-        <v>0</v>
+      <c r="E22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F22" s="3">
         <v>0</v>
@@ -1782,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R22" s="3">
         <v>0</v>
@@ -1823,88 +1902,100 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F23" s="3">
         <v>600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-400</v>
       </c>
-      <c r="F23" s="3">
-        <v>0</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>-2800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-600</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-900</v>
       </c>
       <c r="K23" s="3">
         <v>-500</v>
       </c>
       <c r="L23" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N23" s="3">
+        <v>0</v>
+      </c>
+      <c r="O23" s="3">
         <v>-200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>100</v>
-      </c>
       <c r="S23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V23" s="3">
         <v>0</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
         <v>-100</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-100</v>
       </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>200</v>
-      </c>
       <c r="AB23" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1968,23 +2059,29 @@
       <c r="W24" s="3">
         <v>0</v>
       </c>
-      <c r="X24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA24" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,168 +2160,186 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F26" s="3">
         <v>600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-400</v>
       </c>
-      <c r="F26" s="3">
-        <v>0</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>0</v>
+      </c>
+      <c r="I26" s="3">
         <v>-2800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-600</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-900</v>
       </c>
       <c r="K26" s="3">
         <v>-500</v>
       </c>
       <c r="L26" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N26" s="3">
+        <v>0</v>
+      </c>
+      <c r="O26" s="3">
         <v>-200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-      <c r="R26" s="3">
-        <v>100</v>
-      </c>
       <c r="S26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V26" s="3">
         <v>0</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
         <v>-100</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-100</v>
       </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>200</v>
-      </c>
       <c r="AB26" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F27" s="3">
         <v>600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-400</v>
       </c>
-      <c r="F27" s="3">
-        <v>0</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>0</v>
+      </c>
+      <c r="I27" s="3">
         <v>-2800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-600</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-900</v>
       </c>
       <c r="K27" s="3">
         <v>-500</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N27" s="3">
+        <v>0</v>
+      </c>
+      <c r="O27" s="3">
         <v>-200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>100</v>
-      </c>
       <c r="S27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V27" s="3">
         <v>0</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
         <v>-100</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-100</v>
       </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>200</v>
-      </c>
       <c r="AB27" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2418,14 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2504,14 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2590,14 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,31 +2676,37 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>800</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-200</v>
       </c>
-      <c r="H32" s="3">
-        <v>100</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -2623,88 +2762,100 @@
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F33" s="3">
         <v>600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-400</v>
       </c>
-      <c r="F33" s="3">
-        <v>0</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+      <c r="I33" s="3">
         <v>-2800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-600</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-900</v>
       </c>
       <c r="K33" s="3">
         <v>-500</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
         <v>-200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-      <c r="R33" s="3">
-        <v>100</v>
-      </c>
       <c r="S33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V33" s="3">
         <v>0</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
         <v>-100</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-100</v>
       </c>
-      <c r="Z33" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA33" s="3">
-        <v>200</v>
-      </c>
       <c r="AB33" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,173 +2934,191 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F35" s="3">
         <v>600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-400</v>
       </c>
-      <c r="F35" s="3">
-        <v>0</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>0</v>
+      </c>
+      <c r="I35" s="3">
         <v>-2800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-600</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-900</v>
       </c>
       <c r="K35" s="3">
         <v>-500</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
         <v>-200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-      <c r="R35" s="3">
-        <v>100</v>
-      </c>
       <c r="S35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V35" s="3">
         <v>0</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
         <v>-100</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-100</v>
       </c>
-      <c r="Z35" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="3">
-        <v>200</v>
-      </c>
       <c r="AB35" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3147,10 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,88 +3179,96 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F41" s="3">
         <v>13100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>14400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>16000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>18000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>22900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>27600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>9900</v>
       </c>
-      <c r="K41" s="3">
-        <v>200</v>
-      </c>
-      <c r="L41" s="3">
-        <v>400</v>
-      </c>
       <c r="M41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>400</v>
       </c>
       <c r="O41" s="3">
+        <v>400</v>
+      </c>
+      <c r="P41" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>1000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>700</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
-        <v>200</v>
-      </c>
-      <c r="U41" s="3">
-        <v>100</v>
-      </c>
       <c r="V41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W41" s="3">
         <v>100</v>
       </c>
       <c r="X41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y41" s="3">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AA41" s="3">
         <v>300</v>
       </c>
       <c r="AB41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3105,15 +3284,15 @@
       <c r="G42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="3">
         <v>4200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
@@ -3126,11 +3305,11 @@
       <c r="N42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
-      <c r="P42" s="3">
-        <v>0</v>
+      <c r="O42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -3168,120 +3347,132 @@
       <c r="AB42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F43" s="3">
         <v>2700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>2500</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>2300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>1900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
-      </c>
-      <c r="K43" s="3">
-        <v>400</v>
-      </c>
-      <c r="L43" s="3">
-        <v>800</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>800</v>
+      </c>
+      <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>600</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
-        <v>200</v>
-      </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
+        <v>200</v>
+      </c>
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
-      </c>
-      <c r="U43" s="3">
-        <v>400</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="X43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="Y43" s="3">
         <v>100</v>
       </c>
       <c r="Z43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="F44" s="3">
         <v>6300</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>5700</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>4600</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>4200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>900</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>500</v>
-      </c>
-      <c r="L44" s="3">
-        <v>600</v>
-      </c>
-      <c r="M44" s="3">
-        <v>600</v>
       </c>
       <c r="N44" s="3">
         <v>600</v>
@@ -3290,13 +3481,13 @@
         <v>600</v>
       </c>
       <c r="P44" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>600</v>
+      </c>
+      <c r="R44" s="3">
         <v>700</v>
-      </c>
-      <c r="Q44" s="3">
-        <v>400</v>
-      </c>
-      <c r="R44" s="3">
-        <v>400</v>
       </c>
       <c r="S44" s="3">
         <v>400</v>
@@ -3305,16 +3496,16 @@
         <v>400</v>
       </c>
       <c r="U44" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="V44" s="3">
         <v>400</v>
       </c>
       <c r="W44" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="X44" s="3">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="Y44" s="3">
         <v>300</v>
@@ -3328,55 +3519,61 @@
       <c r="AB44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E45" s="3">
+        <v>400</v>
+      </c>
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3">
-        <v>200</v>
-      </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
+        <v>200</v>
+      </c>
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>1500</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
+        <v>200</v>
+      </c>
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
       <c r="N45" s="3">
         <v>100</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>100</v>
@@ -3388,10 +3585,10 @@
         <v>100</v>
       </c>
       <c r="V45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -3408,88 +3605,100 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E46" s="3">
+        <v>22200</v>
+      </c>
+      <c r="F46" s="3">
         <v>22600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>23200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>23100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>24300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>29500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>30600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>11300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1900</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1100</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>600</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>600</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>700</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>700</v>
       </c>
       <c r="AA46" s="3">
         <v>700</v>
       </c>
       <c r="AB46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AD46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3505,15 +3714,15 @@
       <c r="G47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>300</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
@@ -3526,11 +3735,11 @@
       <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
-      <c r="P47" s="3">
-        <v>0</v>
+      <c r="O47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q47" s="3">
         <v>0</v>
@@ -3568,40 +3777,46 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>6400</v>
+        <v>6000</v>
       </c>
       <c r="E48" s="3">
         <v>6200</v>
       </c>
       <c r="F48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="G48" s="3">
+        <v>6200</v>
+      </c>
+      <c r="H48" s="3">
         <v>2600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>1000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>600</v>
-      </c>
-      <c r="L48" s="3">
-        <v>700</v>
-      </c>
-      <c r="M48" s="3">
-        <v>700</v>
       </c>
       <c r="N48" s="3">
         <v>700</v>
@@ -3613,28 +3828,28 @@
         <v>700</v>
       </c>
       <c r="Q48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="R48" s="3">
+        <v>700</v>
+      </c>
+      <c r="S48" s="3">
+        <v>200</v>
+      </c>
+      <c r="T48" s="3">
         <v>300</v>
       </c>
-      <c r="S48" s="3">
-        <v>200</v>
-      </c>
-      <c r="T48" s="3">
-        <v>200</v>
-      </c>
       <c r="U48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="3">
         <v>100</v>
@@ -3648,37 +3863,43 @@
       <c r="AB48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC48" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E49" s="3">
+        <v>7800</v>
+      </c>
+      <c r="F49" s="3">
         <v>8000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>8000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>8100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>8100</v>
-      </c>
-      <c r="H49" s="3">
-        <v>700</v>
-      </c>
-      <c r="I49" s="3">
-        <v>700</v>
       </c>
       <c r="J49" s="3">
         <v>700</v>
       </c>
       <c r="K49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="L49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="M49" s="3">
         <v>800</v>
@@ -3692,11 +3913,11 @@
       <c r="P49" s="3">
         <v>800</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>800</v>
+      </c>
+      <c r="R49" s="3">
+        <v>800</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -3710,11 +3931,11 @@
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
-        <v>0</v>
-      </c>
-      <c r="X49" s="3">
-        <v>0</v>
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y49" s="3">
         <v>0</v>
@@ -3728,8 +3949,14 @@
       <c r="AB49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +4035,14 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,8 +4121,14 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3903,19 +4142,19 @@
         <v>500</v>
       </c>
       <c r="G52" s="3">
+        <v>500</v>
+      </c>
+      <c r="H52" s="3">
+        <v>500</v>
+      </c>
+      <c r="I52" s="3">
         <v>400</v>
       </c>
-      <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3">
-        <v>200</v>
-      </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -3968,8 +4207,14 @@
       <c r="AB52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4293,100 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="F54" s="3">
         <v>37500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>37900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>34200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>35200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>31900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>32400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>12700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>2800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>3300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>3000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>3400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>1800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>1700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>1400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>1300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>1100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>900</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>700</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>700</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>800</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>800</v>
       </c>
       <c r="AA54" s="3">
         <v>800</v>
       </c>
       <c r="AB54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AD54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4415,10 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,40 +4447,42 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>900</v>
       </c>
       <c r="F57" s="3">
         <v>1600</v>
       </c>
       <c r="G57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I57" s="3">
         <v>3000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>300</v>
       </c>
-      <c r="K57" s="3">
-        <v>100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>200</v>
-      </c>
       <c r="M57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
@@ -4233,10 +4494,10 @@
         <v>200</v>
       </c>
       <c r="Q57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S57" s="3">
         <v>100</v>
@@ -4245,13 +4506,13 @@
         <v>100</v>
       </c>
       <c r="U57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V57" s="3">
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X57" s="3">
         <v>100</v>
@@ -4268,8 +4529,14 @@
       <c r="AB57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC57" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,14 +4544,14 @@
         <v>200</v>
       </c>
       <c r="E58" s="3">
+        <v>200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>200</v>
+      </c>
+      <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3">
-        <v>200</v>
-      </c>
-      <c r="G58" s="3">
-        <v>200</v>
-      </c>
       <c r="H58" s="3">
         <v>200</v>
       </c>
@@ -4295,28 +4562,28 @@
         <v>200</v>
       </c>
       <c r="K58" s="3">
+        <v>200</v>
+      </c>
+      <c r="L58" s="3">
+        <v>200</v>
+      </c>
+      <c r="M58" s="3">
         <v>400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>500</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>300</v>
       </c>
-      <c r="N58" s="3">
-        <v>200</v>
-      </c>
-      <c r="O58" s="3">
-        <v>200</v>
-      </c>
       <c r="P58" s="3">
         <v>200</v>
       </c>
       <c r="Q58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="R58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="S58" s="3">
         <v>100</v>
@@ -4334,54 +4601,60 @@
         <v>100</v>
       </c>
       <c r="X58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>800</v>
+      </c>
+      <c r="F59" s="3">
         <v>700</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
-        <v>200</v>
-      </c>
-      <c r="J59" s="3">
-        <v>200</v>
-      </c>
       <c r="K59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N59" s="3">
         <v>200</v>
@@ -4390,66 +4663,72 @@
         <v>200</v>
       </c>
       <c r="P59" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>200</v>
+      </c>
+      <c r="R59" s="3">
         <v>300</v>
       </c>
-      <c r="Q59" s="3">
-        <v>200</v>
-      </c>
-      <c r="R59" s="3">
-        <v>100</v>
-      </c>
       <c r="S59" s="3">
         <v>200</v>
       </c>
       <c r="T59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F60" s="3">
         <v>2500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2900</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>3800</v>
-      </c>
-      <c r="H60" s="3">
-        <v>800</v>
-      </c>
-      <c r="I60" s="3">
-        <v>700</v>
       </c>
       <c r="J60" s="3">
         <v>800</v>
@@ -4458,44 +4737,44 @@
         <v>700</v>
       </c>
       <c r="L60" s="3">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="M60" s="3">
         <v>700</v>
       </c>
       <c r="N60" s="3">
+        <v>1000</v>
+      </c>
+      <c r="O60" s="3">
+        <v>700</v>
+      </c>
+      <c r="P60" s="3">
         <v>600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>500</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>300</v>
-      </c>
-      <c r="S60" s="3">
-        <v>400</v>
-      </c>
-      <c r="T60" s="3">
-        <v>400</v>
       </c>
       <c r="U60" s="3">
         <v>400</v>
       </c>
       <c r="V60" s="3">
+        <v>400</v>
+      </c>
+      <c r="W60" s="3">
+        <v>400</v>
+      </c>
+      <c r="X60" s="3">
         <v>300</v>
       </c>
-      <c r="W60" s="3">
-        <v>200</v>
-      </c>
-      <c r="X60" s="3">
-        <v>200</v>
-      </c>
       <c r="Y60" s="3">
         <v>200</v>
       </c>
@@ -4506,69 +4785,75 @@
         <v>200</v>
       </c>
       <c r="AB60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
+        <v>100</v>
+      </c>
+      <c r="F61" s="3">
+        <v>200</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
       </c>
-      <c r="F61" s="3">
-        <v>200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>200</v>
-      </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>200</v>
+      </c>
+      <c r="J61" s="3">
         <v>300</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>300</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>400</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>400</v>
       </c>
-      <c r="S61" s="3">
-        <v>100</v>
-      </c>
-      <c r="T61" s="3">
-        <v>100</v>
-      </c>
       <c r="U61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W61" s="3">
         <v>0</v>
@@ -4588,37 +4873,43 @@
       <c r="AB61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E62" s="3">
+        <v>5900</v>
+      </c>
+      <c r="F62" s="3">
         <v>5300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>5400</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>2100</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>2200</v>
       </c>
-      <c r="H62" s="3">
-        <v>200</v>
-      </c>
-      <c r="I62" s="3">
-        <v>200</v>
-      </c>
       <c r="J62" s="3">
         <v>200</v>
       </c>
       <c r="K62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="M62" s="3">
         <v>300</v>
@@ -4630,19 +4921,19 @@
         <v>300</v>
       </c>
       <c r="P62" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>300</v>
+      </c>
+      <c r="R62" s="3">
         <v>400</v>
       </c>
-      <c r="Q62" s="3">
-        <v>0</v>
-      </c>
-      <c r="R62" s="3">
-        <v>0</v>
-      </c>
-      <c r="S62" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="T62" s="3" t="s">
-        <v>8</v>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
       </c>
       <c r="U62" s="3" t="s">
         <v>8</v>
@@ -4650,11 +4941,11 @@
       <c r="V62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W62" s="3">
-        <v>0</v>
-      </c>
-      <c r="X62" s="3">
-        <v>0</v>
+      <c r="W62" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Y62" s="3">
         <v>0</v>
@@ -4668,8 +4959,14 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +5045,14 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +5131,14 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,74 +5217,80 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5700</v>
+      </c>
+      <c r="E66" s="3">
         <v>7900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="G66" s="3">
         <v>8900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>5200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>1300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2500</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2300</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>700</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>700</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>500</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>300</v>
       </c>
-      <c r="W66" s="3">
-        <v>200</v>
-      </c>
-      <c r="X66" s="3">
-        <v>200</v>
-      </c>
       <c r="Y66" s="3">
         <v>200</v>
       </c>
@@ -4986,10 +5301,16 @@
         <v>200</v>
       </c>
       <c r="AB66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5339,10 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5421,14 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5507,14 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5593,14 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5679,100 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F72" s="3">
         <v>-6400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-7000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-6600</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-3800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-2700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-1900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-1400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-1400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-1200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-800</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-800</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-1100</v>
       </c>
       <c r="V72" s="3">
         <v>-1100</v>
       </c>
       <c r="W72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="X72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="Y72" s="3">
         <v>-1200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-1200</v>
-      </c>
-      <c r="Y72" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="Z72" s="3">
-        <v>-1000</v>
       </c>
       <c r="AA72" s="3">
         <v>-1100</v>
       </c>
       <c r="AB72" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="AD72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5851,14 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5937,14 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,49 +6023,55 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>28200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>28800</v>
+      </c>
+      <c r="F76" s="3">
         <v>29600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>28900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>29100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>29000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>30600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>31200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>10200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>800</v>
-      </c>
-      <c r="O76" s="3">
-        <v>1100</v>
-      </c>
-      <c r="P76" s="3">
-        <v>1000</v>
       </c>
       <c r="Q76" s="3">
         <v>1100</v>
@@ -5709,37 +6080,43 @@
         <v>1000</v>
       </c>
       <c r="S76" s="3">
+        <v>1100</v>
+      </c>
+      <c r="T76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="U76" s="3">
         <v>900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>700</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>700</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>500</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>600</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>600</v>
       </c>
       <c r="AA76" s="3">
         <v>600</v>
       </c>
       <c r="AB76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AD76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,173 +6195,191 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="F81" s="3">
         <v>600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-400</v>
       </c>
-      <c r="F81" s="3">
-        <v>0</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>0</v>
+      </c>
+      <c r="I81" s="3">
         <v>-2800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-600</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-900</v>
       </c>
       <c r="K81" s="3">
         <v>-500</v>
       </c>
       <c r="L81" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="M81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N81" s="3">
+        <v>0</v>
+      </c>
+      <c r="O81" s="3">
         <v>-200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-      <c r="R81" s="3">
-        <v>100</v>
-      </c>
       <c r="S81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="T81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V81" s="3">
         <v>0</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z81" s="3">
         <v>-100</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-100</v>
       </c>
-      <c r="Z81" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA81" s="3">
-        <v>200</v>
-      </c>
       <c r="AB81" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC81" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6408,10 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6031,10 +6428,10 @@
         <v>100</v>
       </c>
       <c r="H83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J83" s="3">
         <v>0</v>
@@ -6093,8 +6490,14 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6576,14 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6662,14 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6748,14 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6834,14 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,88 +6920,100 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E89" s="3">
+        <v>100</v>
+      </c>
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-1800</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-1000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-700</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-200</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>200</v>
-      </c>
       <c r="T89" s="3">
         <v>100</v>
       </c>
       <c r="U89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V89" s="3">
-        <v>-100</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>-200</v>
+        <v>100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
       </c>
       <c r="Y89" s="3">
-        <v>100</v>
+        <v>-200</v>
       </c>
       <c r="Z89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>100</v>
       </c>
       <c r="AB89" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,49 +7042,51 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-400</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-100</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-400</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
         <v>-100</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P91" s="3" t="s">
-        <v>8</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>8</v>
@@ -6653,11 +7094,11 @@
       <c r="R91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6683,8 +7124,14 @@
       <c r="AB91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +7210,14 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,41 +7296,47 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-5200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-3700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-1700</v>
       </c>
-      <c r="J94" s="3">
-        <v>0</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>-100</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
         <v>0</v>
       </c>
@@ -6885,14 +7344,14 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-700</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
       <c r="S94" s="3">
         <v>0</v>
       </c>
@@ -6923,8 +7382,14 @@
       <c r="AB94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7418,10 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7500,14 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7586,14 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7672,14 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,13 +7758,19 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="E100" s="3">
         <v>-100</v>
@@ -7288,46 +7779,46 @@
         <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
         <v>20400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>10300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-200</v>
       </c>
-      <c r="L100" s="3">
-        <v>200</v>
-      </c>
-      <c r="M100" s="3">
-        <v>200</v>
-      </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="O100" s="3">
+        <v>200</v>
+      </c>
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>-400</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>1000</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>200</v>
-      </c>
       <c r="S100" s="3">
         <v>0</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="U100" s="3">
         <v>0</v>
@@ -7351,10 +7842,16 @@
         <v>0</v>
       </c>
       <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,84 +7930,96 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-5700</v>
+      </c>
+      <c r="E102" s="3">
+        <v>200</v>
+      </c>
+      <c r="F102" s="3">
         <v>-1300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-1600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-2100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-4900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-4700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>17800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>9700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
-      </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
       <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-400</v>
-      </c>
-      <c r="P102" s="3">
-        <v>300</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>300</v>
       </c>
       <c r="S102" s="3">
-        <v>200</v>
+        <v>-100</v>
       </c>
       <c r="T102" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="U102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="W102" s="3">
+        <v>100</v>
+      </c>
+      <c r="X102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y102" s="3">
         <v>-100</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-100</v>
       </c>
-      <c r="Y102" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z102" s="3">
-        <v>0</v>
-      </c>
       <c r="AA102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB102" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,126 +665,130 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -792,67 +796,67 @@
         <v>4100</v>
       </c>
       <c r="E8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F8" s="3">
         <v>4300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>4600</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>5100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>2700</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1200</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>800</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1100</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>700</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>800</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>500</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>600</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>400</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>300</v>
       </c>
       <c r="Z8" s="3">
         <v>300</v>
@@ -861,149 +865,155 @@
         <v>300</v>
       </c>
       <c r="AB8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AC8" s="3">
         <v>500</v>
-      </c>
-      <c r="AC8" s="3">
-        <v>700</v>
       </c>
       <c r="AD8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E9" s="3">
         <v>2300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2400</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2500</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2100</v>
-      </c>
-      <c r="J9" s="3">
-        <v>700</v>
       </c>
       <c r="K9" s="3">
         <v>700</v>
       </c>
       <c r="L9" s="3">
+        <v>700</v>
+      </c>
+      <c r="M9" s="3">
         <v>400</v>
-      </c>
-      <c r="M9" s="3">
-        <v>600</v>
       </c>
       <c r="N9" s="3">
         <v>600</v>
       </c>
       <c r="O9" s="3">
+        <v>600</v>
+      </c>
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>500</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>600</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>300</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>300</v>
       </c>
-      <c r="V9" s="3">
-        <v>200</v>
-      </c>
       <c r="W9" s="3">
+        <v>200</v>
+      </c>
+      <c r="X9" s="3">
         <v>300</v>
       </c>
-      <c r="X9" s="3">
-        <v>200</v>
-      </c>
       <c r="Y9" s="3">
         <v>200</v>
       </c>
       <c r="Z9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA9" s="3">
         <v>100</v>
       </c>
       <c r="AB9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AD9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E10" s="3">
         <v>1800</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>2600</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2100</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2300</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>400</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>300</v>
       </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
       <c r="M10" s="3">
+        <v>100</v>
+      </c>
+      <c r="N10" s="3">
         <v>300</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>600</v>
-      </c>
-      <c r="O10" s="3">
-        <v>300</v>
       </c>
       <c r="P10" s="3">
         <v>300</v>
       </c>
       <c r="Q10" s="3">
+        <v>300</v>
+      </c>
+      <c r="R10" s="3">
         <v>500</v>
-      </c>
-      <c r="R10" s="3">
-        <v>300</v>
       </c>
       <c r="S10" s="3">
         <v>300</v>
@@ -1012,37 +1022,40 @@
         <v>300</v>
       </c>
       <c r="U10" s="3">
+        <v>300</v>
+      </c>
+      <c r="V10" s="3">
         <v>500</v>
-      </c>
-      <c r="V10" s="3">
-        <v>300</v>
       </c>
       <c r="W10" s="3">
         <v>300</v>
       </c>
       <c r="X10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA10" s="3">
         <v>200</v>
       </c>
       <c r="AB10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AC10" s="3">
         <v>300</v>
-      </c>
-      <c r="AC10" s="3">
-        <v>400</v>
       </c>
       <c r="AD10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,17 +1086,18 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>700</v>
+      </c>
+      <c r="E12" s="3">
         <v>300</v>
       </c>
-      <c r="E12" s="3">
-        <v>200</v>
-      </c>
       <c r="F12" s="3">
         <v>200</v>
       </c>
@@ -1091,10 +1105,10 @@
         <v>200</v>
       </c>
       <c r="H12" s="3">
+        <v>200</v>
+      </c>
+      <c r="I12" s="3">
         <v>400</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>8</v>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,37 +1262,40 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
-        <v>100</v>
+      <c r="E14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
         <v>0</v>
       </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-200</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>8</v>
@@ -1292,8 +1312,8 @@
       <c r="Q14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R14" s="3">
-        <v>0</v>
+      <c r="R14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -1331,8 +1351,11 @@
       <c r="AD14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,58 +1472,59 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>4600</v>
       </c>
       <c r="E17" s="3">
+        <v>4700</v>
+      </c>
+      <c r="F17" s="3">
         <v>4400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>5100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1500</v>
-      </c>
-      <c r="L17" s="3">
-        <v>1300</v>
       </c>
       <c r="M17" s="3">
         <v>1300</v>
       </c>
       <c r="N17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O17" s="3">
         <v>1100</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1100</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>800</v>
-      </c>
-      <c r="S17" s="3">
-        <v>600</v>
       </c>
       <c r="T17" s="3">
         <v>600</v>
@@ -1506,22 +1533,22 @@
         <v>600</v>
       </c>
       <c r="V17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Y17" s="3">
         <v>400</v>
       </c>
       <c r="Z17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AA17" s="3">
         <v>300</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>400</v>
       </c>
       <c r="AB17" s="3">
         <v>400</v>
@@ -1530,96 +1557,102 @@
         <v>400</v>
       </c>
       <c r="AD17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AE17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-500</v>
       </c>
       <c r="E18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-300</v>
       </c>
-      <c r="H18" s="3">
-        <v>0</v>
-      </c>
       <c r="I18" s="3">
+        <v>0</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-500</v>
       </c>
       <c r="K18" s="3">
         <v>-500</v>
       </c>
       <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
-        <v>100</v>
-      </c>
       <c r="O18" s="3">
+        <v>100</v>
+      </c>
+      <c r="P18" s="3">
         <v>-200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="Q18" s="3">
-        <v>100</v>
-      </c>
       <c r="R18" s="3">
+        <v>100</v>
+      </c>
+      <c r="S18" s="3">
         <v>-100</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y18" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-100</v>
       </c>
-      <c r="Z18" s="3">
-        <v>0</v>
-      </c>
       <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="3">
         <v>-100</v>
       </c>
-      <c r="AB18" s="3">
-        <v>100</v>
-      </c>
       <c r="AC18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AD18" s="3">
         <v>300</v>
       </c>
-      <c r="AD18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,20 +1683,21 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>0</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
@@ -1671,14 +1705,14 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>200</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1736,105 +1770,111 @@
       <c r="AD20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-400</v>
       </c>
       <c r="E21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>100</v>
-      </c>
       <c r="I21" s="3">
+        <v>100</v>
+      </c>
+      <c r="J21" s="3">
         <v>-2800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-400</v>
       </c>
-      <c r="N21" s="3">
-        <v>100</v>
-      </c>
       <c r="O21" s="3">
+        <v>100</v>
+      </c>
+      <c r="P21" s="3">
         <v>-200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
-        <v>100</v>
-      </c>
       <c r="R21" s="3">
+        <v>100</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="S21" s="3">
-        <v>100</v>
-      </c>
       <c r="T21" s="3">
         <v>100</v>
       </c>
       <c r="U21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X21" s="3">
         <v>100</v>
       </c>
       <c r="Y21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z21" s="3">
         <v>0</v>
       </c>
       <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-100</v>
       </c>
-      <c r="AB21" s="3">
-        <v>0</v>
-      </c>
       <c r="AC21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
-        <v>0</v>
+      <c r="D22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
-        <v>0</v>
+      <c r="F22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
@@ -1867,10 +1907,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -1908,94 +1948,100 @@
       <c r="AD22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>8</v>
+      <c r="D23" s="3">
+        <v>-500</v>
       </c>
       <c r="E23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>600</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-400</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>-2800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-900</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="N23" s="3">
-        <v>0</v>
-      </c>
       <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>-200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
       <c r="T23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y23" s="3">
         <v>0</v>
       </c>
       <c r="Z23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA23" s="3">
         <v>-100</v>
       </c>
       <c r="AB23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2065,23 +2111,26 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-      <c r="Z24" s="3" t="s">
-        <v>8</v>
+      <c r="Z24" s="3">
+        <v>0</v>
       </c>
       <c r="AA24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AB24" s="3">
-        <v>0</v>
+      <c r="AB24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-      <c r="AD24" s="3" t="s">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-500</v>
       </c>
       <c r="E26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>600</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-400</v>
       </c>
-      <c r="H26" s="3">
-        <v>0</v>
-      </c>
       <c r="I26" s="3">
+        <v>0</v>
+      </c>
+      <c r="J26" s="3">
         <v>-2800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="N26" s="3">
-        <v>0</v>
-      </c>
       <c r="O26" s="3">
+        <v>0</v>
+      </c>
+      <c r="P26" s="3">
         <v>-200</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
       <c r="T26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y26" s="3">
         <v>0</v>
       </c>
       <c r="Z26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA26" s="3">
         <v>-100</v>
       </c>
       <c r="AB26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-500</v>
       </c>
       <c r="E27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>600</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-400</v>
       </c>
-      <c r="H27" s="3">
-        <v>0</v>
-      </c>
       <c r="I27" s="3">
+        <v>0</v>
+      </c>
+      <c r="J27" s="3">
         <v>-2800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-900</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="N27" s="3">
-        <v>0</v>
-      </c>
       <c r="O27" s="3">
+        <v>0</v>
+      </c>
+      <c r="P27" s="3">
         <v>-200</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
       <c r="T27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y27" s="3">
         <v>0</v>
       </c>
       <c r="Z27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA27" s="3">
         <v>-100</v>
       </c>
       <c r="AB27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,20 +2749,23 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>0</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
@@ -2703,13 +2773,13 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>100</v>
-      </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -2768,94 +2838,100 @@
       <c r="AD32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-500</v>
       </c>
       <c r="E33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-400</v>
       </c>
-      <c r="H33" s="3">
-        <v>0</v>
-      </c>
       <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
         <v>-2800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-900</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="N33" s="3">
-        <v>0</v>
-      </c>
       <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
         <v>-200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
       <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="S33" s="3">
-        <v>0</v>
-      </c>
       <c r="T33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y33" s="3">
         <v>0</v>
       </c>
       <c r="Z33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="3">
         <v>-100</v>
       </c>
       <c r="AB33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-500</v>
       </c>
       <c r="E35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-400</v>
       </c>
-      <c r="H35" s="3">
-        <v>0</v>
-      </c>
       <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
         <v>-2800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-900</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="N35" s="3">
-        <v>0</v>
-      </c>
       <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
         <v>-200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
       <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="S35" s="3">
-        <v>0</v>
-      </c>
       <c r="T35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y35" s="3">
         <v>0</v>
       </c>
       <c r="Z35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="3">
         <v>-100</v>
       </c>
       <c r="AB35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,43 +3267,44 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E41" s="3">
         <v>7600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>13300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>16000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>18000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>22900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>27600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>9900</v>
       </c>
-      <c r="M41" s="3">
-        <v>200</v>
-      </c>
       <c r="N41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="O41" s="3">
         <v>400</v>
@@ -3226,25 +3313,25 @@
         <v>400</v>
       </c>
       <c r="Q41" s="3">
+        <v>400</v>
+      </c>
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>1000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>700</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>800</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
-        <v>200</v>
-      </c>
       <c r="W41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X41" s="3">
         <v>100</v>
@@ -3253,10 +3340,10 @@
         <v>100</v>
       </c>
       <c r="Z41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AB41" s="3">
         <v>300</v>
@@ -3265,18 +3352,21 @@
         <v>300</v>
       </c>
       <c r="AD41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>8</v>
+      <c r="D42" s="3">
+        <v>3100</v>
+      </c>
+      <c r="E42" s="3">
+        <v>3000</v>
       </c>
       <c r="F42" s="3" t="s">
         <v>8</v>
@@ -3290,11 +3380,11 @@
       <c r="I42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K42" s="3">
         <v>4200</v>
-      </c>
-      <c r="K42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L42" s="3" t="s">
         <v>8</v>
@@ -3311,8 +3401,8 @@
       <c r="P42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
+      <c r="Q42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R42" s="3">
         <v>0</v>
@@ -3353,77 +3443,80 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E43" s="3">
         <v>1900</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>2700</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2500</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>1900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>600</v>
-      </c>
-      <c r="L43" s="3">
-        <v>400</v>
       </c>
       <c r="M43" s="3">
         <v>400</v>
       </c>
       <c r="N43" s="3">
+        <v>400</v>
+      </c>
+      <c r="O43" s="3">
         <v>800</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>500</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>600</v>
       </c>
       <c r="R43" s="3">
         <v>600</v>
       </c>
       <c r="S43" s="3">
+        <v>600</v>
+      </c>
+      <c r="T43" s="3">
         <v>400</v>
       </c>
-      <c r="T43" s="3">
-        <v>200</v>
-      </c>
       <c r="U43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
+        <v>300</v>
+      </c>
+      <c r="X43" s="3">
         <v>400</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
       </c>
-      <c r="Y43" s="3">
-        <v>100</v>
-      </c>
       <c r="Z43" s="3">
         <v>100</v>
       </c>
@@ -3431,51 +3524,54 @@
         <v>100</v>
       </c>
       <c r="AB43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AD43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
-        <v>6600</v>
+        <v>6900</v>
       </c>
       <c r="E44" s="3">
         <v>6600</v>
       </c>
       <c r="F44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="G44" s="3">
         <v>6300</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>5700</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>4600</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4200</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>900</v>
-      </c>
-      <c r="K44" s="3">
-        <v>800</v>
       </c>
       <c r="L44" s="3">
         <v>800</v>
       </c>
       <c r="M44" s="3">
+        <v>800</v>
+      </c>
+      <c r="N44" s="3">
         <v>500</v>
-      </c>
-      <c r="N44" s="3">
-        <v>600</v>
       </c>
       <c r="O44" s="3">
         <v>600</v>
@@ -3487,10 +3583,10 @@
         <v>600</v>
       </c>
       <c r="R44" s="3">
+        <v>600</v>
+      </c>
+      <c r="S44" s="3">
         <v>700</v>
-      </c>
-      <c r="S44" s="3">
-        <v>400</v>
       </c>
       <c r="T44" s="3">
         <v>400</v>
@@ -3502,13 +3598,13 @@
         <v>400</v>
       </c>
       <c r="W44" s="3">
+        <v>400</v>
+      </c>
+      <c r="X44" s="3">
         <v>500</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>400</v>
-      </c>
-      <c r="Y44" s="3">
-        <v>300</v>
       </c>
       <c r="Z44" s="3">
         <v>300</v>
@@ -3525,58 +3621,61 @@
       <c r="AD44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>3600</v>
+        <v>1000</v>
       </c>
       <c r="E45" s="3">
+        <v>600</v>
+      </c>
+      <c r="F45" s="3">
         <v>400</v>
-      </c>
-      <c r="F45" s="3">
-        <v>600</v>
       </c>
       <c r="G45" s="3">
         <v>600</v>
       </c>
       <c r="H45" s="3">
+        <v>600</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="I45" s="3">
-        <v>200</v>
-      </c>
       <c r="J45" s="3">
+        <v>200</v>
+      </c>
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>1500</v>
       </c>
-      <c r="L45" s="3">
-        <v>200</v>
-      </c>
       <c r="M45" s="3">
+        <v>200</v>
+      </c>
+      <c r="N45" s="3">
         <v>300</v>
       </c>
-      <c r="N45" s="3">
-        <v>100</v>
-      </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="3">
         <v>100</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T45" s="3">
         <v>100</v>
@@ -3591,7 +3690,7 @@
         <v>100</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -3611,8 +3710,11 @@
       <c r="AD45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -3620,73 +3722,73 @@
         <v>19700</v>
       </c>
       <c r="E46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="F46" s="3">
         <v>22200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>22600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>23200</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>24300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>29500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>30600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>11300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1900</v>
-      </c>
-      <c r="O46" s="3">
-        <v>1500</v>
       </c>
       <c r="P46" s="3">
         <v>1500</v>
       </c>
       <c r="Q46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="R46" s="3">
         <v>1900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1600</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1400</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1100</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>600</v>
       </c>
       <c r="Z46" s="3">
         <v>600</v>
       </c>
       <c r="AA46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AB46" s="3">
         <v>700</v>
@@ -3695,10 +3797,13 @@
         <v>700</v>
       </c>
       <c r="AD46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AE46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3720,11 +3825,11 @@
       <c r="I47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J47" s="3">
+      <c r="J47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K47" s="3">
         <v>300</v>
-      </c>
-      <c r="K47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>8</v>
@@ -3741,8 +3846,8 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
-        <v>0</v>
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R47" s="3">
         <v>0</v>
@@ -3783,43 +3888,46 @@
       <c r="AD47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="E48" s="3">
         <v>6000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>6200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>2600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1000</v>
-      </c>
-      <c r="L48" s="3">
-        <v>600</v>
       </c>
       <c r="M48" s="3">
         <v>600</v>
       </c>
       <c r="N48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="O48" s="3">
         <v>700</v>
@@ -3834,25 +3942,25 @@
         <v>700</v>
       </c>
       <c r="S48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="T48" s="3">
+        <v>200</v>
+      </c>
+      <c r="U48" s="3">
         <v>300</v>
       </c>
-      <c r="U48" s="3">
-        <v>200</v>
-      </c>
       <c r="V48" s="3">
         <v>200</v>
       </c>
       <c r="W48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X48" s="3">
         <v>0</v>
       </c>
       <c r="Y48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="3">
         <v>100</v>
@@ -3869,8 +3977,11 @@
       <c r="AD48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3881,19 +3992,19 @@
         <v>7800</v>
       </c>
       <c r="F49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="G49" s="3">
         <v>8000</v>
       </c>
       <c r="H49" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="I49" s="3">
         <v>8100</v>
       </c>
       <c r="J49" s="3">
-        <v>700</v>
+        <v>8100</v>
       </c>
       <c r="K49" s="3">
         <v>700</v>
@@ -3902,7 +4013,7 @@
         <v>700</v>
       </c>
       <c r="M49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="N49" s="3">
         <v>800</v>
@@ -3919,8 +4030,8 @@
       <c r="R49" s="3">
         <v>800</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
+      <c r="S49" s="3">
+        <v>800</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3937,8 +4048,8 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
-        <v>0</v>
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z49" s="3">
         <v>0</v>
@@ -3955,8 +4066,11 @@
       <c r="AD49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,13 +4244,16 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="E52" s="3">
         <v>500</v>
@@ -4148,16 +4268,16 @@
         <v>500</v>
       </c>
       <c r="I52" s="3">
+        <v>500</v>
+      </c>
+      <c r="J52" s="3">
         <v>400</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
       <c r="K52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M52" s="3">
         <v>0</v>
@@ -4213,8 +4333,11 @@
       <c r="AD52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,82 +4422,85 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>34300</v>
+      </c>
+      <c r="E54" s="3">
         <v>34000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>36700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>37500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>34200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>35200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>31900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>32400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>12700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>2800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3300</v>
-      </c>
-      <c r="O54" s="3">
-        <v>3000</v>
       </c>
       <c r="P54" s="3">
         <v>3000</v>
       </c>
       <c r="Q54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="R54" s="3">
         <v>3400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>1800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1700</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1400</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1100</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>900</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>700</v>
       </c>
       <c r="Z54" s="3">
         <v>700</v>
       </c>
       <c r="AA54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AB54" s="3">
         <v>800</v>
@@ -4383,10 +4509,13 @@
         <v>800</v>
       </c>
       <c r="AD54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AE54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,43 +4579,44 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>3000</v>
-      </c>
-      <c r="J57" s="3">
-        <v>400</v>
       </c>
       <c r="K57" s="3">
         <v>400</v>
       </c>
       <c r="L57" s="3">
+        <v>400</v>
+      </c>
+      <c r="M57" s="3">
         <v>300</v>
       </c>
-      <c r="M57" s="3">
-        <v>100</v>
-      </c>
       <c r="N57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O57" s="3">
         <v>200</v>
@@ -4500,7 +4631,7 @@
         <v>200</v>
       </c>
       <c r="S57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T57" s="3">
         <v>100</v>
@@ -4512,10 +4643,10 @@
         <v>100</v>
       </c>
       <c r="W57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y57" s="3">
         <v>100</v>
@@ -4535,13 +4666,16 @@
       <c r="AD57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
@@ -4550,11 +4684,11 @@
         <v>200</v>
       </c>
       <c r="G58" s="3">
+        <v>200</v>
+      </c>
+      <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3">
-        <v>200</v>
-      </c>
       <c r="I58" s="3">
         <v>200</v>
       </c>
@@ -4568,17 +4702,17 @@
         <v>200</v>
       </c>
       <c r="M58" s="3">
+        <v>200</v>
+      </c>
+      <c r="N58" s="3">
         <v>400</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>300</v>
       </c>
-      <c r="P58" s="3">
-        <v>200</v>
-      </c>
       <c r="Q58" s="3">
         <v>200</v>
       </c>
@@ -4586,7 +4720,7 @@
         <v>200</v>
       </c>
       <c r="S58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="T58" s="3">
         <v>100</v>
@@ -4607,13 +4741,13 @@
         <v>100</v>
       </c>
       <c r="Z58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA58" s="3">
         <v>0</v>
       </c>
       <c r="AB58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AC58" s="3">
         <v>100</v>
@@ -4621,8 +4755,11 @@
       <c r="AD58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4633,31 +4770,31 @@
         <v>800</v>
       </c>
       <c r="F59" s="3">
+        <v>800</v>
+      </c>
+      <c r="G59" s="3">
         <v>700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>900</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>300</v>
       </c>
-      <c r="K59" s="3">
-        <v>200</v>
-      </c>
       <c r="L59" s="3">
         <v>200</v>
       </c>
       <c r="M59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O59" s="3">
         <v>200</v>
@@ -4669,102 +4806,105 @@
         <v>200</v>
       </c>
       <c r="R59" s="3">
+        <v>200</v>
+      </c>
+      <c r="S59" s="3">
         <v>300</v>
       </c>
-      <c r="S59" s="3">
-        <v>200</v>
-      </c>
       <c r="T59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V59" s="3">
         <v>200</v>
       </c>
       <c r="W59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X59" s="3">
         <v>100</v>
       </c>
       <c r="Y59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA59" s="3">
         <v>100</v>
       </c>
       <c r="AB59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC59" s="3">
         <v>0</v>
       </c>
       <c r="AD59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E60" s="3">
         <v>2000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>2500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>2900</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3800</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>800</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>700</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>700</v>
-      </c>
-      <c r="S60" s="3">
-        <v>300</v>
       </c>
       <c r="T60" s="3">
         <v>300</v>
       </c>
       <c r="U60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="V60" s="3">
         <v>400</v>
@@ -4773,11 +4913,11 @@
         <v>400</v>
       </c>
       <c r="X60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y60" s="3">
         <v>300</v>
       </c>
-      <c r="Y60" s="3">
-        <v>200</v>
-      </c>
       <c r="Z60" s="3">
         <v>200</v>
       </c>
@@ -4791,10 +4931,13 @@
         <v>200</v>
       </c>
       <c r="AD60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4805,58 +4948,58 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
+        <v>200</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
       </c>
-      <c r="H61" s="3">
-        <v>200</v>
-      </c>
       <c r="I61" s="3">
         <v>200</v>
       </c>
       <c r="J61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="K61" s="3">
         <v>300</v>
       </c>
       <c r="L61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="M61" s="3">
         <v>1400</v>
       </c>
       <c r="N61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="O61" s="3">
         <v>1500</v>
       </c>
       <c r="P61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="Q61" s="3">
         <v>1400</v>
       </c>
       <c r="R61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="S61" s="3">
         <v>1700</v>
-      </c>
-      <c r="S61" s="3">
-        <v>400</v>
       </c>
       <c r="T61" s="3">
         <v>400</v>
       </c>
       <c r="U61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="V61" s="3">
         <v>100</v>
       </c>
       <c r="W61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X61" s="3">
         <v>0</v>
@@ -4879,32 +5022,35 @@
       <c r="AD61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E62" s="3">
         <v>3600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>5900</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5400</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>2100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2200</v>
       </c>
-      <c r="J62" s="3">
-        <v>200</v>
-      </c>
       <c r="K62" s="3">
         <v>200</v>
       </c>
@@ -4912,7 +5058,7 @@
         <v>200</v>
       </c>
       <c r="M62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="N62" s="3">
         <v>300</v>
@@ -4927,16 +5073,16 @@
         <v>300</v>
       </c>
       <c r="R62" s="3">
+        <v>300</v>
+      </c>
+      <c r="S62" s="3">
         <v>400</v>
       </c>
-      <c r="S62" s="3">
-        <v>0</v>
-      </c>
       <c r="T62" s="3">
         <v>0</v>
       </c>
-      <c r="U62" s="3" t="s">
-        <v>8</v>
+      <c r="U62" s="3">
+        <v>0</v>
       </c>
       <c r="V62" s="3" t="s">
         <v>8</v>
@@ -4947,8 +5093,8 @@
       <c r="X62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y62" s="3">
-        <v>0</v>
+      <c r="Y62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Z62" s="3">
         <v>0</v>
@@ -4965,8 +5111,11 @@
       <c r="AD62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,77 +5378,80 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E66" s="3">
         <v>5700</v>
-      </c>
-      <c r="E66" s="3">
-        <v>7900</v>
       </c>
       <c r="F66" s="3">
         <v>7900</v>
       </c>
       <c r="G66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="H66" s="3">
         <v>8900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>5200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6200</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1300</v>
       </c>
       <c r="K66" s="3">
         <v>1300</v>
       </c>
       <c r="L66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>2400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2500</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2300</v>
       </c>
       <c r="Q66" s="3">
         <v>2300</v>
       </c>
       <c r="R66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="S66" s="3">
         <v>2700</v>
-      </c>
-      <c r="S66" s="3">
-        <v>700</v>
       </c>
       <c r="T66" s="3">
         <v>700</v>
       </c>
       <c r="U66" s="3">
+        <v>700</v>
+      </c>
+      <c r="V66" s="3">
         <v>500</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>600</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>300</v>
       </c>
-      <c r="Y66" s="3">
-        <v>200</v>
-      </c>
       <c r="Z66" s="3">
         <v>200</v>
       </c>
@@ -5307,10 +5465,13 @@
         <v>200</v>
       </c>
       <c r="AD66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,67 +5856,70 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E72" s="3">
         <v>-7900</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-6400</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-6600</v>
       </c>
       <c r="I72" s="3">
         <v>-6600</v>
       </c>
       <c r="J72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="K72" s="3">
         <v>-3800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-3200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-2700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="N72" s="3">
-        <v>-1400</v>
       </c>
       <c r="O72" s="3">
         <v>-1400</v>
       </c>
       <c r="P72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="Q72" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-900</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-700</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-800</v>
       </c>
       <c r="U72" s="3">
         <v>-800</v>
       </c>
       <c r="V72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="W72" s="3">
         <v>-1100</v>
@@ -5754,25 +5928,28 @@
         <v>-1100</v>
       </c>
       <c r="Y72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="Z72" s="3">
         <v>-1200</v>
       </c>
       <c r="AA72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AB72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,82 +6212,85 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27800</v>
+      </c>
+      <c r="E76" s="3">
         <v>28200</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>29600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>28900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>29100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>30600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>31200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>10200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>400</v>
-      </c>
-      <c r="N76" s="3">
-        <v>600</v>
       </c>
       <c r="O76" s="3">
         <v>600</v>
       </c>
       <c r="P76" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q76" s="3">
         <v>800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1100</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1100</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>900</v>
-      </c>
-      <c r="V76" s="3">
-        <v>700</v>
       </c>
       <c r="W76" s="3">
         <v>700</v>
       </c>
       <c r="X76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Y76" s="3">
         <v>600</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>500</v>
       </c>
       <c r="Z76" s="3">
         <v>500</v>
       </c>
       <c r="AA76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AB76" s="3">
         <v>600</v>
@@ -6113,10 +6299,13 @@
         <v>600</v>
       </c>
       <c r="AD76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AE76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-500</v>
       </c>
       <c r="E81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-400</v>
       </c>
-      <c r="H81" s="3">
-        <v>0</v>
-      </c>
       <c r="I81" s="3">
+        <v>0</v>
+      </c>
+      <c r="J81" s="3">
         <v>-2800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-900</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="N81" s="3">
-        <v>0</v>
-      </c>
       <c r="O81" s="3">
+        <v>0</v>
+      </c>
+      <c r="P81" s="3">
         <v>-200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
       <c r="R81" s="3">
+        <v>0</v>
+      </c>
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="S81" s="3">
-        <v>0</v>
-      </c>
       <c r="T81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="X81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y81" s="3">
         <v>0</v>
       </c>
       <c r="Z81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA81" s="3">
         <v>-100</v>
       </c>
       <c r="AB81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AD81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,8 +6608,9 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6434,7 +6633,7 @@
         <v>100</v>
       </c>
       <c r="J83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -6496,8 +6695,11 @@
       <c r="AD83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-700</v>
       </c>
-      <c r="E89" s="3">
-        <v>100</v>
-      </c>
       <c r="F89" s="3">
+        <v>100</v>
+      </c>
+      <c r="G89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-700</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
-      <c r="Q89" s="3">
-        <v>0</v>
-      </c>
       <c r="R89" s="3">
         <v>0</v>
       </c>
       <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
-      <c r="T89" s="3">
-        <v>100</v>
-      </c>
       <c r="U89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="V89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W89" s="3">
         <v>100</v>
       </c>
       <c r="X89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>-200</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-100</v>
       </c>
-      <c r="AA89" s="3">
-        <v>100</v>
-      </c>
       <c r="AB89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AC89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,52 +7264,53 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E91" s="3">
         <v>-100</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
       <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
         <v>-400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-200</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-100</v>
       </c>
       <c r="I91" s="3">
         <v>-100</v>
       </c>
       <c r="J91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K91" s="3">
         <v>-500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-400</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>8</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>8</v>
@@ -7100,8 +7321,8 @@
       <c r="T91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U91" s="3">
-        <v>0</v>
+      <c r="U91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V91" s="3">
         <v>0</v>
@@ -7130,8 +7351,11 @@
       <c r="AD91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,44 +7529,47 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2800</v>
       </c>
-      <c r="E94" s="3">
-        <v>200</v>
-      </c>
       <c r="F94" s="3">
+        <v>200</v>
+      </c>
+      <c r="G94" s="3">
         <v>-900</v>
-      </c>
-      <c r="G94" s="3">
-        <v>-200</v>
       </c>
       <c r="H94" s="3">
         <v>-200</v>
       </c>
       <c r="I94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="J94" s="3">
         <v>-5200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-3700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-1700</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
-      </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
         <v>0</v>
       </c>
@@ -7350,11 +7580,11 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-700</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
         <v>0</v>
       </c>
@@ -7388,8 +7618,11 @@
       <c r="AD94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,26 +8007,29 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-100</v>
+      </c>
+      <c r="E100" s="3">
         <v>-2200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
         <v>-100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
       <c r="I100" s="3">
         <v>0</v>
       </c>
@@ -7791,37 +8037,37 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>20400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>10300</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-200</v>
       </c>
-      <c r="N100" s="3">
-        <v>200</v>
-      </c>
       <c r="O100" s="3">
         <v>200</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>-400</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>1000</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7848,10 +8094,13 @@
         <v>0</v>
       </c>
       <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7936,90 +8185,96 @@
       <c r="AD101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="E102" s="3">
         <v>-5700</v>
       </c>
-      <c r="E102" s="3">
-        <v>200</v>
-      </c>
       <c r="F102" s="3">
+        <v>200</v>
+      </c>
+      <c r="G102" s="3">
         <v>-1300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-1600</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-4900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>17800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>9700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-200</v>
       </c>
-      <c r="N102" s="3">
-        <v>0</v>
-      </c>
       <c r="O102" s="3">
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
-      <c r="U102" s="3">
-        <v>200</v>
-      </c>
       <c r="V102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="W102" s="3">
         <v>100</v>
       </c>
       <c r="X102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Z102" s="3">
         <v>-100</v>
       </c>
       <c r="AA102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AB102" s="3">
         <v>0</v>
       </c>
       <c r="AC102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE102" s="3">
         <v>0</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/AMPG_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="92">
   <si>
     <t>AMPG</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AE102"/>
+  <dimension ref="A5:AF102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,201 +665,205 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="32" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44104</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>44012</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43921</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43830</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43738</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43646</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43555</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43465</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43373</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43281</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43190</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43100</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>43008</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42916</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42825</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42735</v>
       </c>
-      <c r="AE7" s="2">
+      <c r="AF7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>4100</v>
+        <v>3400</v>
       </c>
       <c r="E8" s="3">
         <v>4100</v>
       </c>
       <c r="F8" s="3">
+        <v>4100</v>
+      </c>
+      <c r="G8" s="3">
         <v>4300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5400</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>4600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>5100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>2700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1100</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>900</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1200</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>800</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1100</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>700</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>800</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>500</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>600</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>400</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>300</v>
       </c>
       <c r="AA8" s="3">
         <v>300</v>
@@ -868,155 +872,161 @@
         <v>300</v>
       </c>
       <c r="AC8" s="3">
+        <v>300</v>
+      </c>
+      <c r="AD8" s="3">
         <v>500</v>
-      </c>
-      <c r="AD8" s="3">
-        <v>700</v>
       </c>
       <c r="AE8" s="3">
         <v>700</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF8" s="3">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E9" s="3">
         <v>2200</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>2300</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>2400</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>2800</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>2500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>2800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>2100</v>
-      </c>
-      <c r="K9" s="3">
-        <v>700</v>
       </c>
       <c r="L9" s="3">
         <v>700</v>
       </c>
       <c r="M9" s="3">
+        <v>700</v>
+      </c>
+      <c r="N9" s="3">
         <v>400</v>
-      </c>
-      <c r="N9" s="3">
-        <v>600</v>
       </c>
       <c r="O9" s="3">
         <v>600</v>
       </c>
       <c r="P9" s="3">
+        <v>600</v>
+      </c>
+      <c r="Q9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>500</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>600</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>300</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>400</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>300</v>
       </c>
-      <c r="W9" s="3">
-        <v>200</v>
-      </c>
       <c r="X9" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y9" s="3">
         <v>300</v>
       </c>
-      <c r="Y9" s="3">
-        <v>200</v>
-      </c>
       <c r="Z9" s="3">
         <v>200</v>
       </c>
       <c r="AA9" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB9" s="3">
         <v>100</v>
       </c>
       <c r="AC9" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD9" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AE9" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF9" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E10" s="3">
         <v>1900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>1900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>2600</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>2100</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>2300</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>400</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>300</v>
       </c>
-      <c r="M10" s="3">
-        <v>100</v>
-      </c>
       <c r="N10" s="3">
+        <v>100</v>
+      </c>
+      <c r="O10" s="3">
         <v>300</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>600</v>
-      </c>
-      <c r="P10" s="3">
-        <v>300</v>
       </c>
       <c r="Q10" s="3">
         <v>300</v>
       </c>
       <c r="R10" s="3">
+        <v>300</v>
+      </c>
+      <c r="S10" s="3">
         <v>500</v>
-      </c>
-      <c r="S10" s="3">
-        <v>300</v>
       </c>
       <c r="T10" s="3">
         <v>300</v>
@@ -1025,37 +1035,40 @@
         <v>300</v>
       </c>
       <c r="V10" s="3">
+        <v>300</v>
+      </c>
+      <c r="W10" s="3">
         <v>500</v>
-      </c>
-      <c r="W10" s="3">
-        <v>300</v>
       </c>
       <c r="X10" s="3">
         <v>300</v>
       </c>
       <c r="Y10" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Z10" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AA10" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB10" s="3">
         <v>200</v>
       </c>
       <c r="AC10" s="3">
+        <v>200</v>
+      </c>
+      <c r="AD10" s="3">
         <v>300</v>
-      </c>
-      <c r="AD10" s="3">
-        <v>400</v>
       </c>
       <c r="AE10" s="3">
         <v>400</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF10" s="3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1087,20 +1100,21 @@
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
-    </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF11" s="3"/>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>400</v>
+      </c>
+      <c r="E12" s="3">
         <v>700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>300</v>
       </c>
-      <c r="F12" s="3">
-        <v>200</v>
-      </c>
       <c r="G12" s="3">
         <v>200</v>
       </c>
@@ -1108,10 +1122,10 @@
         <v>200</v>
       </c>
       <c r="I12" s="3">
+        <v>200</v>
+      </c>
+      <c r="J12" s="3">
         <v>400</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K12" s="3" t="s">
         <v>8</v>
@@ -1176,8 +1190,11 @@
       <c r="AE12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1265,8 +1282,11 @@
       <c r="AE13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1276,29 +1296,29 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
-        <v>100</v>
+      <c r="F14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
         <v>0</v>
       </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-200</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>8</v>
@@ -1315,8 +1335,8 @@
       <c r="R14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
+      <c r="S14" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -1354,8 +1374,11 @@
       <c r="AE14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1443,8 +1466,11 @@
       <c r="AE15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
+      <c r="AF15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1473,61 +1499,62 @@
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
-    </row>
-    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF16" s="3"/>
+    </row>
+    <row r="17" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>4600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>4700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>4400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>4800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>4900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>5100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>5700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>1300</v>
       </c>
       <c r="N17" s="3">
         <v>1300</v>
       </c>
       <c r="O17" s="3">
+        <v>1300</v>
+      </c>
+      <c r="P17" s="3">
         <v>1100</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1100</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>800</v>
-      </c>
-      <c r="T17" s="3">
-        <v>600</v>
       </c>
       <c r="U17" s="3">
         <v>600</v>
@@ -1536,22 +1563,22 @@
         <v>600</v>
       </c>
       <c r="W17" s="3">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="X17" s="3">
         <v>500</v>
       </c>
       <c r="Y17" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="Z17" s="3">
         <v>400</v>
       </c>
       <c r="AA17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AB17" s="3">
         <v>300</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>400</v>
       </c>
       <c r="AC17" s="3">
         <v>400</v>
@@ -1560,99 +1587,105 @@
         <v>400</v>
       </c>
       <c r="AE17" s="3">
+        <v>400</v>
+      </c>
+      <c r="AF17" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>-500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>600</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-300</v>
       </c>
-      <c r="I18" s="3">
-        <v>0</v>
-      </c>
       <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3000</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-500</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
-        <v>100</v>
-      </c>
       <c r="P18" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
-        <v>100</v>
-      </c>
       <c r="S18" s="3">
+        <v>100</v>
+      </c>
+      <c r="T18" s="3">
         <v>-100</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
       <c r="U18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V18" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X18" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="3">
         <v>-100</v>
       </c>
-      <c r="AA18" s="3">
-        <v>0</v>
-      </c>
       <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
         <v>-100</v>
       </c>
-      <c r="AC18" s="3">
-        <v>100</v>
-      </c>
       <c r="AD18" s="3">
+        <v>100</v>
+      </c>
+      <c r="AE18" s="3">
         <v>300</v>
       </c>
-      <c r="AE18" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF18" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="19" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1684,23 +1717,24 @@
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
-    </row>
-    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF19" s="3"/>
+    </row>
+    <row r="20" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>0</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-800</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1708,14 +1742,14 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>200</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1773,102 +1807,108 @@
       <c r="AE20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>-400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-500</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-300</v>
       </c>
-      <c r="I21" s="3">
-        <v>100</v>
-      </c>
       <c r="J21" s="3">
+        <v>100</v>
+      </c>
+      <c r="K21" s="3">
         <v>-2800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-400</v>
       </c>
-      <c r="O21" s="3">
-        <v>100</v>
-      </c>
       <c r="P21" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="R21" s="3">
-        <v>100</v>
-      </c>
       <c r="S21" s="3">
+        <v>100</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
       </c>
-      <c r="T21" s="3">
-        <v>100</v>
-      </c>
       <c r="U21" s="3">
         <v>100</v>
       </c>
       <c r="V21" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W21" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X21" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="3">
         <v>100</v>
       </c>
       <c r="Z21" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA21" s="3">
         <v>0</v>
       </c>
       <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
         <v>-100</v>
       </c>
-      <c r="AC21" s="3">
-        <v>0</v>
-      </c>
       <c r="AD21" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF21" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>8</v>
@@ -1876,8 +1916,8 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
+      <c r="G22" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="H22" s="3">
         <v>0</v>
@@ -1910,10 +1950,10 @@
         <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
@@ -1951,97 +1991,103 @@
       <c r="AE22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
       <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="3">
         <v>-2800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-900</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="R23" s="3">
-        <v>0</v>
-      </c>
       <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
         <v>-100</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
       <c r="U23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V23" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W23" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X23" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z23" s="3">
         <v>0</v>
       </c>
       <c r="AA23" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB23" s="3">
         <v>-100</v>
       </c>
       <c r="AC23" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD23" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF23" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -2114,23 +2160,26 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-      <c r="AA24" s="3" t="s">
-        <v>8</v>
+      <c r="AA24" s="3">
+        <v>0</v>
       </c>
       <c r="AB24" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC24" s="3">
-        <v>0</v>
+      <c r="AC24" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AD24" s="3">
         <v>0</v>
       </c>
-      <c r="AE24" s="3" t="s">
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2218,186 +2267,195 @@
       <c r="AE25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>-500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
       </c>
-      <c r="I26" s="3">
-        <v>0</v>
-      </c>
       <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="3">
         <v>-2800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-900</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
       </c>
-      <c r="O26" s="3">
-        <v>0</v>
-      </c>
       <c r="P26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="R26" s="3">
-        <v>0</v>
-      </c>
       <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
         <v>-100</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
       <c r="U26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V26" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W26" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X26" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z26" s="3">
         <v>0</v>
       </c>
       <c r="AA26" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="3">
         <v>-100</v>
       </c>
       <c r="AC26" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD26" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF26" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="27" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>-500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
       </c>
-      <c r="I27" s="3">
-        <v>0</v>
-      </c>
       <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>-2800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
       </c>
-      <c r="O27" s="3">
-        <v>0</v>
-      </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
         <v>-100</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
       <c r="U27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V27" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W27" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z27" s="3">
         <v>0</v>
       </c>
       <c r="AA27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB27" s="3">
         <v>-100</v>
       </c>
       <c r="AC27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD27" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF27" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2485,8 +2543,11 @@
       <c r="AE28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2574,8 +2635,11 @@
       <c r="AE29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2663,8 +2727,11 @@
       <c r="AE30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2752,23 +2819,26 @@
       <c r="AE31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>0</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>800</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2776,13 +2846,13 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-200</v>
       </c>
-      <c r="K32" s="3">
-        <v>100</v>
-      </c>
       <c r="L32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M32" s="3">
         <v>0</v>
@@ -2841,97 +2911,103 @@
       <c r="AE32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>-500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
       </c>
-      <c r="I33" s="3">
-        <v>0</v>
-      </c>
       <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
         <v>-2800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-900</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
       </c>
-      <c r="O33" s="3">
-        <v>0</v>
-      </c>
       <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="R33" s="3">
-        <v>0</v>
-      </c>
       <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
         <v>-100</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
       <c r="U33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V33" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W33" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z33" s="3">
         <v>0</v>
       </c>
       <c r="AA33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB33" s="3">
         <v>-100</v>
       </c>
       <c r="AC33" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD33" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF33" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="34" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -3019,191 +3095,200 @@
       <c r="AE34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>-500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
       </c>
-      <c r="I35" s="3">
-        <v>0</v>
-      </c>
       <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
         <v>-2800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-900</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
       </c>
-      <c r="O35" s="3">
-        <v>0</v>
-      </c>
       <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="R35" s="3">
-        <v>0</v>
-      </c>
       <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
         <v>-100</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
       <c r="U35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V35" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W35" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z35" s="3">
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>-100</v>
       </c>
       <c r="AC35" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD35" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF35" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44104</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>44012</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43921</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43830</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43738</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43646</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43555</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43465</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43373</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43281</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43190</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43100</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>43008</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42916</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42825</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42735</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3235,8 +3320,9 @@
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
       <c r="AE39" s="3"/>
-    </row>
-    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF39" s="3"/>
+    </row>
+    <row r="40" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3268,46 +3354,47 @@
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
       <c r="AE40" s="3"/>
-    </row>
-    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF40" s="3"/>
+    </row>
+    <row r="41" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E41" s="3">
         <v>6200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>7600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>13300</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>13100</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>16000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>18000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>22900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>27600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>9900</v>
       </c>
-      <c r="N41" s="3">
-        <v>200</v>
-      </c>
       <c r="O41" s="3">
-        <v>400</v>
+        <v>200</v>
       </c>
       <c r="P41" s="3">
         <v>400</v>
@@ -3316,25 +3403,25 @@
         <v>400</v>
       </c>
       <c r="R41" s="3">
+        <v>400</v>
+      </c>
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>1000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>700</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>800</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
-        <v>200</v>
-      </c>
       <c r="X41" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y41" s="3">
         <v>100</v>
@@ -3343,10 +3430,10 @@
         <v>100</v>
       </c>
       <c r="AA41" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AB41" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AC41" s="3">
         <v>300</v>
@@ -3355,21 +3442,24 @@
         <v>300</v>
       </c>
       <c r="AE41" s="3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
+        <v>300</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="42" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E42" s="3">
         <v>3100</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>3000</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>8</v>
@@ -3383,11 +3473,11 @@
       <c r="J42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L42" s="3">
         <v>4200</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>8</v>
@@ -3404,8 +3494,8 @@
       <c r="Q42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
+      <c r="R42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -3446,80 +3536,83 @@
       <c r="AE42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="3">
         <v>2500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>1900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>1800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>2700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>2500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>2300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>1900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>600</v>
-      </c>
-      <c r="M43" s="3">
-        <v>400</v>
       </c>
       <c r="N43" s="3">
         <v>400</v>
       </c>
       <c r="O43" s="3">
+        <v>400</v>
+      </c>
+      <c r="P43" s="3">
         <v>800</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>500</v>
-      </c>
-      <c r="R43" s="3">
-        <v>600</v>
       </c>
       <c r="S43" s="3">
         <v>600</v>
       </c>
       <c r="T43" s="3">
+        <v>600</v>
+      </c>
+      <c r="U43" s="3">
         <v>400</v>
       </c>
-      <c r="U43" s="3">
-        <v>200</v>
-      </c>
       <c r="V43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="W43" s="3">
         <v>300</v>
       </c>
       <c r="X43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Y43" s="3">
         <v>400</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>300</v>
       </c>
-      <c r="Z43" s="3">
-        <v>100</v>
-      </c>
       <c r="AA43" s="3">
         <v>100</v>
       </c>
@@ -3527,54 +3620,57 @@
         <v>100</v>
       </c>
       <c r="AC43" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AD43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AE43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E44" s="3">
         <v>6900</v>
-      </c>
-      <c r="E44" s="3">
-        <v>6600</v>
       </c>
       <c r="F44" s="3">
         <v>6600</v>
       </c>
       <c r="G44" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H44" s="3">
         <v>6300</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>5700</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>4600</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>4200</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>900</v>
-      </c>
-      <c r="L44" s="3">
-        <v>800</v>
       </c>
       <c r="M44" s="3">
         <v>800</v>
       </c>
       <c r="N44" s="3">
+        <v>800</v>
+      </c>
+      <c r="O44" s="3">
         <v>500</v>
-      </c>
-      <c r="O44" s="3">
-        <v>600</v>
       </c>
       <c r="P44" s="3">
         <v>600</v>
@@ -3586,10 +3682,10 @@
         <v>600</v>
       </c>
       <c r="S44" s="3">
+        <v>600</v>
+      </c>
+      <c r="T44" s="3">
         <v>700</v>
-      </c>
-      <c r="T44" s="3">
-        <v>400</v>
       </c>
       <c r="U44" s="3">
         <v>400</v>
@@ -3601,13 +3697,13 @@
         <v>400</v>
       </c>
       <c r="X44" s="3">
+        <v>400</v>
+      </c>
+      <c r="Y44" s="3">
         <v>500</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>400</v>
-      </c>
-      <c r="Z44" s="3">
-        <v>300</v>
       </c>
       <c r="AA44" s="3">
         <v>300</v>
@@ -3624,61 +3720,64 @@
       <c r="AE44" s="3">
         <v>300</v>
       </c>
-    </row>
-    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF44" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="45" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E45" s="3">
         <v>1000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>400</v>
-      </c>
-      <c r="G45" s="3">
-        <v>600</v>
       </c>
       <c r="H45" s="3">
         <v>600</v>
       </c>
       <c r="I45" s="3">
+        <v>600</v>
+      </c>
+      <c r="J45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
-        <v>200</v>
-      </c>
       <c r="K45" s="3">
+        <v>200</v>
+      </c>
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>1500</v>
       </c>
-      <c r="M45" s="3">
-        <v>200</v>
-      </c>
       <c r="N45" s="3">
+        <v>200</v>
+      </c>
+      <c r="O45" s="3">
         <v>300</v>
       </c>
-      <c r="O45" s="3">
-        <v>100</v>
-      </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R45" s="3">
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="U45" s="3">
         <v>100</v>
@@ -3693,7 +3792,7 @@
         <v>100</v>
       </c>
       <c r="Y45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z45" s="3">
         <v>0</v>
@@ -3713,85 +3812,88 @@
       <c r="AE45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>19700</v>
+        <v>18100</v>
       </c>
       <c r="E46" s="3">
         <v>19700</v>
       </c>
       <c r="F46" s="3">
+        <v>19700</v>
+      </c>
+      <c r="G46" s="3">
         <v>22200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>22600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>23200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>23100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>24300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>29500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>30600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>11300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1400</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1900</v>
-      </c>
-      <c r="P46" s="3">
-        <v>1500</v>
       </c>
       <c r="Q46" s="3">
         <v>1500</v>
       </c>
       <c r="R46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="S46" s="3">
         <v>1900</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1400</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1100</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>800</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>600</v>
       </c>
       <c r="AA46" s="3">
         <v>600</v>
       </c>
       <c r="AB46" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="AC46" s="3">
         <v>700</v>
@@ -3800,39 +3902,42 @@
         <v>700</v>
       </c>
       <c r="AE46" s="3">
+        <v>700</v>
+      </c>
+      <c r="AF46" s="3">
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>300</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M47" s="3" t="s">
         <v>8</v>
@@ -3849,8 +3954,8 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
-        <v>0</v>
+      <c r="R47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -3891,8 +3996,11 @@
       <c r="AE47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3900,37 +4008,37 @@
         <v>6400</v>
       </c>
       <c r="E48" s="3">
+        <v>6400</v>
+      </c>
+      <c r="F48" s="3">
         <v>6000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>6200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>6400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>6200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>2500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1000</v>
-      </c>
-      <c r="M48" s="3">
-        <v>600</v>
       </c>
       <c r="N48" s="3">
         <v>600</v>
       </c>
       <c r="O48" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="P48" s="3">
         <v>700</v>
@@ -3945,25 +4053,25 @@
         <v>700</v>
       </c>
       <c r="T48" s="3">
-        <v>200</v>
+        <v>700</v>
       </c>
       <c r="U48" s="3">
+        <v>200</v>
+      </c>
+      <c r="V48" s="3">
         <v>300</v>
       </c>
-      <c r="V48" s="3">
-        <v>200</v>
-      </c>
       <c r="W48" s="3">
         <v>200</v>
       </c>
       <c r="X48" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Y48" s="3">
         <v>0</v>
       </c>
       <c r="Z48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA48" s="3">
         <v>100</v>
@@ -3980,13 +4088,16 @@
       <c r="AE48" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF48" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="49" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>7800</v>
+        <v>7700</v>
       </c>
       <c r="E49" s="3">
         <v>7800</v>
@@ -3995,19 +4106,19 @@
         <v>7800</v>
       </c>
       <c r="G49" s="3">
-        <v>8000</v>
+        <v>7800</v>
       </c>
       <c r="H49" s="3">
         <v>8000</v>
       </c>
       <c r="I49" s="3">
-        <v>8100</v>
+        <v>8000</v>
       </c>
       <c r="J49" s="3">
         <v>8100</v>
       </c>
       <c r="K49" s="3">
-        <v>700</v>
+        <v>8100</v>
       </c>
       <c r="L49" s="3">
         <v>700</v>
@@ -4016,7 +4127,7 @@
         <v>700</v>
       </c>
       <c r="N49" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="O49" s="3">
         <v>800</v>
@@ -4033,8 +4144,8 @@
       <c r="S49" s="3">
         <v>800</v>
       </c>
-      <c r="T49" s="3" t="s">
-        <v>8</v>
+      <c r="T49" s="3">
+        <v>800</v>
       </c>
       <c r="U49" s="3" t="s">
         <v>8</v>
@@ -4051,8 +4162,8 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
-        <v>0</v>
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA49" s="3">
         <v>0</v>
@@ -4069,8 +4180,11 @@
       <c r="AE49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4158,8 +4272,11 @@
       <c r="AE50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4247,8 +4364,11 @@
       <c r="AE51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4256,7 +4376,7 @@
         <v>400</v>
       </c>
       <c r="E52" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="F52" s="3">
         <v>500</v>
@@ -4271,16 +4391,16 @@
         <v>500</v>
       </c>
       <c r="J52" s="3">
+        <v>500</v>
+      </c>
+      <c r="K52" s="3">
         <v>400</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
       <c r="L52" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -4336,8 +4456,11 @@
       <c r="AE52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4425,85 +4548,88 @@
       <c r="AE53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32600</v>
+      </c>
+      <c r="E54" s="3">
         <v>34300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>34000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>36700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>37500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>37900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>34200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>35200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>31900</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>32400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>12700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3300</v>
-      </c>
-      <c r="P54" s="3">
-        <v>3000</v>
       </c>
       <c r="Q54" s="3">
         <v>3000</v>
       </c>
       <c r="R54" s="3">
+        <v>3000</v>
+      </c>
+      <c r="S54" s="3">
         <v>3400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>1800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>1700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>1400</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>1300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>1100</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>900</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>700</v>
       </c>
       <c r="AA54" s="3">
         <v>700</v>
       </c>
       <c r="AB54" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="AC54" s="3">
         <v>800</v>
@@ -4512,10 +4638,13 @@
         <v>800</v>
       </c>
       <c r="AE54" s="3">
+        <v>800</v>
+      </c>
+      <c r="AF54" s="3">
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4547,8 +4676,9 @@
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
       <c r="AE55" s="3"/>
-    </row>
-    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF55" s="3"/>
+    </row>
+    <row r="56" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4580,46 +4710,47 @@
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
       <c r="AE56" s="3"/>
-    </row>
-    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF56" s="3"/>
+    </row>
+    <row r="57" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>3000</v>
-      </c>
-      <c r="K57" s="3">
-        <v>400</v>
       </c>
       <c r="L57" s="3">
         <v>400</v>
       </c>
       <c r="M57" s="3">
+        <v>400</v>
+      </c>
+      <c r="N57" s="3">
         <v>300</v>
       </c>
-      <c r="N57" s="3">
-        <v>100</v>
-      </c>
       <c r="O57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P57" s="3">
         <v>200</v>
@@ -4634,7 +4765,7 @@
         <v>200</v>
       </c>
       <c r="T57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U57" s="3">
         <v>100</v>
@@ -4646,10 +4777,10 @@
         <v>100</v>
       </c>
       <c r="X57" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="Y57" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Z57" s="3">
         <v>100</v>
@@ -4669,8 +4800,11 @@
       <c r="AE57" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF57" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4678,7 +4812,7 @@
         <v>100</v>
       </c>
       <c r="E58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
@@ -4687,11 +4821,11 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
+        <v>200</v>
+      </c>
+      <c r="I58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3">
-        <v>200</v>
-      </c>
       <c r="J58" s="3">
         <v>200</v>
       </c>
@@ -4705,17 +4839,17 @@
         <v>200</v>
       </c>
       <c r="N58" s="3">
+        <v>200</v>
+      </c>
+      <c r="O58" s="3">
         <v>400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>300</v>
       </c>
-      <c r="Q58" s="3">
-        <v>200</v>
-      </c>
       <c r="R58" s="3">
         <v>200</v>
       </c>
@@ -4723,7 +4857,7 @@
         <v>200</v>
       </c>
       <c r="T58" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U58" s="3">
         <v>100</v>
@@ -4744,13 +4878,13 @@
         <v>100</v>
       </c>
       <c r="AA58" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AB58" s="3">
         <v>0</v>
       </c>
       <c r="AC58" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AD58" s="3">
         <v>100</v>
@@ -4758,13 +4892,16 @@
       <c r="AE58" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF58" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>800</v>
+        <v>600</v>
       </c>
       <c r="E59" s="3">
         <v>800</v>
@@ -4773,31 +4910,31 @@
         <v>800</v>
       </c>
       <c r="G59" s="3">
+        <v>800</v>
+      </c>
+      <c r="H59" s="3">
         <v>700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>300</v>
       </c>
-      <c r="L59" s="3">
-        <v>200</v>
-      </c>
       <c r="M59" s="3">
         <v>200</v>
       </c>
       <c r="N59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="P59" s="3">
         <v>200</v>
@@ -4809,105 +4946,108 @@
         <v>200</v>
       </c>
       <c r="S59" s="3">
+        <v>200</v>
+      </c>
+      <c r="T59" s="3">
         <v>300</v>
       </c>
-      <c r="T59" s="3">
-        <v>200</v>
-      </c>
       <c r="U59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="V59" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W59" s="3">
         <v>200</v>
       </c>
       <c r="X59" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Y59" s="3">
         <v>100</v>
       </c>
       <c r="Z59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AA59" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AB59" s="3">
         <v>100</v>
       </c>
       <c r="AC59" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD59" s="3">
         <v>0</v>
       </c>
       <c r="AE59" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E60" s="3">
         <v>3000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>2000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>2500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>3800</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>800</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>700</v>
-      </c>
-      <c r="T60" s="3">
-        <v>300</v>
       </c>
       <c r="U60" s="3">
         <v>300</v>
       </c>
       <c r="V60" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="W60" s="3">
         <v>400</v>
@@ -4916,11 +5056,11 @@
         <v>400</v>
       </c>
       <c r="Y60" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z60" s="3">
         <v>300</v>
       </c>
-      <c r="Z60" s="3">
-        <v>200</v>
-      </c>
       <c r="AA60" s="3">
         <v>200</v>
       </c>
@@ -4934,15 +5074,18 @@
         <v>200</v>
       </c>
       <c r="AE60" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF60" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -4951,58 +5094,58 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
+        <v>200</v>
+      </c>
+      <c r="I61" s="3">
         <v>500</v>
       </c>
-      <c r="I61" s="3">
-        <v>200</v>
-      </c>
       <c r="J61" s="3">
         <v>200</v>
       </c>
       <c r="K61" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="L61" s="3">
         <v>300</v>
       </c>
       <c r="M61" s="3">
-        <v>1400</v>
+        <v>300</v>
       </c>
       <c r="N61" s="3">
         <v>1400</v>
       </c>
       <c r="O61" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="P61" s="3">
         <v>1500</v>
       </c>
       <c r="Q61" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="R61" s="3">
         <v>1400</v>
       </c>
       <c r="S61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="T61" s="3">
         <v>1700</v>
-      </c>
-      <c r="T61" s="3">
-        <v>400</v>
       </c>
       <c r="U61" s="3">
         <v>400</v>
       </c>
       <c r="V61" s="3">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="W61" s="3">
         <v>100</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Y61" s="3">
         <v>0</v>
@@ -5025,35 +5168,38 @@
       <c r="AE61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3400</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>3600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>5300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>5400</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>2100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>2200</v>
       </c>
-      <c r="K62" s="3">
-        <v>200</v>
-      </c>
       <c r="L62" s="3">
         <v>200</v>
       </c>
@@ -5061,7 +5207,7 @@
         <v>200</v>
       </c>
       <c r="N62" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="O62" s="3">
         <v>300</v>
@@ -5076,16 +5222,16 @@
         <v>300</v>
       </c>
       <c r="S62" s="3">
+        <v>300</v>
+      </c>
+      <c r="T62" s="3">
         <v>400</v>
       </c>
-      <c r="T62" s="3">
-        <v>0</v>
-      </c>
       <c r="U62" s="3">
         <v>0</v>
       </c>
-      <c r="V62" s="3" t="s">
-        <v>8</v>
+      <c r="V62" s="3">
+        <v>0</v>
       </c>
       <c r="W62" s="3" t="s">
         <v>8</v>
@@ -5096,8 +5242,8 @@
       <c r="Y62" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z62" s="3">
-        <v>0</v>
+      <c r="Z62" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="AA62" s="3">
         <v>0</v>
@@ -5114,8 +5260,11 @@
       <c r="AE62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5203,8 +5352,11 @@
       <c r="AE63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5292,8 +5444,11 @@
       <c r="AE64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5381,80 +5536,83 @@
       <c r="AE65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>5500</v>
+      </c>
+      <c r="E66" s="3">
         <v>6500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>5700</v>
-      </c>
-      <c r="F66" s="3">
-        <v>7900</v>
       </c>
       <c r="G66" s="3">
         <v>7900</v>
       </c>
       <c r="H66" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I66" s="3">
         <v>8900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>5200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6200</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1300</v>
       </c>
       <c r="L66" s="3">
         <v>1300</v>
       </c>
       <c r="M66" s="3">
+        <v>1300</v>
+      </c>
+      <c r="N66" s="3">
         <v>2500</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2500</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2300</v>
       </c>
       <c r="R66" s="3">
         <v>2300</v>
       </c>
       <c r="S66" s="3">
+        <v>2300</v>
+      </c>
+      <c r="T66" s="3">
         <v>2700</v>
-      </c>
-      <c r="T66" s="3">
-        <v>700</v>
       </c>
       <c r="U66" s="3">
         <v>700</v>
       </c>
       <c r="V66" s="3">
+        <v>700</v>
+      </c>
+      <c r="W66" s="3">
         <v>500</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>600</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>300</v>
       </c>
-      <c r="Z66" s="3">
-        <v>200</v>
-      </c>
       <c r="AA66" s="3">
         <v>200</v>
       </c>
@@ -5468,10 +5626,13 @@
         <v>200</v>
       </c>
       <c r="AE66" s="3">
+        <v>200</v>
+      </c>
+      <c r="AF66" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5503,8 +5664,9 @@
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
       <c r="AE67" s="3"/>
-    </row>
-    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF67" s="3"/>
+    </row>
+    <row r="68" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5592,8 +5754,11 @@
       <c r="AE68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5681,8 +5846,11 @@
       <c r="AE69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5770,8 +5938,11 @@
       <c r="AE70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5859,70 +6030,73 @@
       <c r="AE71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="E72" s="3">
         <v>-8400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-7900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-7300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-6400</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-7000</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-6600</v>
       </c>
       <c r="J72" s="3">
         <v>-6600</v>
       </c>
       <c r="K72" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="L72" s="3">
         <v>-3800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-3200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-2700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-1900</v>
-      </c>
-      <c r="O72" s="3">
-        <v>-1400</v>
       </c>
       <c r="P72" s="3">
         <v>-1400</v>
       </c>
       <c r="Q72" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="R72" s="3">
         <v>-1200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-700</v>
-      </c>
-      <c r="U72" s="3">
-        <v>-800</v>
       </c>
       <c r="V72" s="3">
         <v>-800</v>
       </c>
       <c r="W72" s="3">
-        <v>-1100</v>
+        <v>-800</v>
       </c>
       <c r="X72" s="3">
         <v>-1100</v>
@@ -5931,25 +6105,28 @@
         <v>-1100</v>
       </c>
       <c r="Z72" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="AA72" s="3">
         <v>-1200</v>
       </c>
       <c r="AB72" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="AC72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AD72" s="3">
         <v>-1000</v>
       </c>
-      <c r="AD72" s="3">
+      <c r="AE72" s="3">
         <v>-1100</v>
       </c>
-      <c r="AE72" s="3">
+      <c r="AF72" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -6037,8 +6214,11 @@
       <c r="AE73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -6126,8 +6306,11 @@
       <c r="AE74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6215,85 +6398,88 @@
       <c r="AE75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>27100</v>
+      </c>
+      <c r="E76" s="3">
         <v>27800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>28200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>28800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>29600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>28900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>29100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>29000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>30600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>10200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>400</v>
-      </c>
-      <c r="O76" s="3">
-        <v>600</v>
       </c>
       <c r="P76" s="3">
         <v>600</v>
       </c>
       <c r="Q76" s="3">
+        <v>600</v>
+      </c>
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1100</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1100</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>900</v>
-      </c>
-      <c r="W76" s="3">
-        <v>700</v>
       </c>
       <c r="X76" s="3">
         <v>700</v>
       </c>
       <c r="Y76" s="3">
+        <v>700</v>
+      </c>
+      <c r="Z76" s="3">
         <v>600</v>
-      </c>
-      <c r="Z76" s="3">
-        <v>500</v>
       </c>
       <c r="AA76" s="3">
         <v>500</v>
       </c>
       <c r="AB76" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AC76" s="3">
         <v>600</v>
@@ -6302,10 +6488,13 @@
         <v>600</v>
       </c>
       <c r="AE76" s="3">
+        <v>600</v>
+      </c>
+      <c r="AF76" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6393,191 +6582,200 @@
       <c r="AE77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:32" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44104</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>44012</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43921</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43830</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43738</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43646</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43555</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43465</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43373</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43281</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43190</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43100</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>43008</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42916</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42825</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42735</v>
       </c>
-      <c r="AE80" s="2">
+      <c r="AF80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>-500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
       </c>
-      <c r="I81" s="3">
-        <v>0</v>
-      </c>
       <c r="J81" s="3">
+        <v>0</v>
+      </c>
+      <c r="K81" s="3">
         <v>-2800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-900</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
       </c>
-      <c r="O81" s="3">
-        <v>0</v>
-      </c>
       <c r="P81" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="R81" s="3">
-        <v>0</v>
-      </c>
       <c r="S81" s="3">
+        <v>0</v>
+      </c>
+      <c r="T81" s="3">
         <v>-100</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
       <c r="U81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="V81" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W81" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="X81" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Y81" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z81" s="3">
         <v>0</v>
       </c>
       <c r="AA81" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AB81" s="3">
         <v>-100</v>
       </c>
       <c r="AC81" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AD81" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AE81" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF81" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6609,8 +6807,9 @@
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
       <c r="AE82" s="3"/>
-    </row>
-    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF82" s="3"/>
+    </row>
+    <row r="83" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6636,7 +6835,7 @@
         <v>100</v>
       </c>
       <c r="K83" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -6698,8 +6897,11 @@
       <c r="AE83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6787,8 +6989,11 @@
       <c r="AE84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6876,8 +7081,11 @@
       <c r="AE85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6965,8 +7173,11 @@
       <c r="AE86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -7054,8 +7265,11 @@
       <c r="AE87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -7143,97 +7357,103 @@
       <c r="AE88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-700</v>
       </c>
-      <c r="F89" s="3">
-        <v>100</v>
-      </c>
       <c r="G89" s="3">
+        <v>100</v>
+      </c>
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-1000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-700</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-200</v>
       </c>
       <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
-        <v>0</v>
-      </c>
       <c r="S89" s="3">
         <v>0</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
-      <c r="U89" s="3">
-        <v>100</v>
-      </c>
       <c r="V89" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="W89" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X89" s="3">
         <v>100</v>
       </c>
       <c r="Y89" s="3">
+        <v>100</v>
+      </c>
+      <c r="Z89" s="3">
         <v>-100</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
-      <c r="AB89" s="3">
-        <v>100</v>
-      </c>
       <c r="AC89" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AD89" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE89" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF89" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7265,55 +7485,56 @@
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
       <c r="AE90" s="3"/>
-    </row>
-    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF90" s="3"/>
+    </row>
+    <row r="91" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-700</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-100</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-200</v>
-      </c>
-      <c r="I91" s="3">
-        <v>-100</v>
       </c>
       <c r="J91" s="3">
         <v>-100</v>
       </c>
       <c r="K91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L91" s="3">
         <v>-500</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-400</v>
       </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
       <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
         <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>8</v>
+      <c r="R91" s="3">
+        <v>0</v>
       </c>
       <c r="S91" s="3" t="s">
         <v>8</v>
@@ -7324,8 +7545,8 @@
       <c r="U91" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -7354,8 +7575,11 @@
       <c r="AE91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7443,8 +7667,11 @@
       <c r="AE92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7532,47 +7759,50 @@
       <c r="AE93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E94" s="3">
         <v>-700</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-2800</v>
       </c>
-      <c r="F94" s="3">
-        <v>200</v>
-      </c>
       <c r="G94" s="3">
+        <v>200</v>
+      </c>
+      <c r="H94" s="3">
         <v>-900</v>
-      </c>
-      <c r="H94" s="3">
-        <v>-200</v>
       </c>
       <c r="I94" s="3">
         <v>-200</v>
       </c>
       <c r="J94" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K94" s="3">
         <v>-5200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-3700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-1700</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>-100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
       <c r="P94" s="3">
         <v>0</v>
       </c>
@@ -7583,11 +7813,11 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-700</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
         <v>0</v>
       </c>
@@ -7621,8 +7851,11 @@
       <c r="AE94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7654,8 +7887,9 @@
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
       <c r="AE95" s="3"/>
-    </row>
-    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF95" s="3"/>
+    </row>
+    <row r="96" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7743,8 +7977,11 @@
       <c r="AE96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7832,8 +8069,11 @@
       <c r="AE97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7921,8 +8161,11 @@
       <c r="AE98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -8010,29 +8253,32 @@
       <c r="AE99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>-100</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>-100</v>
       </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
         <v>0</v>
       </c>
@@ -8040,37 +8286,37 @@
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>20400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>10300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-200</v>
       </c>
-      <c r="O100" s="3">
-        <v>200</v>
-      </c>
       <c r="P100" s="3">
         <v>200</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>-400</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>1000</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V100" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W100" s="3">
         <v>0</v>
@@ -8097,10 +8343,13 @@
         <v>0</v>
       </c>
       <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF100" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -8188,93 +8437,99 @@
       <c r="AE101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
+      <c r="AF101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:32" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5700</v>
       </c>
-      <c r="F102" s="3">
-        <v>200</v>
-      </c>
       <c r="G102" s="3">
+        <v>200</v>
+      </c>
+      <c r="H102" s="3">
         <v>-1300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-1600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-4900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-4700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>17800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>9700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
-      </c>
       <c r="P102" s="3">
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>300</v>
       </c>
-      <c r="V102" s="3">
-        <v>200</v>
-      </c>
       <c r="W102" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X102" s="3">
         <v>100</v>
       </c>
       <c r="Y102" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Z102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="AA102" s="3">
         <v>-100</v>
       </c>
       <c r="AB102" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="AC102" s="3">
         <v>0</v>
       </c>
       <c r="AD102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AE102" s="3">
+        <v>100</v>
+      </c>
+      <c r="AF102" s="3">
         <v>0</v>
       </c>
     </row>
